--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD26AF1-D35E-4776-A4F6-4A9E97C40102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266611CB-24CF-46FB-998A-4C59E06098F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -287,9 +278,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8480,232 +8471,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F022D-9568-441E-BB2A-9DD37CD3F5CE}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="15.28515625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="15.28515625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>410730</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>70317</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>-35.590000000000003</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>-35.536999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>148.82</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>148.83799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2374.2292000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>4854.5852000000004</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>243.62979999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1711.7556</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>234.14660000000001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1607.0690999999999</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>77.969909999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>2750.5120000000002</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>354.96710000000002</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4">
+      <c r="M15" s="9"/>
+      <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.53456998313659398</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.37931377858800602</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="9"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -8720,32 +8712,32 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>354.00639999999999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="4">
+      <c r="M16" s="9"/>
+      <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.60311958405545896</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>0.36261706109835701</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="S16" s="9"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -8760,32 +8752,32 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>352.59160000000003</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4">
+      <c r="M17" s="9"/>
+      <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.56678700361010803</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>0.25301044237014197</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="9"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -8800,32 +8792,32 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>351.37459999999999</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>12</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="4">
+      <c r="M18" s="9"/>
+      <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>0.59352517985611497</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>0.30863162569062802</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="9"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -8840,32 +8832,32 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>349.51029999999997</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>10</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4">
+      <c r="M19" s="9"/>
+      <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>0.61739130434782596</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>0.34381481384798901</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="1"/>
+      <c r="S19" s="9"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -8880,32 +8872,32 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>349.21910000000003</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4">
+      <c r="M20" s="9"/>
+      <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>0.67286245353159801</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>0.37169872103620499</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="9"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -8920,32 +8912,32 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>278.57220000000001</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>15</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="4">
+      <c r="M21" s="9"/>
+      <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>0.69805194805194803</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>0.31474906698147598</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="1"/>
+      <c r="S21" s="9"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -8960,32 +8952,32 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>263.69260000000003</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>14</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="4">
+      <c r="M22" s="9"/>
+      <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>0.692556634304207</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>0.43065860750524099</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="1"/>
+      <c r="S22" s="9"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -9000,32 +8992,32 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>257.4966</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="4">
+      <c r="M23" s="9"/>
+      <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>0.64355231143552305</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>0.48803436336804101</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="S23" s="9"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -9040,32 +9032,32 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>257.12400000000002</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="4">
+      <c r="M24" s="9"/>
+      <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>0.62301587301587302</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>0.48943238560621499</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="1"/>
+      <c r="S24" s="9"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -9080,32 +9072,32 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>254.3227</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>11</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4">
+      <c r="M25" s="9"/>
+      <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>0.63587684069611805</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>0.51578566362843503</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="1"/>
+      <c r="S25" s="9"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -9120,32 +9112,32 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>245.43700000000001</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>12</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4">
+      <c r="M26" s="9"/>
+      <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>0.56202143950995398</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>0.38876075512872599</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="1"/>
+      <c r="S26" s="9"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -9160,90 +9152,90 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>244.57249999999999</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>13</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>2025.8889999999999</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>244.13120000000001</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="W28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>243.62979999999999</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>9</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="4">
+      <c r="M29" s="9"/>
+      <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>0.43829205923881598</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>0.37931377858800602</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="1"/>
+      <c r="S29" s="9"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -9258,32 +9250,32 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>243.62979999999999</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>6</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="4">
+      <c r="M30" s="9"/>
+      <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>0.39492163193833002</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>0.36261706109835701</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="1"/>
+      <c r="S30" s="9"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -9298,32 +9290,32 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>243.62979999999999</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="4">
+      <c r="M31" s="9"/>
+      <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>0.87088207200304601</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>0.25301044237014197</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="1"/>
+      <c r="S31" s="9"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -9338,32 +9330,32 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>243.62979999999999</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>6</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="4">
+      <c r="M32" s="9"/>
+      <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>0.29740313542204999</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <v>0.30863162569062802</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="1"/>
+      <c r="S32" s="9"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -9378,32 +9370,32 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>243.62979999999999</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>6</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="4">
+      <c r="M33" s="9"/>
+      <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>5.59325334187631E-2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>0.34381481384798901</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="1"/>
+      <c r="S33" s="9"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -9418,27 +9410,27 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="4">
+      <c r="M34" s="9"/>
+      <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>0.47113270964436998</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <v>0.37169872103620499</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="1"/>
+      <c r="S34" s="9"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -9453,32 +9445,32 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="4">
+      <c r="M35" s="9"/>
+      <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>0.43801298450999498</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <v>0.31474906698147598</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="1"/>
+      <c r="S35" s="9"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -9493,32 +9485,32 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>235.9324</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>17</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="4">
+      <c r="M36" s="9"/>
+      <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="3">
         <v>0.227429686269319</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="3">
         <v>0.43065860750524099</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="1"/>
+      <c r="S36" s="9"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -9533,32 +9525,32 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>235.2542</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>34</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="4">
+      <c r="M37" s="9"/>
+      <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <v>0.39745220509067403</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <v>0.48803436336804101</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="1"/>
+      <c r="S37" s="9"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -9573,32 +9565,32 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>235.2499</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>6</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="4">
+      <c r="M38" s="9"/>
+      <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>0.34977635540136098</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="3">
         <v>0.48943238560621499</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="1"/>
+      <c r="S38" s="9"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -9613,32 +9605,32 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>235.24379999999999</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>9</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="4">
+      <c r="M39" s="9"/>
+      <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <v>6.0110071168613E-2</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
         <v>0.51578566362843503</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="1"/>
+      <c r="S39" s="9"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -9653,32 +9645,32 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>235.23849999999999</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>6</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="4">
+      <c r="M40" s="9"/>
+      <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>0.38318917618792803</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <v>0.38876075512872599</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="1"/>
+      <c r="S40" s="9"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -9693,222 +9685,226 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>234.2723</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>24</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>4145.701</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>234.25129999999999</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>15</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>3727.1819999999998</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>234.22139999999999</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>13</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>2138.33</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>234.15430000000001</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>18</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>3041.9250000000002</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>234.14660000000001</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>10</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>2488.364</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <f>SUM(D36:D45)</f>
         <v>30201.999</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>125.3005</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>19</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>18461.3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>95.789739999999995</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>14</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>21109.31</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>81.903270000000006</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>14</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>13545.45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>81.69838</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>27</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>12554.09</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>81.692019999999999</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>8</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>10146.68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>81.684169999999995</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>12</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>9867.723</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>78.686400000000006</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>17</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>13429.76</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>77.969909999999999</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>19</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>6464.049</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="A57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <f>SUM(D49:D56)</f>
         <v>105578.36199999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="D58" s="3">
+        <f>D57/3600</f>
+        <v>29.327322777777773</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266611CB-24CF-46FB-998A-4C59E06098F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A136B5-EBE2-45B2-BA0E-C81C005ADA9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -196,11 +196,32 @@
   <si>
     <t>All parameters - trial 08</t>
   </si>
+  <si>
+    <t>trial 20</t>
+  </si>
+  <si>
+    <t>min/iter</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total (hours)</t>
+  </si>
+  <si>
+    <t>All parameters - trial 20 with new code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -268,11 +289,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,6 +358,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,6 +828,1416 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Beta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$Q$15:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.58728781463245E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3681764227666198E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4197273610095398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2982326668253398E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9210456676542803E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3839423232491005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0543007648536503E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3780910910447394E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7854780313007207E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.59179939282937E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2744489854828703E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4817605022355401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B71-451C-B314-6668EC324BE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>All parameters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$E$88:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0126088797509298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.247183014901495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19397772412466199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.222115613516532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108967584719164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0976784157789298E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.110207501118916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8025725529514599E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4423204799198797E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23763216074459201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25297020591529301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16891964148408001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B71-451C-B314-6668EC324BE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PDW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$N$15:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24168126094570899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22709163346613501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20782608695652199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20768526989936001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26035502958579898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31353919239904998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.346964064436183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35272277227722798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341890315052509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.290091930541369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29184549356223199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26524953789279099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6A2-4034-9313-183733462CC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>All parameters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$B$88:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24876353457231101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.219987429047449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.207088697175904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20282760809472999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25821864807263301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31357578247072398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.333053483335428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.338303892182162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32122943103168999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29765907929784002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29113640522276701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25230062336532699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B6A2-4034-9313-183733462CC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PWW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$O$15:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53456998313659398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60311958405545896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56678700361010803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59352517985611497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61739130434782596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67286245353159801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69805194805194803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.692556634304207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64355231143552305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62301587301587302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63587684069611805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56202143950995398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A1D-4073-9478-636AD8DD9D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>All parameters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$C$88:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.52163003704873101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59064730834249202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56728893199513797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58774772931910102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61908888704755505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67128770237067303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68341384062193899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67893625141851999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65233449779060104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63284919541254503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64202807111663796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57313638240736697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A1D-4073-9478-636AD8DD9D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Occurrence only</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:prstDash val="dashDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Site 1_410730'!$O$29:$O$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.43829205923881598</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.39492163193833002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.87088207200304601</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.29740313542204999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.59325334187631E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.47113270964436998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.43801298450999498</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.227429686269319</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39745220509067403</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.34977635540136098</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.0110071168613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.38318917618792803</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7A1D-4073-9478-636AD8DD9D92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Amount only with optimised occurrence</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Site 1_410730'!$U$29:$U$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.43829205923881598</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.39492163193833002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.87088207200304601</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.29740313542204999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.59325334187631E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.47113270964436998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.43801298450999498</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.227429686269319</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39745220509067403</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.34977635540136098</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.0110071168613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.38318917618792803</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7A1D-4073-9478-636AD8DD9D92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4017,7 +5506,1078 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Optimising all parameters at once with new code</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Site 1_410730'!$A$62:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>trial 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trial2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trial 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trial 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trial 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>trial 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>trial 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>trial 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>trial 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>trial 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>trial 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>trial 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>trial 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>trial 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>trial 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>trial 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trial 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>trial 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>trial 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>trial 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$B$62:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1347.6310000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1239.0129999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1131.615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1076.588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1076.0989999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.49489999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412.91629999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.40390000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.79790000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>381.70139999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>369.66090000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>366.90469999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>366.90280000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>365.73590000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365.56659999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>364.13909999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>361.17739999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>359.78059999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>353.36419999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>328.82209999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36EA-4EDE-A4F9-9E97D767EC29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638324736"/>
+        <c:axId val="638332936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638324736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638332936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638332936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>SSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638324736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Alpha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$P$15:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37931377858800602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36261706109835701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25301044237014197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30863162569062802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34381481384798901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37169872103620499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31474906698147598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43065860750524099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48803436336804101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48943238560621499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51578566362843503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38876075512872599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C8F-4910-929F-192A84957B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>All parameter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$D$88:$D$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.64646630066537503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28150230089809403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.147077396809531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26083014191157899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33957360635193401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60211184127404405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44121011533986199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47235056340581999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57819645635368899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52266486821604596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.480236828686673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49197669235243702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C8F-4910-929F-192A84957B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4297,6 +6857,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4813,8 +7453,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4841,8 +7481,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4922,6 +7562,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4932,6 +7577,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4943,7 +7593,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4963,6 +7613,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4975,10 +7628,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5018,23 +7671,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5139,8 +7791,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5272,20 +7924,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5299,17 +7950,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5329,7 +7969,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5845,7 +8485,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6361,8 +9001,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6389,8 +9029,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6470,11 +9110,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6485,11 +9120,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6501,7 +9131,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6521,9 +9151,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6536,10 +9163,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6579,22 +9206,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6699,8 +9327,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6832,19 +9460,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6858,6 +9487,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6877,7 +9517,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7393,8 +10033,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7421,8 +10061,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7502,6 +10142,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7512,6 +10157,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7523,7 +10173,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7543,6 +10193,1544 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7890,6 +12078,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8135,16 +13355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>942974</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8164,6 +13384,194 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DD5301-CA85-4DDE-BB62-411A292B3C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D69F30-6400-4D17-95DF-DC29599C4C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36B5ADA-07E5-44A5-8328-43F3C715310F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C9836F-BE98-478F-A4F9-975ADC7536A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E1BFDA-7205-4B00-B93F-C6A4A2C2D14E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8469,19 +13877,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F022D-9568-441E-BB2A-9DD37CD3F5CE}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
@@ -8640,7 +14048,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -8655,7 +14063,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -8684,7 +14092,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -8697,7 +14105,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="9"/>
+      <c r="S15" s="10"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -8724,7 +14132,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -8737,7 +14145,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="9"/>
+      <c r="S16" s="10"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -8764,7 +14172,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -8777,7 +14185,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="9"/>
+      <c r="S17" s="10"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -8804,7 +14212,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -8817,7 +14225,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="9"/>
+      <c r="S18" s="10"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -8844,7 +14252,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -8857,7 +14265,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="9"/>
+      <c r="S19" s="10"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -8884,7 +14292,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -8897,7 +14305,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="9"/>
+      <c r="S20" s="10"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -8924,7 +14332,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -8937,7 +14345,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="10"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -8964,7 +14372,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -8977,7 +14385,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="9"/>
+      <c r="S22" s="10"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -9004,7 +14412,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -9017,7 +14425,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="9"/>
+      <c r="S23" s="10"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -9044,7 +14452,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -9057,7 +14465,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="9"/>
+      <c r="S24" s="10"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -9084,7 +14492,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -9097,7 +14505,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="9"/>
+      <c r="S25" s="10"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -9124,7 +14532,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -9137,7 +14545,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="9"/>
+      <c r="S26" s="10"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -9178,7 +14586,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="10" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -9193,7 +14601,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -9222,7 +14630,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -9235,7 +14643,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="9"/>
+      <c r="S29" s="10"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -9262,7 +14670,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -9275,7 +14683,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="9"/>
+      <c r="S30" s="10"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -9302,7 +14710,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -9315,7 +14723,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="9"/>
+      <c r="S31" s="10"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -9342,7 +14750,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -9355,7 +14763,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="9"/>
+      <c r="S32" s="10"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -9382,7 +14790,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -9395,7 +14803,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="9"/>
+      <c r="S33" s="10"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -9417,7 +14825,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -9430,7 +14838,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="9"/>
+      <c r="S34" s="10"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -9457,7 +14865,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -9470,7 +14878,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="9"/>
+      <c r="S35" s="10"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -9497,7 +14905,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -9510,7 +14918,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="9"/>
+      <c r="S36" s="10"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -9537,7 +14945,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="9"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -9550,7 +14958,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="9"/>
+      <c r="S37" s="10"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -9577,7 +14985,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="9"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -9590,7 +14998,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="9"/>
+      <c r="S38" s="10"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -9617,7 +15025,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -9630,7 +15038,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="9"/>
+      <c r="S39" s="10"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -9657,7 +15065,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -9670,7 +15078,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="9"/>
+      <c r="S40" s="10"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -9763,6 +15171,7 @@
         <v>30201.999</v>
       </c>
     </row>
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>43</v>
@@ -9776,8 +15185,11 @@
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E48" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -9790,8 +15202,12 @@
       <c r="D49" s="3">
         <v>18461.3</v>
       </c>
+      <c r="E49" s="13">
+        <f>D49/C49/60</f>
+        <v>16.194122807017543</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9804,8 +15220,12 @@
       <c r="D50" s="3">
         <v>21109.31</v>
       </c>
+      <c r="E50" s="13">
+        <f t="shared" ref="E50:E56" si="0">D50/C50/60</f>
+        <v>25.130130952380956</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -9818,8 +15238,12 @@
       <c r="D51" s="3">
         <v>13545.45</v>
       </c>
+      <c r="E51" s="13">
+        <f t="shared" si="0"/>
+        <v>16.125535714285714</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -9832,8 +15256,12 @@
       <c r="D52" s="3">
         <v>12554.09</v>
       </c>
+      <c r="E52" s="13">
+        <f t="shared" si="0"/>
+        <v>7.749438271604939</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -9846,8 +15274,12 @@
       <c r="D53" s="3">
         <v>10146.68</v>
       </c>
+      <c r="E53" s="13">
+        <f t="shared" si="0"/>
+        <v>21.138916666666667</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -9860,8 +15292,12 @@
       <c r="D54" s="3">
         <v>9867.723</v>
       </c>
+      <c r="E54" s="13">
+        <f t="shared" si="0"/>
+        <v>13.705170833333334</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -9874,8 +15310,12 @@
       <c r="D55" s="3">
         <v>13429.76</v>
       </c>
+      <c r="E55" s="13">
+        <f t="shared" si="0"/>
+        <v>13.16643137254902</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -9888,30 +15328,631 @@
       <c r="D56" s="3">
         <v>6464.049</v>
       </c>
+      <c r="E56" s="13">
+        <f t="shared" si="0"/>
+        <v>5.6702184210526321</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2">
+        <f>SUM(D49:D56)/3600</f>
+        <v>29.327322777777773</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="E58" s="15">
+        <f>AVERAGE(E49:E56)</f>
+        <v>14.859995629861354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1347.6310000000001</v>
+      </c>
+      <c r="C62" s="3">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3616.75</v>
+      </c>
+      <c r="E62" s="13">
+        <f>D62/C62/60</f>
+        <v>3.5458333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1239.0129999999999</v>
+      </c>
+      <c r="C63" s="3">
+        <v>15</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2918.2719999999999</v>
+      </c>
+      <c r="E63" s="13">
+        <f t="shared" ref="E63:E81" si="1">D63/C63/60</f>
+        <v>3.2425244444444443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1131.615</v>
+      </c>
+      <c r="C64" s="3">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2396.625</v>
+      </c>
+      <c r="E64" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6312500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1076.588</v>
+      </c>
+      <c r="C65" s="3">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2739.7820000000002</v>
+      </c>
+      <c r="E65" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5125410256410259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1076.0989999999999</v>
+      </c>
+      <c r="C66" s="3">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2102</v>
+      </c>
+      <c r="E66" s="13">
+        <f t="shared" si="1"/>
+        <v>3.184848484848485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="3">
+        <v>425.49489999999997</v>
+      </c>
+      <c r="C67" s="3">
         <v>38</v>
       </c>
-      <c r="D57" s="2">
-        <f>SUM(D49:D56)</f>
-        <v>105578.36199999998</v>
+      <c r="D67" s="3">
+        <v>3844.0680000000002</v>
+      </c>
+      <c r="E67" s="13">
+        <f t="shared" si="1"/>
+        <v>1.6859947368421053</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="D58" s="3">
-        <f>D57/3600</f>
-        <v>29.327322777777773</v>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="3">
+        <v>412.91629999999998</v>
+      </c>
+      <c r="C68" s="3">
+        <v>21</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3743.2739999999999</v>
+      </c>
+      <c r="E68" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9708523809523806</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3">
+        <v>384.40390000000002</v>
+      </c>
+      <c r="C69" s="3">
+        <v>12</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3168.7779999999998</v>
+      </c>
+      <c r="E69" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4010805555555548</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="3">
+        <v>381.79790000000003</v>
+      </c>
+      <c r="C70" s="16">
+        <v>19</v>
+      </c>
+      <c r="D70" s="16">
+        <v>3770.6410000000001</v>
+      </c>
+      <c r="E70" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3075798245614032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="3">
+        <v>381.70139999999998</v>
+      </c>
+      <c r="C71" s="3">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2563.1129999999998</v>
+      </c>
+      <c r="E71" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8835045454545449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="3">
+        <v>369.66090000000003</v>
+      </c>
+      <c r="C72" s="3">
+        <v>22</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3658.3829999999998</v>
+      </c>
+      <c r="E72" s="13">
+        <f t="shared" si="1"/>
+        <v>2.7715022727272727</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="3">
+        <v>366.90469999999999</v>
+      </c>
+      <c r="C73" s="3">
+        <v>15</v>
+      </c>
+      <c r="D73" s="3">
+        <v>3278.0390000000002</v>
+      </c>
+      <c r="E73" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6422655555555559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="3">
+        <v>366.90280000000001</v>
+      </c>
+      <c r="C74" s="3">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1554.403</v>
+      </c>
+      <c r="E74" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3177861111111104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="3">
+        <v>365.73590000000002</v>
+      </c>
+      <c r="C75" s="3">
+        <v>17</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3499.9279999999999</v>
+      </c>
+      <c r="E75" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4313019607843134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="3">
+        <v>365.56659999999999</v>
+      </c>
+      <c r="C76" s="3">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2476.5819999999999</v>
+      </c>
+      <c r="E76" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1276366666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="3">
+        <v>364.13909999999998</v>
+      </c>
+      <c r="C77" s="3">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3677.6030000000001</v>
+      </c>
+      <c r="E77" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0862255555555551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="3">
+        <v>361.17739999999998</v>
+      </c>
+      <c r="C78" s="3">
+        <v>21</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3795.7249999999999</v>
+      </c>
+      <c r="E78" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0124801587301584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3">
+        <v>359.78059999999999</v>
+      </c>
+      <c r="C79" s="3">
+        <v>12</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3170.4960000000001</v>
+      </c>
+      <c r="E79" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4034666666666675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="3">
+        <v>353.36419999999998</v>
+      </c>
+      <c r="C80" s="3">
+        <v>17</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3683.4450000000002</v>
+      </c>
+      <c r="E80" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6112205882352941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="3">
+        <v>328.82209999999998</v>
+      </c>
+      <c r="C81" s="3">
+        <v>16</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2711.471</v>
+      </c>
+      <c r="E81" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8244489583333334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="3">
+        <f>SUM(D62:D81)/3600</f>
+        <v>17.324827222222222</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="15">
+        <f>AVERAGE(E62:E81)</f>
+        <v>3.4797171912999603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88">
+        <v>0.24876353457231101</v>
+      </c>
+      <c r="C88">
+        <v>0.52163003704873101</v>
+      </c>
+      <c r="D88">
+        <v>0.64646630066537503</v>
+      </c>
+      <c r="E88">
+        <v>2.0126088797509298E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89">
+        <v>0.219987429047449</v>
+      </c>
+      <c r="C89">
+        <v>0.59064730834249202</v>
+      </c>
+      <c r="D89">
+        <v>0.28150230089809403</v>
+      </c>
+      <c r="E89">
+        <v>0.247183014901495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90">
+        <v>0.207088697175904</v>
+      </c>
+      <c r="C90">
+        <v>0.56728893199513797</v>
+      </c>
+      <c r="D90">
+        <v>0.147077396809531</v>
+      </c>
+      <c r="E90">
+        <v>0.19397772412466199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91">
+        <v>0.20282760809472999</v>
+      </c>
+      <c r="C91">
+        <v>0.58774772931910102</v>
+      </c>
+      <c r="D91">
+        <v>0.26083014191157899</v>
+      </c>
+      <c r="E91">
+        <v>0.222115613516532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92">
+        <v>0.25821864807263301</v>
+      </c>
+      <c r="C92">
+        <v>0.61908888704755505</v>
+      </c>
+      <c r="D92">
+        <v>0.33957360635193401</v>
+      </c>
+      <c r="E92">
+        <v>0.108967584719164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93">
+        <v>0.31357578247072398</v>
+      </c>
+      <c r="C93">
+        <v>0.67128770237067303</v>
+      </c>
+      <c r="D93">
+        <v>0.60211184127404405</v>
+      </c>
+      <c r="E93">
+        <v>4.0976784157789298E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94">
+        <v>0.333053483335428</v>
+      </c>
+      <c r="C94">
+        <v>0.68341384062193899</v>
+      </c>
+      <c r="D94">
+        <v>0.44121011533986199</v>
+      </c>
+      <c r="E94">
+        <v>0.110207501118916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95">
+        <v>0.338303892182162</v>
+      </c>
+      <c r="C95">
+        <v>0.67893625141851999</v>
+      </c>
+      <c r="D95">
+        <v>0.47235056340581999</v>
+      </c>
+      <c r="E95">
+        <v>5.8025725529514599E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96">
+        <v>0.32122943103168999</v>
+      </c>
+      <c r="C96">
+        <v>0.65233449779060104</v>
+      </c>
+      <c r="D96">
+        <v>0.57819645635368899</v>
+      </c>
+      <c r="E96">
+        <v>7.4423204799198797E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97">
+        <v>0.29765907929784002</v>
+      </c>
+      <c r="C97">
+        <v>0.63284919541254503</v>
+      </c>
+      <c r="D97">
+        <v>0.52266486821604596</v>
+      </c>
+      <c r="E97">
+        <v>0.23763216074459201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98">
+        <v>0.29113640522276701</v>
+      </c>
+      <c r="C98">
+        <v>0.64202807111663796</v>
+      </c>
+      <c r="D98">
+        <v>0.480236828686673</v>
+      </c>
+      <c r="E98">
+        <v>0.25297020591529301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99">
+        <v>0.25230062336532699</v>
+      </c>
+      <c r="C99">
+        <v>0.57313638240736697</v>
+      </c>
+      <c r="D99">
+        <v>0.49197669235243702</v>
+      </c>
+      <c r="E99">
+        <v>0.16891964148408001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="M14:M26"/>
     <mergeCell ref="M28:M40"/>
     <mergeCell ref="S28:S40"/>
     <mergeCell ref="S14:S26"/>
+    <mergeCell ref="A87:A99"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C9:C12">
@@ -9939,7 +15980,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A136B5-EBE2-45B2-BA0E-C81C005ADA9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3FB302-B08D-4174-9B9A-11079FA1A3D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="1" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
+    <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -214,13 +215,49 @@
   <si>
     <t>All parameters - trial 20 with new code</t>
   </si>
+  <si>
+    <t>get SSE</t>
+  </si>
+  <si>
+    <t>get voFDC</t>
+  </si>
+  <si>
+    <t>get simFDC</t>
+  </si>
+  <si>
+    <t>extract simflow</t>
+  </si>
+  <si>
+    <t>run GR4J</t>
+  </si>
+  <si>
+    <t>make GR4J param</t>
+  </si>
+  <si>
+    <t>run WGEN</t>
+  </si>
+  <si>
+    <t>pass amount para</t>
+  </si>
+  <si>
+    <t>pass occur para</t>
+  </si>
+  <si>
+    <t>Run time (s)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -359,26 +396,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,7 +2070,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Site 1_410730'!$U$29:$U$40</c15:sqref>
@@ -2083,7 +2120,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7A1D-4073-9478-636AD8DD9D92}"/>
                   </c:ext>
@@ -13879,7 +13916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F022D-9568-441E-BB2A-9DD37CD3F5CE}">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
@@ -14048,7 +14085,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="16" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -14063,7 +14100,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -14092,7 +14129,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -14105,7 +14142,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="10"/>
+      <c r="S15" s="16"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -14132,7 +14169,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -14145,7 +14182,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="10"/>
+      <c r="S16" s="16"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -14172,7 +14209,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -14185,7 +14222,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="10"/>
+      <c r="S17" s="16"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -14212,7 +14249,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -14225,7 +14262,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="10"/>
+      <c r="S18" s="16"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -14252,7 +14289,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -14265,7 +14302,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="10"/>
+      <c r="S19" s="16"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -14292,7 +14329,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -14305,7 +14342,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="16"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -14332,7 +14369,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -14345,7 +14382,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="10"/>
+      <c r="S21" s="16"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -14372,7 +14409,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -14385,7 +14422,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="10"/>
+      <c r="S22" s="16"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -14412,7 +14449,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -14425,7 +14462,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="10"/>
+      <c r="S23" s="16"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -14452,7 +14489,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -14465,7 +14502,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="10"/>
+      <c r="S24" s="16"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -14492,7 +14529,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -14505,7 +14542,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="10"/>
+      <c r="S25" s="16"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -14532,7 +14569,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="10"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -14545,7 +14582,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="10"/>
+      <c r="S26" s="16"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -14586,7 +14623,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="16" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -14601,7 +14638,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="10" t="s">
+      <c r="S28" s="16" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -14630,7 +14667,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="10"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -14643,7 +14680,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="10"/>
+      <c r="S29" s="16"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -14670,7 +14707,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="10"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -14683,7 +14720,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="10"/>
+      <c r="S30" s="16"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -14710,7 +14747,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="10"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -14723,7 +14760,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="10"/>
+      <c r="S31" s="16"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -14750,7 +14787,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -14763,7 +14800,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="10"/>
+      <c r="S32" s="16"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -14790,7 +14827,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="10"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -14803,7 +14840,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="10"/>
+      <c r="S33" s="16"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -14825,7 +14862,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="10"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -14838,7 +14875,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="10"/>
+      <c r="S34" s="16"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -14865,7 +14902,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="10"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -14878,7 +14915,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="10"/>
+      <c r="S35" s="16"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -14905,7 +14942,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="10"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -14918,7 +14955,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="10"/>
+      <c r="S36" s="16"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -14945,7 +14982,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="10"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -14958,7 +14995,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="10"/>
+      <c r="S37" s="16"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -14985,7 +15022,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="10"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -14998,7 +15035,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="10"/>
+      <c r="S38" s="16"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -15025,7 +15062,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="10"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -15038,7 +15075,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="10"/>
+      <c r="S39" s="16"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -15065,7 +15102,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="10"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -15078,7 +15115,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="10"/>
+      <c r="S40" s="16"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -15185,7 +15222,7 @@
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15202,7 +15239,7 @@
       <c r="D49" s="3">
         <v>18461.3</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <f>D49/C49/60</f>
         <v>16.194122807017543</v>
       </c>
@@ -15220,7 +15257,7 @@
       <c r="D50" s="3">
         <v>21109.31</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <f t="shared" ref="E50:E56" si="0">D50/C50/60</f>
         <v>25.130130952380956</v>
       </c>
@@ -15238,7 +15275,7 @@
       <c r="D51" s="3">
         <v>13545.45</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <f t="shared" si="0"/>
         <v>16.125535714285714</v>
       </c>
@@ -15256,7 +15293,7 @@
       <c r="D52" s="3">
         <v>12554.09</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <f t="shared" si="0"/>
         <v>7.749438271604939</v>
       </c>
@@ -15274,7 +15311,7 @@
       <c r="D53" s="3">
         <v>10146.68</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <f t="shared" si="0"/>
         <v>21.138916666666667</v>
       </c>
@@ -15292,7 +15329,7 @@
       <c r="D54" s="3">
         <v>9867.723</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <f t="shared" si="0"/>
         <v>13.705170833333334</v>
       </c>
@@ -15310,7 +15347,7 @@
       <c r="D55" s="3">
         <v>13429.76</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <f t="shared" si="0"/>
         <v>13.16643137254902</v>
       </c>
@@ -15328,7 +15365,7 @@
       <c r="D56" s="3">
         <v>6464.049</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <f t="shared" si="0"/>
         <v>5.6702184210526321</v>
       </c>
@@ -15342,13 +15379,13 @@
         <f>SUM(D49:D56)/3600</f>
         <v>29.327322777777773</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <f>AVERAGE(E49:E56)</f>
         <v>14.859995629861354</v>
       </c>
@@ -15367,7 +15404,7 @@
       <c r="D61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15384,7 +15421,7 @@
       <c r="D62" s="3">
         <v>3616.75</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="12">
         <f>D62/C62/60</f>
         <v>3.5458333333333334</v>
       </c>
@@ -15402,7 +15439,7 @@
       <c r="D63" s="3">
         <v>2918.2719999999999</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <f t="shared" ref="E63:E81" si="1">D63/C63/60</f>
         <v>3.2425244444444443</v>
       </c>
@@ -15420,7 +15457,7 @@
       <c r="D64" s="3">
         <v>2396.625</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <f t="shared" si="1"/>
         <v>3.6312500000000001</v>
       </c>
@@ -15438,7 +15475,7 @@
       <c r="D65" s="3">
         <v>2739.7820000000002</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="12">
         <f t="shared" si="1"/>
         <v>3.5125410256410259</v>
       </c>
@@ -15456,7 +15493,7 @@
       <c r="D66" s="3">
         <v>2102</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <f t="shared" si="1"/>
         <v>3.184848484848485</v>
       </c>
@@ -15474,7 +15511,7 @@
       <c r="D67" s="3">
         <v>3844.0680000000002</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <f t="shared" si="1"/>
         <v>1.6859947368421053</v>
       </c>
@@ -15492,7 +15529,7 @@
       <c r="D68" s="3">
         <v>3743.2739999999999</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="12">
         <f t="shared" si="1"/>
         <v>2.9708523809523806</v>
       </c>
@@ -15510,7 +15547,7 @@
       <c r="D69" s="3">
         <v>3168.7779999999998</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="12">
         <f t="shared" si="1"/>
         <v>4.4010805555555548</v>
       </c>
@@ -15522,13 +15559,13 @@
       <c r="B70" s="3">
         <v>381.79790000000003</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>19</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="15">
         <v>3770.6410000000001</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <f t="shared" si="1"/>
         <v>3.3075798245614032</v>
       </c>
@@ -15546,7 +15583,7 @@
       <c r="D71" s="3">
         <v>2563.1129999999998</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <f t="shared" si="1"/>
         <v>3.8835045454545449</v>
       </c>
@@ -15564,7 +15601,7 @@
       <c r="D72" s="3">
         <v>3658.3829999999998</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="12">
         <f t="shared" si="1"/>
         <v>2.7715022727272727</v>
       </c>
@@ -15582,7 +15619,7 @@
       <c r="D73" s="3">
         <v>3278.0390000000002</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <f t="shared" si="1"/>
         <v>3.6422655555555559</v>
       </c>
@@ -15600,7 +15637,7 @@
       <c r="D74" s="3">
         <v>1554.403</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="12">
         <f t="shared" si="1"/>
         <v>4.3177861111111104</v>
       </c>
@@ -15618,7 +15655,7 @@
       <c r="D75" s="3">
         <v>3499.9279999999999</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="12">
         <f t="shared" si="1"/>
         <v>3.4313019607843134</v>
       </c>
@@ -15636,7 +15673,7 @@
       <c r="D76" s="3">
         <v>2476.5819999999999</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="12">
         <f t="shared" si="1"/>
         <v>4.1276366666666666</v>
       </c>
@@ -15654,7 +15691,7 @@
       <c r="D77" s="3">
         <v>3677.6030000000001</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="12">
         <f t="shared" si="1"/>
         <v>4.0862255555555551</v>
       </c>
@@ -15672,7 +15709,7 @@
       <c r="D78" s="3">
         <v>3795.7249999999999</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="12">
         <f t="shared" si="1"/>
         <v>3.0124801587301584</v>
       </c>
@@ -15690,7 +15727,7 @@
       <c r="D79" s="3">
         <v>3170.4960000000001</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="12">
         <f t="shared" si="1"/>
         <v>4.4034666666666675</v>
       </c>
@@ -15708,7 +15745,7 @@
       <c r="D80" s="3">
         <v>3683.4450000000002</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="12">
         <f t="shared" si="1"/>
         <v>3.6112205882352941</v>
       </c>
@@ -15726,7 +15763,7 @@
       <c r="D81" s="3">
         <v>2711.471</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="12">
         <f t="shared" si="1"/>
         <v>2.8244489583333334</v>
       </c>
@@ -15739,18 +15776,18 @@
         <f>SUM(D62:D81)/3600</f>
         <v>17.324827222222222</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="15">
+      <c r="E83" s="14">
         <f>AVERAGE(E62:E81)</f>
         <v>3.4797171912999603</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -15767,7 +15804,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="16"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -15782,7 +15819,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="16"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -15797,7 +15834,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="16"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -15812,7 +15849,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="16"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -15827,7 +15864,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="16"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -15842,7 +15879,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="16"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -15857,7 +15894,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="16"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -15872,7 +15909,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="16"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -15887,7 +15924,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="16"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -15902,7 +15939,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="16"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -15917,7 +15954,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="16"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -15932,7 +15969,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="16"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -15983,4 +16020,141 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A907CD-E199-438D-A164-9AD563A3110E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>4.9850000000000003E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>8.567E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>1.39E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>2.99E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3FB302-B08D-4174-9B9A-11079FA1A3D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895EBD0-EDD5-4ED5-9EFB-6D30745E4949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="1" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
@@ -13617,6 +13617,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE16C573-F812-498B-877A-CEA9AB9A2909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17097375" y="5143500"/>
+          <a:ext cx="9001125" cy="8572500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16027,7 +16093,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16156,5 +16222,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895EBD0-EDD5-4ED5-9EFB-6D30745E4949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99DCFF-A7B5-47BC-BD16-8E2D02D0A60D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="1" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
@@ -290,12 +290,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -367,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -417,6 +435,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16093,7 +16114,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16120,7 +16141,7 @@
       <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="17">
         <v>4.9850000000000003E-4</v>
       </c>
     </row>
@@ -16131,7 +16152,7 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <v>1E-4</v>
       </c>
     </row>
@@ -16142,7 +16163,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <v>8.567E-3</v>
       </c>
     </row>
@@ -16153,7 +16174,7 @@
       <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
         <v>0</v>
       </c>
     </row>
@@ -16164,7 +16185,7 @@
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
@@ -16175,7 +16196,7 @@
       <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
     </row>
@@ -16186,7 +16207,7 @@
       <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -16197,7 +16218,7 @@
       <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="19">
         <v>1.39E-3</v>
       </c>
     </row>
@@ -16208,7 +16229,7 @@
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="18">
         <v>2.99E-4</v>
       </c>
     </row>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99DCFF-A7B5-47BC-BD16-8E2D02D0A60D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA4BF58-5F8F-4145-8C64-460F8EB9514B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="1" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Benchmark!$E$2:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -231,9 +234,6 @@
     <t>run GR4J</t>
   </si>
   <si>
-    <t>make GR4J param</t>
-  </si>
-  <si>
     <t>run WGEN</t>
   </si>
   <si>
@@ -243,13 +243,79 @@
     <t>pass occur para</t>
   </si>
   <si>
-    <t>Run time (s)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Block</t>
+    <t>make GR4J runoption</t>
+  </si>
+  <si>
+    <t>Original OF</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>lq</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>uq</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>No. Evaluation</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>insignificant</t>
+  </si>
+  <si>
+    <t>Runtime (ms)</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>V3.0</t>
+  </si>
+  <si>
+    <t>V4.0</t>
+  </si>
+  <si>
+    <t>get FDC</t>
+  </si>
+  <si>
+    <t>Runtime (us)</t>
+  </si>
+  <si>
+    <t>in R</t>
+  </si>
+  <si>
+    <t>in C</t>
+  </si>
+  <si>
+    <t>MC model</t>
+  </si>
+  <si>
+    <t>V.2.0</t>
+  </si>
+  <si>
+    <t>V3.1</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -299,12 +365,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,8 +375,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -381,11 +447,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,12 +513,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6515,6 +6613,98 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2A41AF55-39A0-4121-B74A-3FA5CDF87BE5}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Original OF</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Original OF</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="@" sourceLinked="0"/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="40"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Time (ms)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Time (ms)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="General" sourceLinked="0"/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6636,6 +6826,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9055,6 +9285,521 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -13640,63 +14385,696 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4B7030-F9D3-4C3D-B2AC-CE06B733DD5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4857750" y="38099"/>
+              <a:ext cx="2752725" cy="1919287"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304009</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE16C573-F812-498B-877A-CEA9AB9A2909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D65E15F-D232-492A-9FAD-5A7649015A0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="17097375" y="5143500"/>
-          <a:ext cx="9001125" cy="8572500"/>
+          <a:off x="6486525" y="2228850"/>
+          <a:ext cx="2494759" cy="2494759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256384</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FCF236-F28C-490D-BB97-CB2D30B58DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="4867275"/>
+          <a:ext cx="2361409" cy="2361409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9295</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D56EB5E-553A-429E-B5CA-EF502AFF7CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9477145" y="190500"/>
+          <a:ext cx="1457556" cy="2149150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>173942</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560CD467-420F-4563-9409-DC5A5E9C56AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12689792" y="2381249"/>
+          <a:ext cx="2893633" cy="2791333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4880F468-DCA5-4707-A539-B73CFB0A15B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15697200" y="2371725"/>
+          <a:ext cx="2790825" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>153735</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A868C0F9-B8AC-4591-BF07-73A705C2EF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18573750" y="2371726"/>
+          <a:ext cx="2630235" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324884</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979899E0-9F5F-4D42-ADA2-C3013C7176D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="7648577"/>
+          <a:ext cx="2325134" cy="1628774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13761</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495836</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299BDB8E-5488-4D52-BB0A-CBA4C4FD5973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5643036" y="7658100"/>
+          <a:ext cx="2310875" cy="2448495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691344A6-9DD9-42D2-BD83-9F9CA695B91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="2431298"/>
+          <a:ext cx="3496955" cy="1931859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600521</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400580</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9BF73D-7243-4F74-ADF4-003A02B1F98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448996" y="10667999"/>
+          <a:ext cx="3029034" cy="4372741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>570224</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6AC0EB-D905-423F-BED6-1FE285BDF66D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="10648950"/>
+          <a:ext cx="3037199" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>185175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2841D452-B671-4B98-A0DB-ED17012F0690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13830301" y="10629901"/>
+          <a:ext cx="2990850" cy="4452374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805EA444-5BF6-444A-B8AD-18667BFD5D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16954501" y="10629900"/>
+          <a:ext cx="2847974" cy="4511643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>87564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47909DC-0CC3-4027-89BE-57974E7211FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19973925" y="10620375"/>
+          <a:ext cx="2676525" cy="4554789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -14172,7 +15550,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="18" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -14187,7 +15565,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -14216,7 +15594,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -14229,7 +15607,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="16"/>
+      <c r="S15" s="18"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -14256,7 +15634,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -14269,7 +15647,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="16"/>
+      <c r="S16" s="18"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -14296,7 +15674,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -14309,7 +15687,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="16"/>
+      <c r="S17" s="18"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -14336,7 +15714,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="16"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -14349,7 +15727,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="16"/>
+      <c r="S18" s="18"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -14376,7 +15754,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -14389,7 +15767,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="16"/>
+      <c r="S19" s="18"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -14416,7 +15794,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="16"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -14429,7 +15807,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="16"/>
+      <c r="S20" s="18"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -14456,7 +15834,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="16"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -14469,7 +15847,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="16"/>
+      <c r="S21" s="18"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -14496,7 +15874,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="16"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -14509,7 +15887,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="16"/>
+      <c r="S22" s="18"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -14536,7 +15914,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="16"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -14549,7 +15927,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="16"/>
+      <c r="S23" s="18"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -14576,7 +15954,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="16"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -14589,7 +15967,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="16"/>
+      <c r="S24" s="18"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -14616,7 +15994,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="16"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -14629,7 +16007,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="16"/>
+      <c r="S25" s="18"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -14656,7 +16034,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -14669,7 +16047,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="16"/>
+      <c r="S26" s="18"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -14710,7 +16088,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="18" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -14725,7 +16103,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="S28" s="18" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -14754,7 +16132,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="16"/>
+      <c r="M29" s="18"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -14767,7 +16145,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="16"/>
+      <c r="S29" s="18"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -14794,7 +16172,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="16"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -14807,7 +16185,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="16"/>
+      <c r="S30" s="18"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -14834,7 +16212,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="16"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -14847,7 +16225,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="16"/>
+      <c r="S31" s="18"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -14874,7 +16252,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="16"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -14887,7 +16265,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="16"/>
+      <c r="S32" s="18"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -14914,7 +16292,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="16"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -14927,7 +16305,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="16"/>
+      <c r="S33" s="18"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -14949,7 +16327,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="16"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -14962,7 +16340,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="16"/>
+      <c r="S34" s="18"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -14989,7 +16367,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="16"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -15002,7 +16380,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="16"/>
+      <c r="S35" s="18"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -15029,7 +16407,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="16"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -15042,7 +16420,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="16"/>
+      <c r="S36" s="18"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -15069,7 +16447,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="16"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -15082,7 +16460,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="16"/>
+      <c r="S37" s="18"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -15109,7 +16487,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="16"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -15122,7 +16500,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="16"/>
+      <c r="S38" s="18"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -15149,7 +16527,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="16"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -15162,7 +16540,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="16"/>
+      <c r="S39" s="18"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -15189,7 +16567,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="16"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -15202,7 +16580,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="16"/>
+      <c r="S40" s="18"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -15874,7 +17252,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -15891,7 +17269,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="18"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -15906,7 +17284,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="18"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -15921,7 +17299,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="18"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -15936,7 +17314,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="18"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -15951,7 +17329,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
+      <c r="A92" s="18"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -15966,7 +17344,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="18"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -15981,7 +17359,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="18"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -15996,7 +17374,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+      <c r="A95" s="18"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -16011,7 +17389,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
+      <c r="A96" s="18"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -16026,7 +17404,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
+      <c r="A97" s="18"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -16041,7 +17419,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
+      <c r="A98" s="18"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -16056,7 +17434,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
+      <c r="A99" s="18"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -16111,138 +17489,768 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A907CD-E199-438D-A164-9AD563A3110E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E2">
+        <v>57.5824</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>60.881100000000004</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4">
+        <v>65.8964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>67.189400000000006</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>67.7727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>93.167699999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="17">
-        <v>4.9850000000000003E-4</v>
+      <c r="B14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>47.557000000000002</v>
+      </c>
+      <c r="F15">
+        <v>6.3109999999999999</v>
+      </c>
+      <c r="G15">
+        <v>4.9710000000000001</v>
+      </c>
+      <c r="H15">
+        <v>2.4169999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>48.69</v>
+      </c>
+      <c r="F16">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="G16">
+        <v>5.0209999999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>54.465000000000003</v>
+      </c>
+      <c r="F17">
+        <v>6.7290000000000001</v>
+      </c>
+      <c r="G17">
+        <v>5.2610000000000001</v>
+      </c>
+      <c r="H17">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>57.314</v>
+      </c>
+      <c r="F18">
+        <v>6.4029999999999996</v>
+      </c>
+      <c r="G18">
+        <v>5.0460000000000003</v>
+      </c>
+      <c r="H18">
+        <v>2.456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <v>58.415999999999997</v>
+      </c>
+      <c r="F19">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="G19">
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="H19">
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <v>68.209000000000003</v>
+      </c>
+      <c r="F20">
+        <v>15.85</v>
+      </c>
+      <c r="G20">
+        <v>22.23</v>
+      </c>
+      <c r="H20">
+        <v>11.951000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="17">
-        <v>1E-4</v>
+      <c r="B27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="F30">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="F33">
+        <v>7.2969999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="18">
-        <v>8.567E-3</v>
+      <c r="B41" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>85.9</v>
+      </c>
+      <c r="F42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="23"/>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>86.75</v>
+      </c>
+      <c r="F43">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>87.56</v>
+      </c>
+      <c r="F44">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45">
+        <v>87.1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46">
+        <v>87.45</v>
+      </c>
+      <c r="F46">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>112.7</v>
+      </c>
+      <c r="F47">
+        <v>964.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
+      <c r="B56" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2.7199999999999998E-2</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="23"/>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57">
+        <v>58.06</v>
+      </c>
+      <c r="F57">
+        <v>15.86</v>
+      </c>
+      <c r="G57">
+        <v>13.16</v>
+      </c>
+      <c r="H57">
+        <v>13.08</v>
+      </c>
+      <c r="I57">
+        <v>9.89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="23"/>
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58">
+        <v>66.739999999999995</v>
+      </c>
+      <c r="F58">
+        <v>16.47</v>
+      </c>
+      <c r="G58">
+        <v>13.93</v>
+      </c>
+      <c r="H58">
+        <v>13.71</v>
+      </c>
+      <c r="I58">
+        <v>10.44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1.1000000000000001E-3</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="23"/>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59">
+        <v>67.87</v>
+      </c>
+      <c r="F59">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="G59">
+        <v>15.37</v>
+      </c>
+      <c r="H59">
+        <v>15.06</v>
+      </c>
+      <c r="I59">
+        <v>11.48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1.39E-3</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="23"/>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <v>67.39</v>
+      </c>
+      <c r="F60">
+        <v>16.77</v>
+      </c>
+      <c r="G60">
+        <v>14.22</v>
+      </c>
+      <c r="H60">
+        <v>14.08</v>
+      </c>
+      <c r="I60">
+        <v>10.79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="18">
-        <v>2.99E-4</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="23"/>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61">
+        <v>68.44</v>
+      </c>
+      <c r="F61">
+        <v>17.29</v>
+      </c>
+      <c r="G61">
+        <v>14.66</v>
+      </c>
+      <c r="H61">
+        <v>14.49</v>
+      </c>
+      <c r="I61">
+        <v>11.05</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>2.8299999999999999E-2</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="23"/>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>149.09</v>
+      </c>
+      <c r="F62">
+        <v>36.04</v>
+      </c>
+      <c r="G62">
+        <v>23.44</v>
+      </c>
+      <c r="H62">
+        <v>24.21</v>
+      </c>
+      <c r="I62">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="23"/>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B56:B63"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E15:H20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F33">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F47">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:I62">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA4BF58-5F8F-4145-8C64-460F8EB9514B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E93A8EE-B0F1-4ABA-BD32-4703CD68040F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="1" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="91">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,10 +526,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,6 +2245,2367 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7A1D-4073-9478-636AD8DD9D92}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Optimising all parameters at once with new code</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Site 1_410730'!$A$121:$A$140</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>trial 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trial2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trial 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trial 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trial 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>trial 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>trial 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>trial 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>trial 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>trial 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>trial 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>trial 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>trial 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>trial 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>trial 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>trial 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trial 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>trial 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>trial 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>trial 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$B$121:$B$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>219.9187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201.22219999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.19589999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.44120000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.40110000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.39070000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193.31530000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193.15539999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193.018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.8124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192.47239999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>192.47210000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>192.4718</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192.4718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>192.46969999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>192.422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191.7911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F9C-4689-A2E5-64150B9936A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638324736"/>
+        <c:axId val="638332936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638324736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638332936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638332936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>SSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638324736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Alpha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$P$15:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37931377858800602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36261706109835701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25301044237014197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30863162569062802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34381481384798901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37169872103620499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31474906698147598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43065860750524099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48803436336804101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48943238560621499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51578566362843503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38876075512872599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4502-4972-BF5E-579051849713}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>All parameter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$D$146:$D$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.44847326472832799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8154117669834899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.97751029858214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75151791979847904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.49522551423523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8945975654925098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0340518334075899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0363374065976401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.28513847684039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6778108281208699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3130295812220201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2133472266252101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4502-4972-BF5E-579051849713}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Beta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$Q$15:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.58728781463245E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3681764227666198E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4197273610095398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2982326668253398E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9210456676542803E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3839423232491005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0543007648536503E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3780910910447394E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7854780313007207E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.59179939282937E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2744489854828703E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4817605022355401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0534-45E7-BC77-1CA0F722E3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>All parameters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$E$146:$E$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.14827235214024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47706919329765701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1946445976454898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.66096526560503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2175403610689302E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33537622129716799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3913450353595902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.151032639300058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51783621486628495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.73707192286578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15438498259834099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4629029508441902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0534-45E7-BC77-1CA0F722E3DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PDW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$N$15:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24168126094570899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22709163346613501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20782608695652199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20768526989936001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26035502958579898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31353919239904998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.346964064436183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35272277227722798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341890315052509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.290091930541369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29184549356223199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26524953789279099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F520-4A02-BFC6-41426F6BC1DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>All parameters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$B$146:$B$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.38368211461238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20605651219003199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22396731801869299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.164370937833303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.350240953604671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32638254766569802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.464945259283363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34137738582760402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39366082978484002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.290769269022711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30596583123314502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.383663141371682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F520-4A02-BFC6-41426F6BC1DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011682304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011682720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011682304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PWW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$O$15:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53456998313659398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60311958405545896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56678700361010803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59352517985611497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61739130434782596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67286245353159801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69805194805194803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.692556634304207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64355231143552305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62301587301587302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63587684069611805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56202143950995398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4794-4A46-AE98-DE21D753B99C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>All parameters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Site 1_410730'!$C$146:$C$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.48903912495010399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495245760688656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65826563213121303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.540228351092786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47113656579303698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54314563698128804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.610264779484612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58193769869496503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54364103089564197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62670234391322499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61120396640154595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48659902359642998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4794-4A46-AE98-DE21D753B99C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011682304"/>
+        <c:axId val="1011682720"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Occurrence only</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:prstDash val="dashDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Site 1_410730'!$O$29:$O$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.43829205923881598</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.39492163193833002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.87088207200304601</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.29740313542204999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.59325334187631E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.47113270964436998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.43801298450999498</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.227429686269319</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39745220509067403</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.34977635540136098</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.0110071168613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.38318917618792803</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4794-4A46-AE98-DE21D753B99C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Amount only with optimised occurrence</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Site 1_410730'!$U$29:$U$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.43829205923881598</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.39492163193833002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.87088207200304601</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.29740313542204999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.59325334187631E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.47113270964436998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.43801298450999498</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.227429686269319</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39745220509067403</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.34977635540136098</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.0110071168613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.38318917618792803</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-4794-4A46-AE98-DE21D753B99C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6905,6 +9269,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9290,6 +11854,2586 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14380,6 +19524,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB219157-12CC-4C89-8E6E-87238F1102EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CC3B1B-5061-4518-940D-616838E5C198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19604A5B-502F-4533-A888-8B51D1122673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD55073-20C3-4CEC-BF6D-E8DE74A00B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAE690B-6631-4B3F-BD0D-99EE14A3BFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14433,7 +19767,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4857750" y="38099"/>
-              <a:ext cx="2752725" cy="1919287"/>
+              <a:ext cx="2752725" cy="1957387"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15379,10 +20713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F022D-9568-441E-BB2A-9DD37CD3F5CE}">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W157"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15550,7 +20884,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -15565,7 +20899,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="24" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -15594,7 +20928,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -15607,7 +20941,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="18"/>
+      <c r="S15" s="24"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -15634,7 +20968,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -15647,7 +20981,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="18"/>
+      <c r="S16" s="24"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -15674,7 +21008,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -15687,7 +21021,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="18"/>
+      <c r="S17" s="24"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -15714,7 +21048,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="18"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -15727,7 +21061,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="18"/>
+      <c r="S18" s="24"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -15754,7 +21088,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="18"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -15767,7 +21101,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="18"/>
+      <c r="S19" s="24"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -15794,7 +21128,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="18"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -15807,7 +21141,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="18"/>
+      <c r="S20" s="24"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -15834,7 +21168,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="18"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -15847,7 +21181,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="18"/>
+      <c r="S21" s="24"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -15874,7 +21208,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -15887,7 +21221,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="18"/>
+      <c r="S22" s="24"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -15914,7 +21248,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -15927,7 +21261,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="18"/>
+      <c r="S23" s="24"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -15954,7 +21288,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -15967,7 +21301,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="18"/>
+      <c r="S24" s="24"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -15994,7 +21328,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -16007,7 +21341,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="18"/>
+      <c r="S25" s="24"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -16034,7 +21368,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -16047,7 +21381,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="18"/>
+      <c r="S26" s="24"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -16088,7 +21422,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="24" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -16103,7 +21437,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="24" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -16132,7 +21466,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -16145,7 +21479,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="18"/>
+      <c r="S29" s="24"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -16172,7 +21506,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="18"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -16185,7 +21519,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="18"/>
+      <c r="S30" s="24"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -16212,7 +21546,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="18"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -16225,7 +21559,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="18"/>
+      <c r="S31" s="24"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -16252,7 +21586,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="18"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -16265,7 +21599,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="18"/>
+      <c r="S32" s="24"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -16292,7 +21626,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="18"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -16305,7 +21639,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="18"/>
+      <c r="S33" s="24"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -16327,7 +21661,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="18"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -16340,7 +21674,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="18"/>
+      <c r="S34" s="24"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -16367,7 +21701,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="18"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -16380,7 +21714,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="18"/>
+      <c r="S35" s="24"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -16407,7 +21741,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="18"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -16420,7 +21754,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="18"/>
+      <c r="S36" s="24"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -16447,7 +21781,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="18"/>
+      <c r="M37" s="24"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -16460,7 +21794,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="18"/>
+      <c r="S37" s="24"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -16487,7 +21821,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="18"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -16500,7 +21834,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="18"/>
+      <c r="S38" s="24"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -16527,7 +21861,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="18"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -16540,7 +21874,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="18"/>
+      <c r="S39" s="24"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -16567,7 +21901,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="18"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -16580,7 +21914,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="18"/>
+      <c r="S40" s="24"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -17252,7 +22586,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -17269,7 +22603,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="24"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -17284,7 +22618,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
+      <c r="A89" s="24"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -17299,7 +22633,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
+      <c r="A90" s="24"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -17314,7 +22648,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="A91" s="24"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -17329,7 +22663,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
+      <c r="A92" s="24"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -17344,7 +22678,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
+      <c r="A93" s="24"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -17359,7 +22693,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
+      <c r="A94" s="24"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -17374,7 +22708,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
+      <c r="A95" s="24"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -17389,7 +22723,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
+      <c r="A96" s="24"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -17404,7 +22738,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
+      <c r="A97" s="24"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -17419,7 +22753,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
+      <c r="A98" s="24"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -17434,7 +22768,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
+      <c r="A99" s="24"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -17448,8 +22782,602 @@
         <v>0.16891964148408001</v>
       </c>
     </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="3">
+        <v>219.9187</v>
+      </c>
+      <c r="C121" s="3">
+        <v>37</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1581.2619999999999</v>
+      </c>
+      <c r="E121" s="12">
+        <f>D121/C121/60</f>
+        <v>0.71228018018018013</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3">
+        <v>201.22219999999999</v>
+      </c>
+      <c r="C122" s="3">
+        <v>30</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1556.271</v>
+      </c>
+      <c r="E122" s="12">
+        <f t="shared" ref="E122:E140" si="2">D122/C122/60</f>
+        <v>0.864595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="3">
+        <v>201.19589999999999</v>
+      </c>
+      <c r="C123" s="3">
+        <v>14</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1203.18</v>
+      </c>
+      <c r="E123" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4323571428571429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="3">
+        <v>201.1875</v>
+      </c>
+      <c r="C124" s="3">
+        <v>10</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1083.0550000000001</v>
+      </c>
+      <c r="E124" s="12">
+        <f t="shared" si="2"/>
+        <v>1.8050916666666668</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="3">
+        <v>199.44120000000001</v>
+      </c>
+      <c r="C125" s="3">
+        <v>20</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1035.52</v>
+      </c>
+      <c r="E125" s="12">
+        <f t="shared" si="2"/>
+        <v>0.86293333333333322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="3">
+        <v>195.40110000000001</v>
+      </c>
+      <c r="C126" s="3">
+        <v>26</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1847.2729999999999</v>
+      </c>
+      <c r="E126" s="12">
+        <f t="shared" si="2"/>
+        <v>1.184149358974359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="3">
+        <v>193.39070000000001</v>
+      </c>
+      <c r="C127" s="3">
+        <v>17</v>
+      </c>
+      <c r="D127" s="3">
+        <v>783.94820000000004</v>
+      </c>
+      <c r="E127" s="12">
+        <f t="shared" si="2"/>
+        <v>0.76857666666666669</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="3">
+        <v>193.364</v>
+      </c>
+      <c r="C128" s="3">
+        <v>11</v>
+      </c>
+      <c r="D128" s="3">
+        <v>750.26059999999995</v>
+      </c>
+      <c r="E128" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1367584848484849</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="3">
+        <v>193.31530000000001</v>
+      </c>
+      <c r="C129" s="15">
+        <v>10</v>
+      </c>
+      <c r="D129" s="15">
+        <v>797.40650000000005</v>
+      </c>
+      <c r="E129" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3290108333333335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="3">
+        <v>193.15539999999999</v>
+      </c>
+      <c r="C130" s="3">
+        <v>15</v>
+      </c>
+      <c r="D130" s="3">
+        <v>986.82749999999999</v>
+      </c>
+      <c r="E130" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0964750000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="3">
+        <v>193.018</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10</v>
+      </c>
+      <c r="D131" s="3">
+        <v>889.88170000000002</v>
+      </c>
+      <c r="E131" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4831361666666667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="3">
+        <v>192.8124</v>
+      </c>
+      <c r="C132" s="3">
+        <v>20</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1008.5069999999999</v>
+      </c>
+      <c r="E132" s="12">
+        <f t="shared" si="2"/>
+        <v>0.84042249999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="3">
+        <v>192.47239999999999</v>
+      </c>
+      <c r="C133" s="3">
+        <v>25</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1393.837</v>
+      </c>
+      <c r="E133" s="12">
+        <f t="shared" si="2"/>
+        <v>0.92922466666666659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="3">
+        <v>192.47210000000001</v>
+      </c>
+      <c r="C134" s="3">
+        <v>6</v>
+      </c>
+      <c r="D134" s="3">
+        <v>479.16989999999998</v>
+      </c>
+      <c r="E134" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3310275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="3">
+        <v>192.4718</v>
+      </c>
+      <c r="C135" s="3">
+        <v>6</v>
+      </c>
+      <c r="D135" s="3">
+        <v>488.60059999999999</v>
+      </c>
+      <c r="E135" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3572238888888888</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="3">
+        <v>192.4718</v>
+      </c>
+      <c r="C136" s="3">
+        <v>6</v>
+      </c>
+      <c r="D136" s="3">
+        <v>674.45399999999995</v>
+      </c>
+      <c r="E136" s="12">
+        <f t="shared" si="2"/>
+        <v>1.8734833333333332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="3">
+        <v>192.46969999999999</v>
+      </c>
+      <c r="C137" s="3">
+        <v>6</v>
+      </c>
+      <c r="D137" s="3">
+        <v>543.41719999999998</v>
+      </c>
+      <c r="E137" s="12">
+        <f t="shared" si="2"/>
+        <v>1.509492222222222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="3">
+        <v>192.422</v>
+      </c>
+      <c r="C138" s="3">
+        <v>20</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1442.2760000000001</v>
+      </c>
+      <c r="E138" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2018966666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="3">
+        <v>191.81</v>
+      </c>
+      <c r="C139" s="3">
+        <v>18</v>
+      </c>
+      <c r="D139" s="3">
+        <v>872.81979999999999</v>
+      </c>
+      <c r="E139" s="12">
+        <f t="shared" si="2"/>
+        <v>0.80816648148148151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140" s="3">
+        <v>191.7911</v>
+      </c>
+      <c r="C140" s="3">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3">
+        <v>725.87819999999999</v>
+      </c>
+      <c r="E140" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0998154545454544</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="3">
+        <f>SUM(D121:D140)/3600</f>
+        <v>5.5955125555555556</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="14">
+        <f>AVERAGE(E121:E140)</f>
+        <v>1.1813058273665773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="24"/>
+      <c r="B146">
+        <v>0.38368211461238</v>
+      </c>
+      <c r="C146">
+        <v>0.48903912495010399</v>
+      </c>
+      <c r="D146">
+        <v>0.44847326472832799</v>
+      </c>
+      <c r="E146">
+        <v>2.14827235214024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="24"/>
+      <c r="B147">
+        <v>0.20605651219003199</v>
+      </c>
+      <c r="C147">
+        <v>0.495245760688656</v>
+      </c>
+      <c r="D147">
+        <v>1.8154117669834899</v>
+      </c>
+      <c r="E147">
+        <v>0.47706919329765701</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="24"/>
+      <c r="B148">
+        <v>0.22396731801869299</v>
+      </c>
+      <c r="C148">
+        <v>0.65826563213121303</v>
+      </c>
+      <c r="D148">
+        <v>2.97751029858214</v>
+      </c>
+      <c r="E148">
+        <v>2.1946445976454898</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+      <c r="B149">
+        <v>0.164370937833303</v>
+      </c>
+      <c r="C149">
+        <v>0.540228351092786</v>
+      </c>
+      <c r="D149">
+        <v>0.75151791979847904</v>
+      </c>
+      <c r="E149">
+        <v>1.66096526560503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="24"/>
+      <c r="B150">
+        <v>0.350240953604671</v>
+      </c>
+      <c r="C150">
+        <v>0.47113656579303698</v>
+      </c>
+      <c r="D150">
+        <v>1.49522551423523</v>
+      </c>
+      <c r="E150">
+        <v>6.2175403610689302E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="24"/>
+      <c r="B151">
+        <v>0.32638254766569802</v>
+      </c>
+      <c r="C151">
+        <v>0.54314563698128804</v>
+      </c>
+      <c r="D151">
+        <v>2.8945975654925098</v>
+      </c>
+      <c r="E151">
+        <v>0.33537622129716799</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="24"/>
+      <c r="B152">
+        <v>0.464945259283363</v>
+      </c>
+      <c r="C152">
+        <v>0.610264779484612</v>
+      </c>
+      <c r="D152">
+        <v>2.0340518334075899</v>
+      </c>
+      <c r="E152">
+        <v>2.3913450353595902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="24"/>
+      <c r="B153">
+        <v>0.34137738582760402</v>
+      </c>
+      <c r="C153">
+        <v>0.58193769869496503</v>
+      </c>
+      <c r="D153">
+        <v>3.0363374065976401</v>
+      </c>
+      <c r="E153">
+        <v>0.151032639300058</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="B154">
+        <v>0.39366082978484002</v>
+      </c>
+      <c r="C154">
+        <v>0.54364103089564197</v>
+      </c>
+      <c r="D154">
+        <v>1.28513847684039</v>
+      </c>
+      <c r="E154">
+        <v>0.51783621486628495</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="24"/>
+      <c r="B155">
+        <v>0.290769269022711</v>
+      </c>
+      <c r="C155">
+        <v>0.62670234391322499</v>
+      </c>
+      <c r="D155">
+        <v>1.6778108281208699</v>
+      </c>
+      <c r="E155">
+        <v>1.73707192286578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="24"/>
+      <c r="B156">
+        <v>0.30596583123314502</v>
+      </c>
+      <c r="C156">
+        <v>0.61120396640154595</v>
+      </c>
+      <c r="D156">
+        <v>3.3130295812220201</v>
+      </c>
+      <c r="E156">
+        <v>0.15438498259834099</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="24"/>
+      <c r="B157">
+        <v>0.383663141371682</v>
+      </c>
+      <c r="C157">
+        <v>0.48659902359642998</v>
+      </c>
+      <c r="D157">
+        <v>1.2133472266252101</v>
+      </c>
+      <c r="E157">
+        <v>2.4629029508441902</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A145:A157"/>
     <mergeCell ref="M14:M26"/>
     <mergeCell ref="M28:M40"/>
     <mergeCell ref="S28:S40"/>
@@ -17491,7 +23419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A907CD-E199-438D-A164-9AD563A3110E}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -17556,7 +23484,7 @@
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D4" t="s">
@@ -17612,7 +23540,7 @@
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D8" t="s">
@@ -17639,10 +23567,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -17662,8 +23590,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -17681,8 +23609,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -17700,8 +23628,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -17719,8 +23647,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -17738,8 +23666,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -17757,8 +23685,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -17776,8 +23704,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -17795,10 +23723,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="26">
         <v>2</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -17812,8 +23740,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -17825,8 +23753,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -17838,8 +23766,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="25"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -17851,8 +23779,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -17864,8 +23792,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="25"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -17877,8 +23805,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -17890,8 +23818,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -17903,10 +23831,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
+      <c r="A41" s="27">
         <v>3</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -17920,8 +23848,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="25"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -17933,8 +23861,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="25"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -17946,8 +23874,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="25"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -17959,8 +23887,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="25"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -17972,8 +23900,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="25"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -17985,8 +23913,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="25"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -17998,8 +23926,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="25"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -18011,10 +23939,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+      <c r="A56" s="26">
         <v>4</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -18037,8 +23965,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="25"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -18059,8 +23987,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="25"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -18081,8 +24009,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="25"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -18103,8 +24031,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="25"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -18125,8 +24053,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="25"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -18147,8 +24075,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="25"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -18169,8 +24097,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="25"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AC08CD-4938-4CFE-99A9-A19269F33BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A792D-D2DC-49B1-947A-88E6CF39BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="4" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
     <sheet name="timeline" sheetId="3" r:id="rId3"/>
-    <sheet name="catchmentInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="CachmentInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="Monthly Optim" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Benchmark!$E$2:$E$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -566,6 +566,36 @@
   <si>
     <t>~Good Rainfall - Good Streamflow - Small value of streamflow</t>
   </si>
+  <si>
+    <t>Objective Function</t>
+  </si>
+  <si>
+    <t>SSE flow duration curve</t>
+  </si>
+  <si>
+    <t>SSE flow duration curve &amp; SSE mean rainfall</t>
+  </si>
+  <si>
+    <t>SSE flow duration curve &amp; SSE rainfall</t>
+  </si>
+  <si>
+    <t>SSE flow duration curve disaggregate</t>
+  </si>
+  <si>
+    <t>0.5Q + 0.5R</t>
+  </si>
+  <si>
+    <t>0.5Q^2+0.5R</t>
+  </si>
+  <si>
+    <t>0.5Q+0.5R</t>
+  </si>
+  <si>
+    <t>0.1H+03.M+0.6L</t>
+  </si>
+  <si>
+    <t>H = high(prob&lt;0.05); M = high(0.05&lt;prob&lt;0.5); L = low(prob&gt;0.5)</t>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +726,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,6 +971,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,9 +997,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23613,7 +23670,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24333,7 +24390,7 @@
         <xdr:cNvPr id="21" name="Chart 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB016D3-07AA-412C-A427-3870EA15CFAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24371,7 +24428,7 @@
         <xdr:cNvPr id="22" name="Chart 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6689E20E-7375-403A-AC51-B55767AC2E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24409,7 +24466,7 @@
         <xdr:cNvPr id="23" name="Chart 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17568AE-1F4C-4420-907D-84A54C40AC8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24447,7 +24504,7 @@
         <xdr:cNvPr id="24" name="Chart 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF388EC-6F7D-4200-83A1-E30815AA50B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25658,7 +25715,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F53505-0CF3-41C5-B2D4-BF1534780BEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25736,6 +25793,133 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10658</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92699A6C-BF17-406F-AB17-5C67E0075938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28576"/>
+          <a:ext cx="4887458" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF56242-0597-47E5-9772-0D626A61DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3505200"/>
+          <a:ext cx="4880309" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -26064,7 +26248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F022D-9568-441E-BB2A-9DD37CD3F5CE}">
   <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+    <sheetView topLeftCell="A176" workbookViewId="0">
       <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
@@ -26233,7 +26417,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="48" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -26248,7 +26432,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="45" t="s">
+      <c r="S14" s="48" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -26277,7 +26461,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="45"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -26290,7 +26474,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="45"/>
+      <c r="S15" s="48"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -26317,7 +26501,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="45"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -26330,7 +26514,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="45"/>
+      <c r="S16" s="48"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -26357,7 +26541,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="45"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -26370,7 +26554,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="48"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -26397,7 +26581,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="45"/>
+      <c r="M18" s="48"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -26410,7 +26594,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="45"/>
+      <c r="S18" s="48"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -26437,7 +26621,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="45"/>
+      <c r="M19" s="48"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -26450,7 +26634,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="45"/>
+      <c r="S19" s="48"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -26477,7 +26661,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="45"/>
+      <c r="M20" s="48"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -26490,7 +26674,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="45"/>
+      <c r="S20" s="48"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -26517,7 +26701,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="45"/>
+      <c r="M21" s="48"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -26530,7 +26714,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="45"/>
+      <c r="S21" s="48"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -26557,7 +26741,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="45"/>
+      <c r="M22" s="48"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -26570,7 +26754,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="45"/>
+      <c r="S22" s="48"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -26597,7 +26781,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="45"/>
+      <c r="M23" s="48"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -26610,7 +26794,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="45"/>
+      <c r="S23" s="48"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -26637,7 +26821,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="48"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -26650,7 +26834,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="45"/>
+      <c r="S24" s="48"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -26677,7 +26861,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="45"/>
+      <c r="M25" s="48"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -26690,7 +26874,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="45"/>
+      <c r="S25" s="48"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -26717,7 +26901,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="45"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -26730,7 +26914,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="45"/>
+      <c r="S26" s="48"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -26771,7 +26955,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="48" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -26786,7 +26970,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="45" t="s">
+      <c r="S28" s="48" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -26815,7 +26999,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="45"/>
+      <c r="M29" s="48"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -26828,7 +27012,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="45"/>
+      <c r="S29" s="48"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -26855,7 +27039,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="45"/>
+      <c r="M30" s="48"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -26868,7 +27052,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="45"/>
+      <c r="S30" s="48"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -26895,7 +27079,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="45"/>
+      <c r="M31" s="48"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -26908,7 +27092,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="45"/>
+      <c r="S31" s="48"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -26935,7 +27119,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="45"/>
+      <c r="M32" s="48"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -26948,7 +27132,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="45"/>
+      <c r="S32" s="48"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -26975,7 +27159,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="45"/>
+      <c r="M33" s="48"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -26988,7 +27172,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="45"/>
+      <c r="S33" s="48"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -27010,7 +27194,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="45"/>
+      <c r="M34" s="48"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -27023,7 +27207,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="45"/>
+      <c r="S34" s="48"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -27050,7 +27234,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="45"/>
+      <c r="M35" s="48"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -27063,7 +27247,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="45"/>
+      <c r="S35" s="48"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -27090,7 +27274,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="45"/>
+      <c r="M36" s="48"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -27103,7 +27287,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="45"/>
+      <c r="S36" s="48"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -27130,7 +27314,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="45"/>
+      <c r="M37" s="48"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -27143,7 +27327,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="45"/>
+      <c r="S37" s="48"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -27170,7 +27354,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="45"/>
+      <c r="M38" s="48"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -27183,7 +27367,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="45"/>
+      <c r="S38" s="48"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -27210,7 +27394,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="45"/>
+      <c r="M39" s="48"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -27223,7 +27407,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="45"/>
+      <c r="S39" s="48"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -27250,7 +27434,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="45"/>
+      <c r="M40" s="48"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -27263,7 +27447,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="45"/>
+      <c r="S40" s="48"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -27935,7 +28119,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -27952,7 +28136,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
+      <c r="A88" s="48"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -27967,7 +28151,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="48"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -27982,7 +28166,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="48"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -27997,7 +28181,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
+      <c r="A91" s="48"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -28012,7 +28196,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="48"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -28027,7 +28211,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="48"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -28042,7 +28226,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="48"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -28057,7 +28241,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="48"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -28072,7 +28256,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
+      <c r="A96" s="48"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -28087,7 +28271,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
+      <c r="A97" s="48"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -28102,7 +28286,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
+      <c r="A98" s="48"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -28117,7 +28301,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
+      <c r="A99" s="48"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -28528,7 +28712,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -28545,7 +28729,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="45"/>
+      <c r="A146" s="48"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -28560,7 +28744,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="45"/>
+      <c r="A147" s="48"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -28575,7 +28759,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="45"/>
+      <c r="A148" s="48"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -28590,7 +28774,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="45"/>
+      <c r="A149" s="48"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -28605,7 +28789,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
+      <c r="A150" s="48"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -28620,7 +28804,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="45"/>
+      <c r="A151" s="48"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -28635,7 +28819,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="45"/>
+      <c r="A152" s="48"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -28650,7 +28834,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="45"/>
+      <c r="A153" s="48"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -28665,7 +28849,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="45"/>
+      <c r="A154" s="48"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -28680,7 +28864,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="45"/>
+      <c r="A155" s="48"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -28695,7 +28879,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="45"/>
+      <c r="A156" s="48"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -28710,7 +28894,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="45"/>
+      <c r="A157" s="48"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -28725,7 +28909,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="45" t="s">
+      <c r="A179" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -28742,7 +28926,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="45"/>
+      <c r="A180" s="48"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -28758,7 +28942,7 @@
       <c r="H180"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="45"/>
+      <c r="A181" s="48"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -28773,7 +28957,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="45"/>
+      <c r="A182" s="48"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -28788,7 +28972,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="45"/>
+      <c r="A183" s="48"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -28803,7 +28987,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="45"/>
+      <c r="A184" s="48"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -28818,7 +29002,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="45"/>
+      <c r="A185" s="48"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -28833,7 +29017,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="45"/>
+      <c r="A186" s="48"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -28848,7 +29032,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="45"/>
+      <c r="A187" s="48"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -28863,7 +29047,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="45"/>
+      <c r="A188" s="48"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -28878,7 +29062,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="45"/>
+      <c r="A189" s="48"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -28893,7 +29077,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="45"/>
+      <c r="A190" s="48"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -28908,7 +29092,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="45"/>
+      <c r="A191" s="48"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -29115,10 +29299,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="50">
         <v>1</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -29138,8 +29322,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="49"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -29157,8 +29341,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="49"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -29176,8 +29360,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="49"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -29195,8 +29379,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="49"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -29214,8 +29398,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="49"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -29233,8 +29417,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -29252,8 +29436,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="49"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -29271,10 +29455,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="A27" s="50">
         <v>2</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="49" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -29288,8 +29472,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="49"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -29301,8 +29485,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="49"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -29314,8 +29498,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="49"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -29327,8 +29511,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="49"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -29340,8 +29524,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="49"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -29353,8 +29537,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -29366,8 +29550,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="49"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -29379,10 +29563,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="51">
         <v>3</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="49" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -29396,8 +29580,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="49"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -29409,8 +29593,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="49"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -29422,8 +29606,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="49"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -29435,8 +29619,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="49"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -29448,8 +29632,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="49"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -29461,8 +29645,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="49"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -29474,8 +29658,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="49"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -29487,10 +29671,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="47">
+      <c r="A56" s="50">
         <v>4</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -29513,8 +29697,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="49"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -29535,8 +29719,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="49"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -29557,8 +29741,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="49"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -29579,8 +29763,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="49"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -29601,8 +29785,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="49"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -29623,8 +29807,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="49"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -29645,8 +29829,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="49"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -29748,24 +29932,24 @@
   <sheetData>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="24"/>
@@ -29849,7 +30033,7 @@
       <c r="E12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="37"/>
@@ -29866,7 +30050,7 @@
       <c r="E13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="37"/>
@@ -29883,7 +30067,7 @@
       <c r="E14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="30"/>
       <c r="H14" s="29"/>
       <c r="I14" s="37"/>
@@ -29900,7 +30084,7 @@
       <c r="E15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="30"/>
       <c r="H15" s="29"/>
       <c r="I15" s="37"/>
@@ -29917,7 +30101,7 @@
       <c r="E16" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="30"/>
       <c r="H16" s="29"/>
       <c r="I16" s="37"/>
@@ -29934,7 +30118,7 @@
       <c r="E17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="37"/>
@@ -29951,7 +30135,7 @@
       <c r="E18" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="38"/>
@@ -29968,7 +30152,7 @@
       <c r="E19" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="38"/>
@@ -29985,7 +30169,7 @@
       <c r="E20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="38"/>
@@ -30002,7 +30186,7 @@
       <c r="E21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="24"/>
       <c r="H21" s="28"/>
       <c r="I21" s="37"/>
@@ -30019,7 +30203,7 @@
       <c r="E22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="37"/>
@@ -30250,7 +30434,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31321,7 +31505,7 @@
       <c r="O21" s="19">
         <v>23039</v>
       </c>
-      <c r="P21" s="54"/>
+      <c r="P21" s="47"/>
       <c r="Q21" s="19" t="s">
         <v>167</v>
       </c>
@@ -31607,4 +31791,152 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805B967-ED47-4C82-898E-26B42A805891}">
+  <dimension ref="I1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="55">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="55">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K4" s="56">
+        <v>3</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K5" s="56">
+        <v>4</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="56">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A792D-D2DC-49B1-947A-88E6CF39BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF3290-1284-404B-80FF-68A8D3F9F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="4" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
-    <sheet name="timeline" sheetId="3" r:id="rId3"/>
-    <sheet name="CachmentInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="CachmentInfo" sheetId="4" r:id="rId3"/>
+    <sheet name="timeline" sheetId="3" r:id="rId4"/>
     <sheet name="Monthly Optim" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="179">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -513,9 +513,6 @@
     <t>maybe</t>
   </si>
   <si>
-    <t>Run optim site 1</t>
-  </si>
-  <si>
     <t>Checklist</t>
   </si>
   <si>
@@ -662,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,6 +979,15 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -997,15 +1009,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23654,7 +23658,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23666,10 +23670,6 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -25234,73 +25234,6 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -25707,8 +25640,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25723,8 +25656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="4381501"/>
-          <a:ext cx="4733925" cy="1238250"/>
+          <a:off x="4466167" y="4381501"/>
+          <a:ext cx="4712758" cy="1608666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25759,40 +25692,97 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>SImulation plan:</a:t>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>Coding Plan:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>- Calibrate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> &amp; Validate GR4J</a:t>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>1. Summary evaluation (similar to CASE) (2-3 days)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- Fit WGEN to observed rainfall data</a:t>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>2. Calculate and plots other flow stats (mean, sd monthly) (1 day)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- Calibrate WGEN with Flow Duration Curve: all parameter or selected month or monthly</a:t>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>3. get figures for sites (0.5 day)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- Validation with split sample.</a:t>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>4. which combination for current OFs, other OFs?</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>613832</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>24341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2CF1D5-5A48-4A6E-A918-23DCEFBC24A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1841499" y="6148916"/>
+          <a:ext cx="12371917" cy="9115425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -25818,7 +25808,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92699A6C-BF17-406F-AB17-5C67E0075938}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25879,7 +25869,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF56242-0597-47E5-9772-0D626A61DBAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26417,7 +26407,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="51" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -26432,7 +26422,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="51" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -26461,7 +26451,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="48"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -26474,7 +26464,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="48"/>
+      <c r="S15" s="51"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -26501,7 +26491,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="48"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -26514,7 +26504,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="48"/>
+      <c r="S16" s="51"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -26541,7 +26531,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="48"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -26554,7 +26544,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="48"/>
+      <c r="S17" s="51"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -26581,7 +26571,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="48"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -26594,7 +26584,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="48"/>
+      <c r="S18" s="51"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -26621,7 +26611,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="48"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -26634,7 +26624,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="48"/>
+      <c r="S19" s="51"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -26661,7 +26651,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="48"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -26674,7 +26664,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="48"/>
+      <c r="S20" s="51"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -26701,7 +26691,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="48"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -26714,7 +26704,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="48"/>
+      <c r="S21" s="51"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -26741,7 +26731,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="48"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -26754,7 +26744,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="48"/>
+      <c r="S22" s="51"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -26781,7 +26771,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="48"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -26794,7 +26784,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="48"/>
+      <c r="S23" s="51"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -26821,7 +26811,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="48"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -26834,7 +26824,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="48"/>
+      <c r="S24" s="51"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -26861,7 +26851,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="48"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -26874,7 +26864,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="48"/>
+      <c r="S25" s="51"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -26901,7 +26891,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -26914,7 +26904,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="48"/>
+      <c r="S26" s="51"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -26955,7 +26945,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="51" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -26970,7 +26960,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="51" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -26999,7 +26989,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="48"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -27012,7 +27002,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="48"/>
+      <c r="S29" s="51"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -27039,7 +27029,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="48"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -27052,7 +27042,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="48"/>
+      <c r="S30" s="51"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -27079,7 +27069,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -27092,7 +27082,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="48"/>
+      <c r="S31" s="51"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -27119,7 +27109,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="48"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -27132,7 +27122,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="48"/>
+      <c r="S32" s="51"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -27159,7 +27149,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="48"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -27172,7 +27162,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="48"/>
+      <c r="S33" s="51"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -27194,7 +27184,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="48"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -27207,7 +27197,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="48"/>
+      <c r="S34" s="51"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -27234,7 +27224,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="48"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -27247,7 +27237,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="48"/>
+      <c r="S35" s="51"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -27274,7 +27264,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="48"/>
+      <c r="M36" s="51"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -27287,7 +27277,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="48"/>
+      <c r="S36" s="51"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -27314,7 +27304,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="48"/>
+      <c r="M37" s="51"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -27327,7 +27317,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="48"/>
+      <c r="S37" s="51"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -27354,7 +27344,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="48"/>
+      <c r="M38" s="51"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -27367,7 +27357,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="48"/>
+      <c r="S38" s="51"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -27394,7 +27384,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="48"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -27407,7 +27397,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="48"/>
+      <c r="S39" s="51"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -27434,7 +27424,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="48"/>
+      <c r="M40" s="51"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -27447,7 +27437,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="48"/>
+      <c r="S40" s="51"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -28119,7 +28109,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -28136,7 +28126,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="51"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -28151,7 +28141,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="51"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -28166,7 +28156,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="51"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -28181,7 +28171,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="51"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -28196,7 +28186,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="51"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -28211,7 +28201,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="51"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -28226,7 +28216,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="51"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -28241,7 +28231,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="51"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -28256,7 +28246,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="51"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -28271,7 +28261,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="51"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -28286,7 +28276,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
+      <c r="A98" s="51"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -28301,7 +28291,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="51"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -28712,7 +28702,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -28729,7 +28719,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="51"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -28744,7 +28734,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="51"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -28759,7 +28749,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="51"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -28774,7 +28764,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="51"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -28789,7 +28779,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="51"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -28804,7 +28794,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="51"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -28819,7 +28809,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="51"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -28834,7 +28824,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="51"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -28849,7 +28839,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="51"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -28864,7 +28854,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="51"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -28879,7 +28869,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="51"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -28894,7 +28884,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="51"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -28909,7 +28899,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="48" t="s">
+      <c r="A179" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -28926,7 +28916,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
+      <c r="A180" s="51"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -28942,7 +28932,7 @@
       <c r="H180"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
+      <c r="A181" s="51"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -28957,7 +28947,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
+      <c r="A182" s="51"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -28972,7 +28962,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
+      <c r="A183" s="51"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -28987,7 +28977,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
+      <c r="A184" s="51"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -29002,7 +28992,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
+      <c r="A185" s="51"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -29017,7 +29007,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
+      <c r="A186" s="51"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -29032,7 +29022,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
+      <c r="A187" s="51"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -29047,7 +29037,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
+      <c r="A188" s="51"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -29062,7 +29052,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
+      <c r="A189" s="51"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -29077,7 +29067,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
+      <c r="A190" s="51"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -29092,7 +29082,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
+      <c r="A191" s="51"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -29299,10 +29289,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="53">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -29322,8 +29312,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="52"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -29341,8 +29331,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="52"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -29360,8 +29350,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="52"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -29379,8 +29369,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="52"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -29398,8 +29388,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="52"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -29417,8 +29407,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="52"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -29436,8 +29426,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="52"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -29455,10 +29445,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="53">
         <v>2</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="52" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -29472,8 +29462,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="52"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -29485,8 +29475,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="52"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -29498,8 +29488,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="52"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -29511,8 +29501,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="52"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -29524,8 +29514,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="52"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -29537,8 +29527,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="52"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -29550,8 +29540,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="52"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -29563,10 +29553,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="51">
+      <c r="A41" s="54">
         <v>3</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -29580,8 +29570,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="52"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -29593,8 +29583,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="52"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -29606,8 +29596,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="52"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -29619,8 +29609,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="52"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -29632,8 +29622,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="52"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -29645,8 +29635,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="52"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -29658,8 +29648,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="52"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -29671,10 +29661,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="50">
+      <c r="A56" s="53">
         <v>4</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -29697,8 +29687,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="49"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="52"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -29719,8 +29709,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="49"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="52"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -29741,8 +29731,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="52"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -29763,8 +29753,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="49"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="52"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -29785,8 +29775,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="49"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="52"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -29807,8 +29797,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="49"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="52"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -29829,8 +29819,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="49"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -29916,520 +29906,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831A70-99DE-4B29-A3BA-902780D4E7B1}">
-  <dimension ref="D9:Q31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="24"/>
-      <c r="F9" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="24"/>
-      <c r="F10" s="25">
-        <v>1</v>
-      </c>
-      <c r="G10" s="25">
-        <v>2</v>
-      </c>
-      <c r="H10" s="25">
-        <v>3</v>
-      </c>
-      <c r="I10" s="35">
-        <v>4</v>
-      </c>
-      <c r="J10" s="39">
-        <v>1</v>
-      </c>
-      <c r="K10" s="25">
-        <v>2</v>
-      </c>
-      <c r="L10" s="25">
-        <v>3</v>
-      </c>
-      <c r="M10" s="35">
-        <v>4</v>
-      </c>
-      <c r="N10" s="39">
-        <v>1</v>
-      </c>
-      <c r="O10" s="25">
-        <v>2</v>
-      </c>
-      <c r="P10" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="37"/>
-    </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="37"/>
-    </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="37"/>
-    </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="37"/>
-    </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="37"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E17" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="37"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="37"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="37"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="37"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E21" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E22" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="37"/>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId4" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3074" r:id="rId5" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3075" r:id="rId6" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3076" r:id="rId7" name="Check Box 4">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3077" r:id="rId8" name="Check Box 5">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3078" r:id="rId9" name="Check Box 6">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3079" r:id="rId10" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A512DBA6-0F04-4FF0-96D5-27AF47896A60}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
@@ -30500,7 +29976,7 @@
         <v>127</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -30699,7 +30175,7 @@
       </c>
       <c r="P5" s="34"/>
       <c r="Q5" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -30751,7 +30227,7 @@
       </c>
       <c r="P6" s="34"/>
       <c r="Q6" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -30803,7 +30279,7 @@
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -30855,7 +30331,7 @@
       </c>
       <c r="P8" s="34"/>
       <c r="Q8" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -31054,7 +30530,7 @@
       </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -31302,7 +30778,7 @@
       </c>
       <c r="P17" s="33"/>
       <c r="Q17" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -31354,7 +30830,7 @@
       </c>
       <c r="P18" s="33"/>
       <c r="Q18" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -31455,7 +30931,7 @@
       </c>
       <c r="P20" s="32"/>
       <c r="Q20" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -31507,7 +30983,7 @@
       </c>
       <c r="P21" s="47"/>
       <c r="Q21" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -31559,7 +31035,7 @@
       </c>
       <c r="P22" s="33"/>
       <c r="Q22" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -31611,7 +31087,7 @@
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -31712,7 +31188,7 @@
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -31764,7 +31240,7 @@
       </c>
       <c r="P26" s="33"/>
       <c r="Q26" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -31793,11 +31269,498 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831A70-99DE-4B29-A3BA-902780D4E7B1}">
+  <dimension ref="D9:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="24"/>
+      <c r="F9" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="24"/>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25">
+        <v>3</v>
+      </c>
+      <c r="I10" s="35">
+        <v>4</v>
+      </c>
+      <c r="J10" s="39">
+        <v>1</v>
+      </c>
+      <c r="K10" s="25">
+        <v>2</v>
+      </c>
+      <c r="L10" s="25">
+        <v>3</v>
+      </c>
+      <c r="M10" s="35">
+        <v>4</v>
+      </c>
+      <c r="N10" s="39">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>2</v>
+      </c>
+      <c r="P10" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="37"/>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="37"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E17" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="37"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3074" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3076" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3077" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3078" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3079" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805B967-ED47-4C82-898E-26B42A805891}">
   <dimension ref="I1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -31810,63 +31773,63 @@
     <row r="1" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K1" s="20"/>
       <c r="L1" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="55">
+      <c r="K2" s="48">
         <v>1</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K3" s="55">
+      <c r="K3" s="48">
         <v>2</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" t="s">
         <v>178</v>
-      </c>
-      <c r="N3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K4" s="56">
+      <c r="K4" s="49">
         <v>3</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" t="s">
         <v>176</v>
-      </c>
-      <c r="N4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K5" s="56">
+      <c r="K5" s="49">
         <v>4</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="57">
+      <c r="I6" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="57">
+      <c r="I7" s="50">
         <v>2</v>
       </c>
     </row>
@@ -31925,12 +31888,12 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="56">
+      <c r="I26" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="56">
+      <c r="I27" s="49">
         <v>4</v>
       </c>
     </row>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF3290-1284-404B-80FF-68A8D3F9F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1EF276-C090-4182-AF24-9F6AE92CD136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="4" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
     <sheet name="CachmentInfo" sheetId="4" r:id="rId3"/>
     <sheet name="timeline" sheetId="3" r:id="rId4"/>
-    <sheet name="Monthly Optim" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Monthly Optim" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Benchmark!$E$2:$E$7</definedName>
@@ -988,6 +989,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,7 +1011,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24596,7 +24597,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-AU" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -25251,7 +25252,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25318,7 +25319,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25385,7 +25386,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25452,7 +25453,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25519,7 +25520,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25586,7 +25587,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25648,7 +25649,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25742,7 +25743,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2CF1D5-5A48-4A6E-A918-23DCEFBC24A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26407,7 +26408,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="52" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -26422,7 +26423,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="51" t="s">
+      <c r="S14" s="52" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -26451,7 +26452,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -26464,7 +26465,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="51"/>
+      <c r="S15" s="52"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -26491,7 +26492,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -26504,7 +26505,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="51"/>
+      <c r="S16" s="52"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -26531,7 +26532,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -26544,7 +26545,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="51"/>
+      <c r="S17" s="52"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -26571,7 +26572,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -26584,7 +26585,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="51"/>
+      <c r="S18" s="52"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -26611,7 +26612,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -26624,7 +26625,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="51"/>
+      <c r="S19" s="52"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -26651,7 +26652,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="52"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -26664,7 +26665,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="51"/>
+      <c r="S20" s="52"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -26691,7 +26692,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -26704,7 +26705,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="51"/>
+      <c r="S21" s="52"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -26731,7 +26732,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -26744,7 +26745,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="51"/>
+      <c r="S22" s="52"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -26771,7 +26772,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="52"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -26784,7 +26785,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="51"/>
+      <c r="S23" s="52"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -26811,7 +26812,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="52"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -26824,7 +26825,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="51"/>
+      <c r="S24" s="52"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -26851,7 +26852,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -26864,7 +26865,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="51"/>
+      <c r="S25" s="52"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -26891,7 +26892,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -26904,7 +26905,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="51"/>
+      <c r="S26" s="52"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -26945,7 +26946,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="52" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -26960,7 +26961,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="51" t="s">
+      <c r="S28" s="52" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -26989,7 +26990,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="52"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -27002,7 +27003,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="51"/>
+      <c r="S29" s="52"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -27029,7 +27030,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -27042,7 +27043,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="51"/>
+      <c r="S30" s="52"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -27069,7 +27070,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="52"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -27082,7 +27083,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="51"/>
+      <c r="S31" s="52"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -27109,7 +27110,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -27122,7 +27123,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="51"/>
+      <c r="S32" s="52"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -27149,7 +27150,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -27162,7 +27163,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="51"/>
+      <c r="S33" s="52"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -27184,7 +27185,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -27197,7 +27198,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="51"/>
+      <c r="S34" s="52"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -27224,7 +27225,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -27237,7 +27238,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="51"/>
+      <c r="S35" s="52"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -27264,7 +27265,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -27277,7 +27278,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="51"/>
+      <c r="S36" s="52"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -27304,7 +27305,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="52"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -27317,7 +27318,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="51"/>
+      <c r="S37" s="52"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -27344,7 +27345,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="51"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -27357,7 +27358,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="51"/>
+      <c r="S38" s="52"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -27384,7 +27385,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="51"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -27397,7 +27398,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="51"/>
+      <c r="S39" s="52"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -27424,7 +27425,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="52"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -27437,7 +27438,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="51"/>
+      <c r="S40" s="52"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -28109,7 +28110,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -28126,7 +28127,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
+      <c r="A88" s="52"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -28141,7 +28142,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
+      <c r="A89" s="52"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -28156,7 +28157,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
+      <c r="A90" s="52"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -28171,7 +28172,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="52"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -28186,7 +28187,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+      <c r="A92" s="52"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -28201,7 +28202,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+      <c r="A93" s="52"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -28216,7 +28217,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="52"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -28231,7 +28232,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+      <c r="A95" s="52"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -28246,7 +28247,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="52"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -28261,7 +28262,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+      <c r="A97" s="52"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -28276,7 +28277,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="A98" s="52"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -28291,7 +28292,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="A99" s="52"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -28702,7 +28703,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="51" t="s">
+      <c r="A145" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -28719,7 +28720,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
+      <c r="A146" s="52"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -28734,7 +28735,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
+      <c r="A147" s="52"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -28749,7 +28750,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
+      <c r="A148" s="52"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -28764,7 +28765,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
+      <c r="A149" s="52"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -28779,7 +28780,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
+      <c r="A150" s="52"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -28794,7 +28795,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
+      <c r="A151" s="52"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -28809,7 +28810,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
+      <c r="A152" s="52"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -28824,7 +28825,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
+      <c r="A153" s="52"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -28839,7 +28840,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
+      <c r="A154" s="52"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -28854,7 +28855,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
+      <c r="A155" s="52"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -28869,7 +28870,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
+      <c r="A156" s="52"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -28884,7 +28885,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
+      <c r="A157" s="52"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -28899,7 +28900,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="51" t="s">
+      <c r="A179" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -28916,7 +28917,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
+      <c r="A180" s="52"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -28932,7 +28933,7 @@
       <c r="H180"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
+      <c r="A181" s="52"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -28947,7 +28948,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
+      <c r="A182" s="52"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -28962,7 +28963,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
+      <c r="A183" s="52"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -28977,7 +28978,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+      <c r="A184" s="52"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -28992,7 +28993,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
+      <c r="A185" s="52"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -29007,7 +29008,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="52"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -29022,7 +29023,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
+      <c r="A187" s="52"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -29037,7 +29038,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
+      <c r="A188" s="52"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -29052,7 +29053,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
+      <c r="A189" s="52"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -29067,7 +29068,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
+      <c r="A190" s="52"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -29082,7 +29083,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
+      <c r="A191" s="52"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -29289,10 +29290,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="54">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -29312,8 +29313,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -29331,8 +29332,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="53"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -29350,8 +29351,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="53"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -29369,8 +29370,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="53"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -29388,8 +29389,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="53"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -29407,8 +29408,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="53"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -29426,8 +29427,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="53"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -29445,10 +29446,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53">
+      <c r="A27" s="54">
         <v>2</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -29462,8 +29463,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="53"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -29475,8 +29476,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="53"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -29488,8 +29489,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="53"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -29501,8 +29502,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="53"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -29514,8 +29515,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="53"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -29527,8 +29528,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="53"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -29540,8 +29541,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="53"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -29553,10 +29554,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="55">
         <v>3</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -29570,8 +29571,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="53"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -29583,8 +29584,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="53"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -29596,8 +29597,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="53"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -29609,8 +29610,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="53"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -29622,8 +29623,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="53"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -29635,8 +29636,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="53"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -29648,8 +29649,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="53"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -29661,10 +29662,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
+      <c r="A56" s="54">
         <v>4</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="53" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -29687,8 +29688,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="53"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -29709,8 +29710,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="53"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -29731,8 +29732,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="53"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -29753,8 +29754,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="53"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -29775,8 +29776,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="53"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -29797,8 +29798,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="53"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -29819,8 +29820,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="53"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -31273,7 +31274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831A70-99DE-4B29-A3BA-902780D4E7B1}">
   <dimension ref="D9:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
@@ -31286,24 +31287,24 @@
   <sheetData>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="24"/>
@@ -31388,7 +31389,7 @@
         <v>94</v>
       </c>
       <c r="F12" s="45"/>
-      <c r="G12" s="58"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="24"/>
       <c r="I12" s="37"/>
       <c r="J12" s="41"/>
@@ -31405,7 +31406,7 @@
         <v>95</v>
       </c>
       <c r="F13" s="45"/>
-      <c r="G13" s="58"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="24"/>
       <c r="I13" s="37"/>
       <c r="J13" s="41"/>
@@ -31507,7 +31508,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="45"/>
-      <c r="G19" s="58"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="24"/>
       <c r="I19" s="38"/>
       <c r="J19" s="43"/>
@@ -31524,7 +31525,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="45"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="24"/>
       <c r="I20" s="38"/>
       <c r="J20" s="43"/>
@@ -31541,7 +31542,7 @@
         <v>102</v>
       </c>
       <c r="F21" s="45"/>
-      <c r="G21" s="58"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="28"/>
       <c r="I21" s="37"/>
       <c r="J21" s="41"/>
@@ -31558,7 +31559,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="45"/>
-      <c r="G22" s="58"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="24"/>
       <c r="I22" s="37"/>
       <c r="J22" s="41"/>
@@ -31757,6 +31758,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFC9F02-1FED-4F15-912C-EA25DDAC19DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805B967-ED47-4C82-898E-26B42A805891}">
   <dimension ref="I1:N27"/>
   <sheetViews>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF3290-1284-404B-80FF-68A8D3F9F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821B06B-D7B2-4D2F-9D23-C348053FCC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
     <sheet name="CachmentInfo" sheetId="4" r:id="rId3"/>
     <sheet name="timeline" sheetId="3" r:id="rId4"/>
-    <sheet name="Monthly Optim" sheetId="5" r:id="rId5"/>
+    <sheet name="Outline Map" sheetId="6" r:id="rId5"/>
+    <sheet name="Monthly Optim" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Benchmark!$E$2:$E$7</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -593,6 +594,15 @@
   <si>
     <t>H = high(prob&lt;0.05); M = high(0.05&lt;prob&lt;0.5); L = low(prob&gt;0.5)</t>
   </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Gantt chart</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +668,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70330A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,7 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,7 +987,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,7 +1046,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,6 +1112,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF70330A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -23653,24 +23702,48 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25228,6 +25301,55 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256368</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A70C44-CA6C-462D-B181-F2A131176B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="6096000"/>
+          <a:ext cx="6457143" cy="3571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -25251,7 +25373,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25318,7 +25440,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25385,7 +25507,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25452,7 +25574,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25519,7 +25641,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25569,13 +25691,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -25586,7 +25708,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25632,23 +25754,23 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648757</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25656,8 +25778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4466167" y="4381501"/>
-          <a:ext cx="4712758" cy="1608666"/>
+          <a:off x="5397499" y="4773083"/>
+          <a:ext cx="5241925" cy="2603500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25693,7 +25815,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-            <a:t>Coding Plan:</a:t>
+            <a:t>Coding and simulation plan:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -25717,32 +25839,459 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-            <a:t>4. which combination for current OFs, other OFs?</a:t>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>which combination for current OFs, other OFs?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Run on other sites</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Run with synthetic data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Testing the procedure on one single month at a time (12 FDC plot)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3080" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8F6286-70A7-45CE-A2D7-6F674467ACD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3081" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04AD974-13D8-4EDA-A737-D39FD4228091}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3082" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB835BAD-187D-40DA-9867-A33A6562BD2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3083" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5A2EF-B9B8-4EEE-B74B-7BFE2E4E6D87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3084" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C023348A-7488-476C-9E50-3C5D7687CCE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3085" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAAD3A0-594F-4779-9743-157CA8B3A882}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>613832</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539749</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2CF1D5-5A48-4A6E-A918-23DCEFBC24A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C711D3E-0894-424B-87AD-A13A40400058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25765,8 +26314,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1841499" y="6148916"/>
-          <a:ext cx="12371917" cy="9115425"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12546542" cy="9115425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962A3188-9B6D-4128-B35B-92C239CB10AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9525000"/>
+          <a:ext cx="13201650" cy="7229475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25788,7 +26398,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26407,7 +27017,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="50" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -26422,7 +27032,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="51" t="s">
+      <c r="S14" s="50" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -26451,7 +27061,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -26464,7 +27074,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="51"/>
+      <c r="S15" s="50"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -26491,7 +27101,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -26504,7 +27114,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="51"/>
+      <c r="S16" s="50"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -26531,7 +27141,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -26544,7 +27154,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="51"/>
+      <c r="S17" s="50"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -26571,7 +27181,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -26584,7 +27194,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="51"/>
+      <c r="S18" s="50"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -26611,7 +27221,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -26624,7 +27234,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="51"/>
+      <c r="S19" s="50"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -26651,7 +27261,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -26664,7 +27274,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="51"/>
+      <c r="S20" s="50"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -26691,7 +27301,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -26704,7 +27314,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="51"/>
+      <c r="S21" s="50"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -26731,7 +27341,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -26744,7 +27354,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="51"/>
+      <c r="S22" s="50"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -26771,7 +27381,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -26784,7 +27394,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="51"/>
+      <c r="S23" s="50"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -26811,7 +27421,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -26824,7 +27434,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="51"/>
+      <c r="S24" s="50"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -26851,7 +27461,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -26864,7 +27474,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="51"/>
+      <c r="S25" s="50"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -26891,7 +27501,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="50"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -26904,7 +27514,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="51"/>
+      <c r="S26" s="50"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -26945,7 +27555,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -26960,7 +27570,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="51" t="s">
+      <c r="S28" s="50" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -26989,7 +27599,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -27002,7 +27612,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="51"/>
+      <c r="S29" s="50"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -27029,7 +27639,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="50"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -27042,7 +27652,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="51"/>
+      <c r="S30" s="50"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -27069,7 +27679,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="50"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -27082,7 +27692,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="51"/>
+      <c r="S31" s="50"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -27109,7 +27719,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -27122,7 +27732,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="51"/>
+      <c r="S32" s="50"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -27149,7 +27759,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -27162,7 +27772,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="51"/>
+      <c r="S33" s="50"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -27184,7 +27794,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -27197,7 +27807,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="51"/>
+      <c r="S34" s="50"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -27224,7 +27834,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="50"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -27237,7 +27847,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="51"/>
+      <c r="S35" s="50"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -27264,7 +27874,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="50"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -27277,7 +27887,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="51"/>
+      <c r="S36" s="50"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -27304,7 +27914,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="50"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -27317,7 +27927,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="51"/>
+      <c r="S37" s="50"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -27344,7 +27954,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="51"/>
+      <c r="M38" s="50"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -27357,7 +27967,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="51"/>
+      <c r="S38" s="50"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -27384,7 +27994,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="51"/>
+      <c r="M39" s="50"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -27397,7 +28007,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="51"/>
+      <c r="S39" s="50"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -27424,7 +28034,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="50"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -27437,7 +28047,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="51"/>
+      <c r="S40" s="50"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -28109,7 +28719,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -28126,7 +28736,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
+      <c r="A88" s="50"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -28141,7 +28751,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
+      <c r="A89" s="50"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -28156,7 +28766,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
+      <c r="A90" s="50"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -28171,7 +28781,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="50"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -28186,7 +28796,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+      <c r="A92" s="50"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -28201,7 +28811,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+      <c r="A93" s="50"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -28216,7 +28826,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="50"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -28231,7 +28841,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+      <c r="A95" s="50"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -28246,7 +28856,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="50"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -28261,7 +28871,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+      <c r="A97" s="50"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -28276,7 +28886,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="A98" s="50"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -28291,7 +28901,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="A99" s="50"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -28702,7 +29312,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="51" t="s">
+      <c r="A145" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -28719,7 +29329,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
+      <c r="A146" s="50"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -28734,7 +29344,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
+      <c r="A147" s="50"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -28749,7 +29359,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
+      <c r="A148" s="50"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -28764,7 +29374,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
+      <c r="A149" s="50"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -28779,7 +29389,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
+      <c r="A150" s="50"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -28794,7 +29404,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
+      <c r="A151" s="50"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -28809,7 +29419,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
+      <c r="A152" s="50"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -28824,7 +29434,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
+      <c r="A153" s="50"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -28839,7 +29449,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
+      <c r="A154" s="50"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -28854,7 +29464,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
+      <c r="A155" s="50"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -28869,7 +29479,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
+      <c r="A156" s="50"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -28884,7 +29494,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
+      <c r="A157" s="50"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -28899,7 +29509,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="51" t="s">
+      <c r="A179" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -28916,7 +29526,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
+      <c r="A180" s="50"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -28932,7 +29542,7 @@
       <c r="H180"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
+      <c r="A181" s="50"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -28947,7 +29557,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
+      <c r="A182" s="50"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -28962,7 +29572,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
+      <c r="A183" s="50"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -28977,7 +29587,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+      <c r="A184" s="50"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -28992,7 +29602,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
+      <c r="A185" s="50"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -29007,7 +29617,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="50"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -29022,7 +29632,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
+      <c r="A187" s="50"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -29037,7 +29647,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
+      <c r="A188" s="50"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -29052,7 +29662,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
+      <c r="A189" s="50"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -29067,7 +29677,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
+      <c r="A190" s="50"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -29082,7 +29692,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
+      <c r="A191" s="50"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -29289,10 +29899,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+      <c r="A14" s="52">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -29312,8 +29922,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="51"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -29331,8 +29941,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -29350,8 +29960,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -29369,8 +29979,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="51"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -29388,8 +29998,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="51"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -29407,8 +30017,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -29426,8 +30036,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="51"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -29445,10 +30055,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53">
+      <c r="A27" s="52">
         <v>2</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -29462,8 +30072,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -29475,8 +30085,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -29488,8 +30098,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="51"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -29501,8 +30111,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="51"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -29514,8 +30124,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -29527,8 +30137,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="51"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -29540,8 +30150,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -29553,10 +30163,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="53">
         <v>3</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -29570,8 +30180,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="51"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -29583,8 +30193,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="51"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -29596,8 +30206,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="51"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -29609,8 +30219,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="51"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -29622,8 +30232,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="51"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -29635,8 +30245,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="51"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -29648,8 +30258,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="51"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -29661,10 +30271,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
+      <c r="A56" s="52">
         <v>4</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="51" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -29687,8 +30297,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="51"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -29709,8 +30319,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="51"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -29731,8 +30341,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="51"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -29753,8 +30363,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="51"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -29775,8 +30385,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="51"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -29797,8 +30407,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="51"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -29819,8 +30429,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="51"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -29910,7 +30520,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29992,7 +30602,7 @@
       <c r="D2" s="19">
         <v>148.82</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="62" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="19">
@@ -30026,7 +30636,7 @@
       <c r="O2" s="19">
         <v>70317</v>
       </c>
-      <c r="P2" s="32"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
@@ -30041,7 +30651,7 @@
       <c r="D3" s="19">
         <v>150.03</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="62" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="19">
@@ -30075,7 +30685,7 @@
       <c r="O3" s="19">
         <v>69049</v>
       </c>
-      <c r="P3" s="32"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -30090,7 +30700,7 @@
       <c r="D4" s="19">
         <v>151.77000000000001</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="62" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="19">
@@ -30124,7 +30734,7 @@
       <c r="O4" s="19">
         <v>57037</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -30173,7 +30783,7 @@
       <c r="O5" s="19">
         <v>61317</v>
       </c>
-      <c r="P5" s="34"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="19" t="s">
         <v>160</v>
       </c>
@@ -30225,7 +30835,7 @@
       <c r="O6" s="19">
         <v>14901</v>
       </c>
-      <c r="P6" s="34"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="19" t="s">
         <v>161</v>
       </c>
@@ -30277,7 +30887,7 @@
       <c r="O7" s="19">
         <v>14092</v>
       </c>
-      <c r="P7" s="34"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="19" t="s">
         <v>161</v>
       </c>
@@ -30329,7 +30939,7 @@
       <c r="O8" s="19">
         <v>29022</v>
       </c>
-      <c r="P8" s="34"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="19" t="s">
         <v>162</v>
       </c>
@@ -30347,7 +30957,7 @@
       <c r="D9" s="19">
         <v>152.69</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="19">
@@ -30381,7 +30991,7 @@
       <c r="O9" s="19">
         <v>40004</v>
       </c>
-      <c r="P9" s="32"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -30396,7 +31006,7 @@
       <c r="D10" s="19">
         <v>152.04</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F10" s="19">
@@ -30430,7 +31040,7 @@
       <c r="O10" s="19">
         <v>40010</v>
       </c>
-      <c r="P10" s="32"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -30445,7 +31055,7 @@
       <c r="D11" s="19">
         <v>145.28</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F11" s="19">
@@ -30479,7 +31089,7 @@
       <c r="O11" s="19">
         <v>31102</v>
       </c>
-      <c r="P11" s="32"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -30528,7 +31138,7 @@
       <c r="O12" s="19">
         <v>31020</v>
       </c>
-      <c r="P12" s="34"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="19" t="s">
         <v>163</v>
       </c>
@@ -30546,7 +31156,7 @@
       <c r="D13" s="19">
         <v>147.84</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="19">
@@ -30580,7 +31190,7 @@
       <c r="O13" s="19">
         <v>33150</v>
       </c>
-      <c r="P13" s="32"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -30595,7 +31205,7 @@
       <c r="D14" s="19">
         <v>146.13</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="19">
@@ -30629,7 +31239,7 @@
       <c r="O14" s="19">
         <v>83017</v>
       </c>
-      <c r="P14" s="32"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -30644,7 +31254,7 @@
       <c r="D15" s="19">
         <v>142.34</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="19">
@@ -30678,7 +31288,7 @@
       <c r="O15" s="19">
         <v>89011</v>
       </c>
-      <c r="P15" s="32"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -30693,7 +31303,7 @@
       <c r="D16" s="19">
         <v>146.82</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="19">
@@ -30727,7 +31337,7 @@
       <c r="O16" s="19">
         <v>83057</v>
       </c>
-      <c r="P16" s="32"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -30776,7 +31386,7 @@
       <c r="O17" s="19">
         <v>85093</v>
       </c>
-      <c r="P17" s="33"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="19" t="s">
         <v>164</v>
       </c>
@@ -30828,7 +31438,7 @@
       <c r="O18" s="19">
         <v>95027</v>
       </c>
-      <c r="P18" s="33"/>
+      <c r="P18" s="32"/>
       <c r="Q18" s="19" t="s">
         <v>164</v>
       </c>
@@ -30846,7 +31456,7 @@
       <c r="D19" s="19">
         <v>146.09</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="62" t="s">
         <v>139</v>
       </c>
       <c r="F19" s="19">
@@ -30880,7 +31490,7 @@
       <c r="O19" s="19">
         <v>91017</v>
       </c>
-      <c r="P19" s="32"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -30895,7 +31505,7 @@
       <c r="D20" s="19">
         <v>138.66999999999999</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="62" t="s">
         <v>141</v>
       </c>
       <c r="F20" s="19">
@@ -30929,7 +31539,7 @@
       <c r="O20" s="19">
         <v>23734</v>
       </c>
-      <c r="P20" s="32"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="19" t="s">
         <v>165</v>
       </c>
@@ -30981,7 +31591,7 @@
       <c r="O21" s="19">
         <v>23039</v>
       </c>
-      <c r="P21" s="47"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="19" t="s">
         <v>166</v>
       </c>
@@ -31033,7 +31643,7 @@
       <c r="O22" s="19">
         <v>19015</v>
       </c>
-      <c r="P22" s="33"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="19" t="s">
         <v>160</v>
       </c>
@@ -31085,7 +31695,7 @@
       <c r="O23" s="19">
         <v>9007</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="19" t="s">
         <v>167</v>
       </c>
@@ -31103,7 +31713,7 @@
       <c r="D24" s="19">
         <v>116.04</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F24" s="19">
@@ -31137,7 +31747,7 @@
       <c r="O24" s="19">
         <v>9580</v>
       </c>
-      <c r="P24" s="32"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -31186,7 +31796,7 @@
       <c r="O25" s="19">
         <v>9926</v>
       </c>
-      <c r="P25" s="34"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="19" t="s">
         <v>168</v>
       </c>
@@ -31238,43 +31848,44 @@
       <c r="O26" s="19">
         <v>4079</v>
       </c>
-      <c r="P26" s="33"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N28" s="32"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N29" s="33"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N30" s="34"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="19" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831A70-99DE-4B29-A3BA-902780D4E7B1}">
-  <dimension ref="D9:Q31"/>
+  <dimension ref="D9:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31286,24 +31897,24 @@
   <sheetData>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="24"/>
@@ -31316,10 +31927,10 @@
       <c r="H10" s="25">
         <v>3</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>4</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
       <c r="K10" s="25">
@@ -31328,10 +31939,10 @@
       <c r="L10" s="25">
         <v>3</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>4</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="38">
         <v>1</v>
       </c>
       <c r="O10" s="25">
@@ -31340,7 +31951,7 @@
       <c r="P10" s="25">
         <v>3</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <v>4</v>
       </c>
     </row>
@@ -31355,10 +31966,10 @@
       <c r="H11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>108</v>
       </c>
       <c r="K11" s="27" t="s">
@@ -31367,10 +31978,10 @@
       <c r="L11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="39" t="s">
         <v>112</v>
       </c>
       <c r="O11" s="27" t="s">
@@ -31379,7 +31990,7 @@
       <c r="P11" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="35" t="s">
         <v>115</v>
       </c>
     </row>
@@ -31387,188 +31998,188 @@
       <c r="E12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="41"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="44"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="41"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="41"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E16" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="41"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E18" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="43"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="29"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E19" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="29"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
-      <c r="Q19" s="37"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="29"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="41"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="41"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="37"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="24"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" s="20" t="s">
@@ -31602,6 +32213,36 @@
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -31736,6 +32377,28 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3080" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -31750,6 +32413,116 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3081" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3082" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3083" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3084" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3085" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -31757,11 +32530,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA305877-9FA6-41DC-87F4-6BA95E1ECA39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="Z67" sqref="Z67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805B967-ED47-4C82-898E-26B42A805891}">
   <dimension ref="I1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31777,7 +32565,7 @@
       </c>
     </row>
     <row r="2" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="48">
+      <c r="K2" s="47">
         <v>1</v>
       </c>
       <c r="L2" s="20" t="s">
@@ -31785,7 +32573,7 @@
       </c>
     </row>
     <row r="3" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <v>2</v>
       </c>
       <c r="L3" s="20" t="s">
@@ -31799,7 +32587,7 @@
       </c>
     </row>
     <row r="4" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <v>3</v>
       </c>
       <c r="L4" s="20" t="s">
@@ -31813,7 +32601,7 @@
       </c>
     </row>
     <row r="5" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <v>4</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -31824,12 +32612,12 @@
       </c>
     </row>
     <row r="6" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="50">
+      <c r="I6" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="50">
+      <c r="I7" s="49">
         <v>2</v>
       </c>
     </row>
@@ -31888,12 +32676,12 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="49">
+      <c r="I26" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="49">
+      <c r="I27" s="48">
         <v>4</v>
       </c>
     </row>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF3290-1284-404B-80FF-68A8D3F9F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FE9F2C-1E57-4E83-A379-7A10CDF780AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
@@ -988,6 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,7 +1010,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24576,8 +24576,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4857750" y="38099"/>
-              <a:ext cx="2752725" cy="1957387"/>
+              <a:off x="5038725" y="38099"/>
+              <a:ext cx="2752725" cy="1881187"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24596,7 +24596,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-AU" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -25241,7 +25241,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25251,7 +25251,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25308,7 +25308,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25318,7 +25318,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25375,7 +25375,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25385,7 +25385,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25442,7 +25442,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25452,7 +25452,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25509,7 +25509,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25519,7 +25519,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25576,7 +25576,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25586,7 +25586,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25648,7 +25648,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25742,7 +25742,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2CF1D5-5A48-4A6E-A918-23DCEFBC24A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26242,28 +26242,28 @@
       <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="3"/>
+    <col min="12" max="12" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="3" customWidth="1"/>
     <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="3"/>
-    <col min="19" max="19" width="15.28515625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="15" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1796875" style="3"/>
+    <col min="19" max="19" width="15.26953125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>70317</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -26291,7 +26291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -26305,7 +26305,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>-35.536999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -26333,7 +26333,7 @@
         <v>148.83799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>2</v>
@@ -26350,7 +26350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>4854.5852000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -26372,7 +26372,7 @@
         <v>1711.7556</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>1607.0690999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -26394,7 +26394,7 @@
         <v>2750.5120000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -26407,7 +26407,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="52" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -26422,7 +26422,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="51" t="s">
+      <c r="S14" s="52" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -26438,7 +26438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -26451,7 +26451,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -26464,7 +26464,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="51"/>
+      <c r="S15" s="52"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>6.1420815695822098E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -26491,7 +26491,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -26504,7 +26504,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="51"/>
+      <c r="S16" s="52"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>6.3188097282546499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -26531,7 +26531,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -26544,7 +26544,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="51"/>
+      <c r="S17" s="52"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -26558,7 +26558,7 @@
         <v>6.12550942620156E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -26571,7 +26571,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -26584,7 +26584,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="51"/>
+      <c r="S18" s="52"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>3.2088769938455601E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -26611,7 +26611,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -26624,7 +26624,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="51"/>
+      <c r="S19" s="52"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -26638,7 +26638,7 @@
         <v>5.5542939586383497E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -26651,7 +26651,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="52"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -26664,7 +26664,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="51"/>
+      <c r="S20" s="52"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -26678,7 +26678,7 @@
         <v>5.6048293230471002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -26691,7 +26691,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -26704,7 +26704,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="51"/>
+      <c r="S21" s="52"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>4.9652657350137797E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -26731,7 +26731,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -26744,7 +26744,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="51"/>
+      <c r="S22" s="52"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -26758,7 +26758,7 @@
         <v>6.01807832300374E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -26771,7 +26771,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="52"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -26784,7 +26784,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="51"/>
+      <c r="S23" s="52"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -26798,7 +26798,7 @@
         <v>7.7706160363348403E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -26811,7 +26811,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="52"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -26824,7 +26824,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="51"/>
+      <c r="S24" s="52"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -26838,7 +26838,7 @@
         <v>0.102873547765182</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -26851,7 +26851,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -26864,7 +26864,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="51"/>
+      <c r="S25" s="52"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>7.9403280861347098E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -26891,7 +26891,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -26904,7 +26904,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="51"/>
+      <c r="S26" s="52"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>7.7270355189961795E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>2025.8889999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -26945,7 +26945,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="52" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -26960,7 +26960,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="51" t="s">
+      <c r="S28" s="52" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -26976,7 +26976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -26989,7 +26989,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="52"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -27002,7 +27002,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="51"/>
+      <c r="S29" s="52"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>4.4849062502158303E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -27029,7 +27029,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -27042,7 +27042,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="51"/>
+      <c r="S30" s="52"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>5.2585054692211398E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -27069,7 +27069,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="52"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -27082,7 +27082,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="51"/>
+      <c r="S31" s="52"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>3.3840258592919503E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -27109,7 +27109,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -27122,7 +27122,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="51"/>
+      <c r="S32" s="52"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>4.3509566409018499E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -27149,7 +27149,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -27162,7 +27162,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="51"/>
+      <c r="S33" s="52"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -27176,7 +27176,7 @@
         <v>5.9723047807559701E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
@@ -27184,7 +27184,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -27197,7 +27197,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="51"/>
+      <c r="S34" s="52"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>6.0886377360380703E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -27224,7 +27224,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -27237,7 +27237,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="51"/>
+      <c r="S35" s="52"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>5.2467990050057797E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -27264,7 +27264,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -27277,7 +27277,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="51"/>
+      <c r="S36" s="52"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>6.4520612486696494E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -27304,7 +27304,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="52"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -27317,7 +27317,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="51"/>
+      <c r="S37" s="52"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>6.8529390364364007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -27344,7 +27344,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="51"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -27357,7 +27357,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="51"/>
+      <c r="S38" s="52"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -27371,7 +27371,7 @@
         <v>6.6835554521894699E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -27384,7 +27384,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="51"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -27397,7 +27397,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="51"/>
+      <c r="S39" s="52"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>7.47808141107945E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -27424,7 +27424,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="52"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -27437,7 +27437,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="51"/>
+      <c r="S40" s="52"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>5.5237993935485299E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>4145.701</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -27479,7 +27479,7 @@
         <v>3727.1819999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>2138.33</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>3041.9250000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>2488.364</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
@@ -27530,8 +27530,8 @@
         <v>30201.999</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>16.194122807017543</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -27584,7 +27584,7 @@
         <v>25.130130952380956</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -27602,7 +27602,7 @@
         <v>16.125535714285714</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>7.749438271604939</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>21.138916666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>13.705170833333334</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>13.16643137254902</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -27692,7 +27692,7 @@
         <v>5.6702184210526321</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -27705,15 +27705,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="E58" s="14">
         <f>AVERAGE(E49:E56)</f>
         <v>14.859995629861354</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>43</v>
       </c>
@@ -27730,7 +27730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>3.5458333333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>3.2425244444444443</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -27784,7 +27784,7 @@
         <v>3.6312500000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>3.5125410256410259</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -27820,7 +27820,7 @@
         <v>3.184848484848485</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -27838,7 +27838,7 @@
         <v>1.6859947368421053</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>2.9708523809523806</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>4.4010805555555548</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>13</v>
       </c>
@@ -27892,7 +27892,7 @@
         <v>3.3075798245614032</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>14</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>3.8835045454545449</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>2.7715022727272727</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -27946,7 +27946,7 @@
         <v>3.6422655555555559</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>19</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>4.3177861111111104</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
@@ -27982,7 +27982,7 @@
         <v>3.4313019607843134</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>4.1276366666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
@@ -28018,7 +28018,7 @@
         <v>4.0862255555555551</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>3.0124801587301584</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>24</v>
       </c>
@@ -28054,7 +28054,7 @@
         <v>4.4034666666666675</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>25</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>3.6112205882352941</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>52</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>2.8244489583333334</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="2" t="s">
         <v>56</v>
       </c>
@@ -28102,14 +28102,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E83" s="14">
         <f>AVERAGE(E62:E81)</f>
         <v>3.4797171912999603</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -28125,8 +28125,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="52"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -28140,8 +28140,8 @@
         <v>2.0126088797509298E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="52"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -28155,8 +28155,8 @@
         <v>0.247183014901495</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="52"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -28170,8 +28170,8 @@
         <v>0.19397772412466199</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="52"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -28185,8 +28185,8 @@
         <v>0.222115613516532</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="52"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -28200,8 +28200,8 @@
         <v>0.108967584719164</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="52"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -28215,8 +28215,8 @@
         <v>4.0976784157789298E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="52"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -28230,8 +28230,8 @@
         <v>0.110207501118916</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="52"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -28245,8 +28245,8 @@
         <v>5.8025725529514599E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="52"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -28260,8 +28260,8 @@
         <v>7.4423204799198797E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="52"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -28275,8 +28275,8 @@
         <v>0.23763216074459201</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="52"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -28290,8 +28290,8 @@
         <v>0.25297020591529301</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="52"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -28305,8 +28305,8 @@
         <v>0.16891964148408001</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>43</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -28341,7 +28341,7 @@
         <v>0.71228018018018013</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>0.864595</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -28377,7 +28377,7 @@
         <v>1.4323571428571429</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>8</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>1.8050916666666668</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>0.86293333333333322</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>10</v>
       </c>
@@ -28431,7 +28431,7 @@
         <v>1.184149358974359</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>0.76857666666666669</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -28467,7 +28467,7 @@
         <v>1.1367584848484849</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>13</v>
       </c>
@@ -28485,7 +28485,7 @@
         <v>1.3290108333333335</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>14</v>
       </c>
@@ -28503,7 +28503,7 @@
         <v>1.0964750000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>15</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>1.4831361666666667</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -28539,7 +28539,7 @@
         <v>0.84042249999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>19</v>
       </c>
@@ -28557,7 +28557,7 @@
         <v>0.92922466666666659</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>20</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>1.3310275</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>21</v>
       </c>
@@ -28593,7 +28593,7 @@
         <v>1.3572238888888888</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>22</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>1.8734833333333332</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>1.509492222222222</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>24</v>
       </c>
@@ -28647,7 +28647,7 @@
         <v>1.2018966666666666</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>25</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>0.80816648148148151</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>52</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>1.0998154545454544</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C141" s="2" t="s">
         <v>56</v>
       </c>
@@ -28695,14 +28695,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E142" s="14">
         <f>AVERAGE(E121:E140)</f>
         <v>1.1813058273665773</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="51" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -28718,8 +28718,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="52"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -28733,8 +28733,8 @@
         <v>2.14827235214024</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="52"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -28748,8 +28748,8 @@
         <v>0.47706919329765701</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="52"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -28763,8 +28763,8 @@
         <v>2.1946445976454898</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="52"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -28778,8 +28778,8 @@
         <v>1.66096526560503</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="52"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -28793,8 +28793,8 @@
         <v>6.2175403610689302E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="52"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -28808,8 +28808,8 @@
         <v>0.33537622129716799</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="52"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -28823,8 +28823,8 @@
         <v>2.3913450353595902</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="52"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -28838,8 +28838,8 @@
         <v>0.151032639300058</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="52"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -28853,8 +28853,8 @@
         <v>0.51783621486628495</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="52"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -28868,8 +28868,8 @@
         <v>1.73707192286578</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="52"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -28883,8 +28883,8 @@
         <v>0.15438498259834099</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="52"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -28898,8 +28898,8 @@
         <v>2.4629029508441902</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="51" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -28915,8 +28915,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="52"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -28931,8 +28931,8 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="52"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -28946,8 +28946,8 @@
         <v>5.3681764227666198E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="52"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -28961,8 +28961,8 @@
         <v>3.4197273610095398E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="52"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -28976,8 +28976,8 @@
         <v>4.2982326668253398E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="52"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -28991,8 +28991,8 @@
         <v>5.9210456676542803E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="52"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -29006,8 +29006,8 @@
         <v>7.8598162541043797</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="52"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -29021,8 +29021,8 @@
         <v>4.6097902792387</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="52"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -29036,8 +29036,8 @@
         <v>0.28863674895972902</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="52"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -29051,8 +29051,8 @@
         <v>6.7854780313007207E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="52"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -29066,8 +29066,8 @@
         <v>6.59179939282937E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="52"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -29081,8 +29081,8 @@
         <v>7.2744489854828703E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="52"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -29145,16 +29145,16 @@
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -29184,7 +29184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -29202,7 +29202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -29216,7 +29216,7 @@
         <v>65.8964</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -29230,7 +29230,7 @@
         <v>67.189400000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>67.7727</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -29258,7 +29258,7 @@
         <v>93.167699999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -29288,11 +29288,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="54">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -29311,9 +29311,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -29330,9 +29330,9 @@
         <v>2.4169999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="52"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="54"/>
+      <c r="B16" s="53"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -29349,9 +29349,9 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="54"/>
+      <c r="B17" s="53"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -29368,9 +29368,9 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="54"/>
+      <c r="B18" s="53"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -29387,9 +29387,9 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="52"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="54"/>
+      <c r="B19" s="53"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -29406,9 +29406,9 @@
         <v>2.484</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="54"/>
+      <c r="B20" s="53"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -29425,9 +29425,9 @@
         <v>11.951000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="54"/>
+      <c r="B21" s="53"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -29444,11 +29444,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="54">
         <v>2</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -29461,9 +29461,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="52"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="54"/>
+      <c r="B28" s="53"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -29474,9 +29474,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="52"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="54"/>
+      <c r="B29" s="53"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -29487,9 +29487,9 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="52"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="54"/>
+      <c r="B30" s="53"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -29500,9 +29500,9 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="52"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="54"/>
+      <c r="B31" s="53"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -29513,9 +29513,9 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="52"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="54"/>
+      <c r="B32" s="53"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -29526,9 +29526,9 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="52"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="54"/>
+      <c r="B33" s="53"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -29539,9 +29539,9 @@
         <v>7.2969999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="52"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="54"/>
+      <c r="B34" s="53"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -29552,11 +29552,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="55">
         <v>3</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -29569,9 +29569,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="52"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="55"/>
+      <c r="B42" s="53"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -29582,9 +29582,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="52"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="55"/>
+      <c r="B43" s="53"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -29595,9 +29595,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="52"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="55"/>
+      <c r="B44" s="53"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -29608,9 +29608,9 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="52"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="55"/>
+      <c r="B45" s="53"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -29621,9 +29621,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="52"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="55"/>
+      <c r="B46" s="53"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -29634,9 +29634,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="52"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="55"/>
+      <c r="B47" s="53"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -29647,9 +29647,9 @@
         <v>964.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="52"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="55"/>
+      <c r="B48" s="53"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -29660,11 +29660,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="54">
         <v>4</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="53" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -29686,9 +29686,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="52"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="54"/>
+      <c r="B57" s="53"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -29708,9 +29708,9 @@
         <v>9.89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="52"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="54"/>
+      <c r="B58" s="53"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -29730,9 +29730,9 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="52"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="54"/>
+      <c r="B59" s="53"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -29752,9 +29752,9 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="52"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="54"/>
+      <c r="B60" s="53"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -29774,9 +29774,9 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="52"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="54"/>
+      <c r="B61" s="53"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -29796,9 +29796,9 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="52"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="54"/>
+      <c r="B62" s="53"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -29818,9 +29818,9 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="54"/>
+      <c r="B63" s="53"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -29913,23 +29913,23 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="19" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="19"/>
-    <col min="5" max="5" width="12.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.140625" style="19"/>
-    <col min="15" max="15" width="13.42578125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="19"/>
-    <col min="17" max="17" width="54.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="19"/>
+    <col min="2" max="4" width="9.1796875" style="19"/>
+    <col min="5" max="5" width="12.81640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.1796875" style="19"/>
+    <col min="15" max="15" width="13.453125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="19"/>
+    <col min="17" max="17" width="54.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>148</v>
       </c>
@@ -29979,7 +29979,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -30028,7 +30028,7 @@
       </c>
       <c r="P2" s="32"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -30077,7 +30077,7 @@
       </c>
       <c r="P3" s="32"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="P4" s="32"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -30178,7 +30178,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -30230,7 +30230,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -30282,7 +30282,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -30334,7 +30334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -30383,7 +30383,7 @@
       </c>
       <c r="P9" s="32"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -30432,7 +30432,7 @@
       </c>
       <c r="P10" s="32"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -30481,7 +30481,7 @@
       </c>
       <c r="P11" s="32"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -30533,7 +30533,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -30582,7 +30582,7 @@
       </c>
       <c r="P13" s="32"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -30631,7 +30631,7 @@
       </c>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -30680,7 +30680,7 @@
       </c>
       <c r="P15" s="32"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -30729,7 +30729,7 @@
       </c>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -30781,7 +30781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -30833,7 +30833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -30882,7 +30882,7 @@
       </c>
       <c r="P19" s="32"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -31038,7 +31038,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -31090,7 +31090,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -31139,7 +31139,7 @@
       </c>
       <c r="P24" s="32"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -31191,7 +31191,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -31243,19 +31243,19 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N28" s="32"/>
       <c r="O28" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N29" s="33"/>
       <c r="O29" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N30" s="34"/>
       <c r="O30" s="19" t="s">
         <v>149</v>
@@ -31273,39 +31273,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831A70-99DE-4B29-A3BA-902780D4E7B1}">
   <dimension ref="D9:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E9" s="24"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E10" s="24"/>
       <c r="F10" s="25">
         <v>1</v>
@@ -31344,7 +31344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E11" s="26"/>
       <c r="F11" s="27" t="s">
         <v>104</v>
@@ -31383,12 +31383,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E12" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F12" s="45"/>
-      <c r="G12" s="58"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="24"/>
       <c r="I12" s="37"/>
       <c r="J12" s="41"/>
@@ -31400,12 +31400,12 @@
       <c r="P12" s="24"/>
       <c r="Q12" s="37"/>
     </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E13" s="26" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="45"/>
-      <c r="G13" s="58"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="24"/>
       <c r="I13" s="37"/>
       <c r="J13" s="41"/>
@@ -31417,7 +31417,7 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="37"/>
     </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E14" s="26" t="s">
         <v>96</v>
       </c>
@@ -31434,7 +31434,7 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="37"/>
     </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E15" s="26" t="s">
         <v>97</v>
       </c>
@@ -31451,7 +31451,7 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="37"/>
     </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E16" s="26" t="s">
         <v>98</v>
       </c>
@@ -31468,7 +31468,7 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="37"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E17" s="26" t="s">
         <v>116</v>
       </c>
@@ -31485,7 +31485,7 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="37"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E18" s="26" t="s">
         <v>99</v>
       </c>
@@ -31502,12 +31502,12 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E19" s="26" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="45"/>
-      <c r="G19" s="58"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="24"/>
       <c r="I19" s="38"/>
       <c r="J19" s="43"/>
@@ -31519,12 +31519,12 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E20" s="26" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="45"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="24"/>
       <c r="I20" s="38"/>
       <c r="J20" s="43"/>
@@ -31536,12 +31536,12 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E21" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F21" s="45"/>
-      <c r="G21" s="58"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="28"/>
       <c r="I21" s="37"/>
       <c r="J21" s="41"/>
@@ -31553,12 +31553,12 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
       <c r="E22" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="45"/>
-      <c r="G22" s="58"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="24"/>
       <c r="I22" s="37"/>
       <c r="J22" s="41"/>
@@ -31570,37 +31570,37 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D24" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>154</v>
       </c>
@@ -31633,7 +31633,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31655,7 +31655,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31677,7 +31677,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31699,7 +31699,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31721,7 +31721,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31743,7 +31743,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31760,23 +31760,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805B967-ED47-4C82-898E-26B42A805891}">
   <dimension ref="I1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="Q3:R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K1" s="20"/>
       <c r="L1" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K2" s="48">
         <v>1</v>
       </c>
@@ -31784,7 +31784,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K3" s="48">
         <v>2</v>
       </c>
@@ -31798,7 +31798,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K4" s="49">
         <v>3</v>
       </c>
@@ -31812,7 +31812,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K5" s="49">
         <v>4</v>
       </c>
@@ -31823,76 +31823,76 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I6" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I7" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="49">
         <v>4</v>
       </c>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FE9F2C-1E57-4E83-A379-7A10CDF780AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821B06B-D7B2-4D2F-9D23-C348053FCC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="458" activeTab="3" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" r:id="rId2"/>
     <sheet name="CachmentInfo" sheetId="4" r:id="rId3"/>
     <sheet name="timeline" sheetId="3" r:id="rId4"/>
-    <sheet name="Monthly Optim" sheetId="5" r:id="rId5"/>
+    <sheet name="Outline Map" sheetId="6" r:id="rId5"/>
+    <sheet name="Monthly Optim" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Benchmark!$E$2:$E$7</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
   <si>
     <t>with occurrence parameter only</t>
   </si>
@@ -593,6 +594,15 @@
   <si>
     <t>H = high(prob&lt;0.05); M = high(0.05&lt;prob&lt;0.5); L = low(prob&gt;0.5)</t>
   </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Gantt chart</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +668,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70330A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,7 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,7 +987,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -988,7 +1025,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,6 +1044,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1068,6 +1112,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF70330A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -23653,24 +23702,48 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24576,8 +24649,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5038725" y="38099"/>
-              <a:ext cx="2752725" cy="1881187"/>
+              <a:off x="4857750" y="38099"/>
+              <a:ext cx="2752725" cy="1957387"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24596,7 +24669,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-AU" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -25228,6 +25301,55 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256368</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A70C44-CA6C-462D-B181-F2A131176B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="6096000"/>
+          <a:ext cx="6457143" cy="3571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -25241,7 +25363,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25308,7 +25430,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25375,7 +25497,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25442,7 +25564,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25509,7 +25631,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25569,14 +25691,14 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25632,16 +25754,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648757</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25656,8 +25778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4466167" y="4381501"/>
-          <a:ext cx="4712758" cy="1608666"/>
+          <a:off x="5397499" y="4773083"/>
+          <a:ext cx="5241925" cy="2603500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25693,7 +25815,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-            <a:t>Coding Plan:</a:t>
+            <a:t>Coding and simulation plan:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -25717,32 +25839,459 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-            <a:t>4. which combination for current OFs, other OFs?</a:t>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>which combination for current OFs, other OFs?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Run on other sites</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Run with synthetic data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Testing the procedure on one single month at a time (12 FDC plot)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3080" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8F6286-70A7-45CE-A2D7-6F674467ACD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3081" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04AD974-13D8-4EDA-A737-D39FD4228091}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3082" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB835BAD-187D-40DA-9867-A33A6562BD2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3083" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5A2EF-B9B8-4EEE-B74B-7BFE2E4E6D87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3084" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C023348A-7488-476C-9E50-3C5D7687CCE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3085" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAAD3A0-594F-4779-9743-157CA8B3A882}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>613832</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539749</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C711D3E-0894-424B-87AD-A13A40400058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25765,8 +26314,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1841499" y="6148916"/>
-          <a:ext cx="12371917" cy="9115425"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12546542" cy="9115425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962A3188-9B6D-4128-B35B-92C239CB10AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9525000"/>
+          <a:ext cx="13201650" cy="7229475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25788,7 +26398,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26242,28 +26852,28 @@
       <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="3"/>
-    <col min="12" max="12" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="3" customWidth="1"/>
     <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1796875" style="3"/>
-    <col min="19" max="19" width="15.26953125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="3"/>
+    <col min="15" max="15" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="15.28515625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -26277,7 +26887,7 @@
         <v>70317</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -26291,7 +26901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -26305,7 +26915,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -26319,7 +26929,7 @@
         <v>-35.536999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -26333,7 +26943,7 @@
         <v>148.83799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -26341,7 +26951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>2</v>
@@ -26350,7 +26960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -26361,7 +26971,7 @@
         <v>4854.5852000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -26372,7 +26982,7 @@
         <v>1711.7556</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -26383,7 +26993,7 @@
         <v>1607.0690999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -26394,7 +27004,7 @@
         <v>2750.5120000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -26407,7 +27017,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="52" t="s">
+      <c r="M14" s="50" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -26422,7 +27032,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="50" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -26438,7 +27048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -26451,7 +27061,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="52"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -26464,7 +27074,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="52"/>
+      <c r="S15" s="50"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -26478,7 +27088,7 @@
         <v>6.1420815695822098E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -26491,7 +27101,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="52"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -26504,7 +27114,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="52"/>
+      <c r="S16" s="50"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -26518,7 +27128,7 @@
         <v>6.3188097282546499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -26531,7 +27141,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -26544,7 +27154,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="52"/>
+      <c r="S17" s="50"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -26558,7 +27168,7 @@
         <v>6.12550942620156E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -26571,7 +27181,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -26584,7 +27194,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="52"/>
+      <c r="S18" s="50"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -26598,7 +27208,7 @@
         <v>3.2088769938455601E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -26611,7 +27221,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="52"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -26624,7 +27234,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="52"/>
+      <c r="S19" s="50"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -26638,7 +27248,7 @@
         <v>5.5542939586383497E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -26651,7 +27261,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="52"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -26664,7 +27274,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="52"/>
+      <c r="S20" s="50"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -26678,7 +27288,7 @@
         <v>5.6048293230471002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -26691,7 +27301,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -26704,7 +27314,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="52"/>
+      <c r="S21" s="50"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -26718,7 +27328,7 @@
         <v>4.9652657350137797E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -26731,7 +27341,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="52"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -26744,7 +27354,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="52"/>
+      <c r="S22" s="50"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -26758,7 +27368,7 @@
         <v>6.01807832300374E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -26771,7 +27381,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="52"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -26784,7 +27394,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="52"/>
+      <c r="S23" s="50"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -26798,7 +27408,7 @@
         <v>7.7706160363348403E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -26811,7 +27421,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="52"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -26824,7 +27434,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="52"/>
+      <c r="S24" s="50"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -26838,7 +27448,7 @@
         <v>0.102873547765182</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -26851,7 +27461,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="52"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -26864,7 +27474,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="52"/>
+      <c r="S25" s="50"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -26878,7 +27488,7 @@
         <v>7.9403280861347098E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -26891,7 +27501,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="52"/>
+      <c r="M26" s="50"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -26904,7 +27514,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="52"/>
+      <c r="S26" s="50"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -26918,7 +27528,7 @@
         <v>7.7270355189961795E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -26932,7 +27542,7 @@
         <v>2025.8889999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -26945,7 +27555,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="M28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -26960,7 +27570,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="52" t="s">
+      <c r="S28" s="50" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -26976,7 +27586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -26989,7 +27599,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="52"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -27002,7 +27612,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="52"/>
+      <c r="S29" s="50"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -27016,7 +27626,7 @@
         <v>4.4849062502158303E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -27029,7 +27639,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="52"/>
+      <c r="M30" s="50"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -27042,7 +27652,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="52"/>
+      <c r="S30" s="50"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -27056,7 +27666,7 @@
         <v>5.2585054692211398E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -27069,7 +27679,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="52"/>
+      <c r="M31" s="50"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -27082,7 +27692,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="52"/>
+      <c r="S31" s="50"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -27096,7 +27706,7 @@
         <v>3.3840258592919503E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -27109,7 +27719,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="52"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -27122,7 +27732,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="52"/>
+      <c r="S32" s="50"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -27136,7 +27746,7 @@
         <v>4.3509566409018499E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -27149,7 +27759,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="52"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -27162,7 +27772,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="52"/>
+      <c r="S33" s="50"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -27176,7 +27786,7 @@
         <v>5.9723047807559701E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
@@ -27184,7 +27794,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="52"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -27197,7 +27807,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="52"/>
+      <c r="S34" s="50"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -27211,7 +27821,7 @@
         <v>6.0886377360380703E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -27224,7 +27834,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="52"/>
+      <c r="M35" s="50"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -27237,7 +27847,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="52"/>
+      <c r="S35" s="50"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -27251,7 +27861,7 @@
         <v>5.2467990050057797E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -27264,7 +27874,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="52"/>
+      <c r="M36" s="50"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -27277,7 +27887,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="52"/>
+      <c r="S36" s="50"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -27291,7 +27901,7 @@
         <v>6.4520612486696494E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -27304,7 +27914,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="52"/>
+      <c r="M37" s="50"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -27317,7 +27927,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="52"/>
+      <c r="S37" s="50"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -27331,7 +27941,7 @@
         <v>6.8529390364364007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -27344,7 +27954,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="52"/>
+      <c r="M38" s="50"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -27357,7 +27967,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="52"/>
+      <c r="S38" s="50"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -27371,7 +27981,7 @@
         <v>6.6835554521894699E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -27384,7 +27994,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="52"/>
+      <c r="M39" s="50"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -27397,7 +28007,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="52"/>
+      <c r="S39" s="50"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -27411,7 +28021,7 @@
         <v>7.47808141107945E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -27424,7 +28034,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="52"/>
+      <c r="M40" s="50"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -27437,7 +28047,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="52"/>
+      <c r="S40" s="50"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -27451,7 +28061,7 @@
         <v>5.5237993935485299E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -27465,7 +28075,7 @@
         <v>4145.701</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -27479,7 +28089,7 @@
         <v>3727.1819999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -27493,7 +28103,7 @@
         <v>2138.33</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -27507,7 +28117,7 @@
         <v>3041.9250000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -27521,7 +28131,7 @@
         <v>2488.364</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
@@ -27530,8 +28140,8 @@
         <v>30201.999</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -27548,7 +28158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -27566,7 +28176,7 @@
         <v>16.194122807017543</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -27584,7 +28194,7 @@
         <v>25.130130952380956</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -27602,7 +28212,7 @@
         <v>16.125535714285714</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -27620,7 +28230,7 @@
         <v>7.749438271604939</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -27638,7 +28248,7 @@
         <v>21.138916666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -27656,7 +28266,7 @@
         <v>13.705170833333334</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -27674,7 +28284,7 @@
         <v>13.16643137254902</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -27692,7 +28302,7 @@
         <v>5.6702184210526321</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -27705,15 +28315,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="E58" s="14">
         <f>AVERAGE(E49:E56)</f>
         <v>14.859995629861354</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>43</v>
       </c>
@@ -27730,7 +28340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -27748,7 +28358,7 @@
         <v>3.5458333333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -27766,7 +28376,7 @@
         <v>3.2425244444444443</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -27784,7 +28394,7 @@
         <v>3.6312500000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -27802,7 +28412,7 @@
         <v>3.5125410256410259</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -27820,7 +28430,7 @@
         <v>3.184848484848485</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -27838,7 +28448,7 @@
         <v>1.6859947368421053</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -27856,7 +28466,7 @@
         <v>2.9708523809523806</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -27874,7 +28484,7 @@
         <v>4.4010805555555548</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>13</v>
       </c>
@@ -27892,7 +28502,7 @@
         <v>3.3075798245614032</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>14</v>
       </c>
@@ -27910,7 +28520,7 @@
         <v>3.8835045454545449</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -27928,7 +28538,7 @@
         <v>2.7715022727272727</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -27946,7 +28556,7 @@
         <v>3.6422655555555559</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>19</v>
       </c>
@@ -27964,7 +28574,7 @@
         <v>4.3177861111111104</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
@@ -27982,7 +28592,7 @@
         <v>3.4313019607843134</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
@@ -28000,7 +28610,7 @@
         <v>4.1276366666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
@@ -28018,7 +28628,7 @@
         <v>4.0862255555555551</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -28036,7 +28646,7 @@
         <v>3.0124801587301584</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>24</v>
       </c>
@@ -28054,7 +28664,7 @@
         <v>4.4034666666666675</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>25</v>
       </c>
@@ -28072,7 +28682,7 @@
         <v>3.6112205882352941</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>52</v>
       </c>
@@ -28090,7 +28700,7 @@
         <v>2.8244489583333334</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
         <v>56</v>
       </c>
@@ -28102,14 +28712,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83" s="14">
         <f>AVERAGE(E62:E81)</f>
         <v>3.4797171912999603</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="52" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -28125,8 +28735,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="52"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -28140,8 +28750,8 @@
         <v>2.0126088797509298E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="52"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -28155,8 +28765,8 @@
         <v>0.247183014901495</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="52"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -28170,8 +28780,8 @@
         <v>0.19397772412466199</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="52"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="50"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -28185,8 +28795,8 @@
         <v>0.222115613516532</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="52"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="50"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -28200,8 +28810,8 @@
         <v>0.108967584719164</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="52"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="50"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -28215,8 +28825,8 @@
         <v>4.0976784157789298E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="52"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="50"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -28230,8 +28840,8 @@
         <v>0.110207501118916</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="52"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -28245,8 +28855,8 @@
         <v>5.8025725529514599E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="52"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="50"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -28260,8 +28870,8 @@
         <v>7.4423204799198797E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="52"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="50"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -28275,8 +28885,8 @@
         <v>0.23763216074459201</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="52"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="50"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -28290,8 +28900,8 @@
         <v>0.25297020591529301</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="52"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="50"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -28305,8 +28915,8 @@
         <v>0.16891964148408001</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>43</v>
       </c>
@@ -28323,7 +28933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -28341,7 +28951,7 @@
         <v>0.71228018018018013</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -28359,7 +28969,7 @@
         <v>0.864595</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -28377,7 +28987,7 @@
         <v>1.4323571428571429</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>8</v>
       </c>
@@ -28395,7 +29005,7 @@
         <v>1.8050916666666668</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
@@ -28413,7 +29023,7 @@
         <v>0.86293333333333322</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>10</v>
       </c>
@@ -28431,7 +29041,7 @@
         <v>1.184149358974359</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>11</v>
       </c>
@@ -28449,7 +29059,7 @@
         <v>0.76857666666666669</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -28467,7 +29077,7 @@
         <v>1.1367584848484849</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>13</v>
       </c>
@@ -28485,7 +29095,7 @@
         <v>1.3290108333333335</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>14</v>
       </c>
@@ -28503,7 +29113,7 @@
         <v>1.0964750000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>15</v>
       </c>
@@ -28521,7 +29131,7 @@
         <v>1.4831361666666667</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -28539,7 +29149,7 @@
         <v>0.84042249999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>19</v>
       </c>
@@ -28557,7 +29167,7 @@
         <v>0.92922466666666659</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>20</v>
       </c>
@@ -28575,7 +29185,7 @@
         <v>1.3310275</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>21</v>
       </c>
@@ -28593,7 +29203,7 @@
         <v>1.3572238888888888</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>22</v>
       </c>
@@ -28611,7 +29221,7 @@
         <v>1.8734833333333332</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -28629,7 +29239,7 @@
         <v>1.509492222222222</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>24</v>
       </c>
@@ -28647,7 +29257,7 @@
         <v>1.2018966666666666</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>25</v>
       </c>
@@ -28665,7 +29275,7 @@
         <v>0.80816648148148151</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>52</v>
       </c>
@@ -28683,7 +29293,7 @@
         <v>1.0998154545454544</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C141" s="2" t="s">
         <v>56</v>
       </c>
@@ -28695,14 +29305,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E142" s="14">
         <f>AVERAGE(E121:E140)</f>
         <v>1.1813058273665773</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="52" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -28718,8 +29328,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="52"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="50"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -28733,8 +29343,8 @@
         <v>2.14827235214024</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="52"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="50"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -28748,8 +29358,8 @@
         <v>0.47706919329765701</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="52"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="50"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -28763,8 +29373,8 @@
         <v>2.1946445976454898</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="52"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="50"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -28778,8 +29388,8 @@
         <v>1.66096526560503</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="52"/>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="50"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -28793,8 +29403,8 @@
         <v>6.2175403610689302E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="52"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="50"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -28808,8 +29418,8 @@
         <v>0.33537622129716799</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="52"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="50"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -28823,8 +29433,8 @@
         <v>2.3913450353595902</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="52"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="50"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -28838,8 +29448,8 @@
         <v>0.151032639300058</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="52"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="50"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -28853,8 +29463,8 @@
         <v>0.51783621486628495</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="52"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="50"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -28868,8 +29478,8 @@
         <v>1.73707192286578</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="52"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="50"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -28883,8 +29493,8 @@
         <v>0.15438498259834099</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="52"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="50"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -28898,8 +29508,8 @@
         <v>2.4629029508441902</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="52" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -28915,8 +29525,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="52"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="50"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -28931,8 +29541,8 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="52"/>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="50"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -28946,8 +29556,8 @@
         <v>5.3681764227666198E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="52"/>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="50"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -28961,8 +29571,8 @@
         <v>3.4197273610095398E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="52"/>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="50"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -28976,8 +29586,8 @@
         <v>4.2982326668253398E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="52"/>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="50"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -28991,8 +29601,8 @@
         <v>5.9210456676542803E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="52"/>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="50"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -29006,8 +29616,8 @@
         <v>7.8598162541043797</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="52"/>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="50"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -29021,8 +29631,8 @@
         <v>4.6097902792387</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="52"/>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="50"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -29036,8 +29646,8 @@
         <v>0.28863674895972902</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="52"/>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="50"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -29051,8 +29661,8 @@
         <v>6.7854780313007207E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="52"/>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="50"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -29066,8 +29676,8 @@
         <v>6.59179939282937E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="52"/>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="50"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -29081,8 +29691,8 @@
         <v>7.2744489854828703E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="52"/>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="50"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -29145,16 +29755,16 @@
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
@@ -29166,7 +29776,7 @@
       </c>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -29184,7 +29794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -29202,7 +29812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -29216,7 +29826,7 @@
         <v>65.8964</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -29230,7 +29840,7 @@
         <v>67.189400000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -29244,7 +29854,7 @@
         <v>67.7727</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -29258,7 +29868,7 @@
         <v>93.167699999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -29272,7 +29882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -29280,7 +29890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -29288,11 +29898,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="54">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
         <v>1</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="51" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -29311,9 +29921,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="53"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="51"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -29330,9 +29940,9 @@
         <v>2.4169999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -29349,9 +29959,9 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="53"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -29368,9 +29978,9 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="53"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -29387,9 +29997,9 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="53"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="51"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -29406,9 +30016,9 @@
         <v>2.484</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="53"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -29425,9 +30035,9 @@
         <v>11.951000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="53"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="51"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -29444,11 +30054,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="54">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="52">
         <v>2</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -29461,9 +30071,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
-      <c r="B28" s="53"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -29474,9 +30084,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="53"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -29487,9 +30097,9 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
-      <c r="B30" s="53"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="51"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -29500,9 +30110,9 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="54"/>
-      <c r="B31" s="53"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="51"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -29513,9 +30123,9 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
-      <c r="B32" s="53"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -29526,9 +30136,9 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
-      <c r="B33" s="53"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="51"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -29539,9 +30149,9 @@
         <v>7.2969999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
-      <c r="B34" s="53"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -29552,11 +30162,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="55">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
         <v>3</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="51" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -29569,9 +30179,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="55"/>
-      <c r="B42" s="53"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="51"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -29582,9 +30192,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="55"/>
-      <c r="B43" s="53"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="51"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -29595,9 +30205,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="55"/>
-      <c r="B44" s="53"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="51"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -29608,9 +30218,9 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
-      <c r="B45" s="53"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="51"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -29621,9 +30231,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="55"/>
-      <c r="B46" s="53"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="51"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -29634,9 +30244,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="55"/>
-      <c r="B47" s="53"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="51"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -29647,9 +30257,9 @@
         <v>964.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="55"/>
-      <c r="B48" s="53"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="51"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -29660,11 +30270,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="54">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="52">
         <v>4</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="51" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -29686,9 +30296,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="53"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="51"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -29708,9 +30318,9 @@
         <v>9.89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
-      <c r="B58" s="53"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="51"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -29730,9 +30340,9 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
-      <c r="B59" s="53"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="52"/>
+      <c r="B59" s="51"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -29752,9 +30362,9 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="54"/>
-      <c r="B60" s="53"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="52"/>
+      <c r="B60" s="51"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -29774,9 +30384,9 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="54"/>
-      <c r="B61" s="53"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="52"/>
+      <c r="B61" s="51"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -29796,9 +30406,9 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="54"/>
-      <c r="B62" s="53"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="52"/>
+      <c r="B62" s="51"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -29818,9 +30428,9 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="54"/>
-      <c r="B63" s="53"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
+      <c r="B63" s="51"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -29910,26 +30520,26 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="19" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875" style="19"/>
-    <col min="5" max="5" width="12.81640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.1796875" style="19"/>
-    <col min="15" max="15" width="13.453125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="19"/>
-    <col min="17" max="17" width="54.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="19"/>
+    <col min="2" max="4" width="9.140625" style="19"/>
+    <col min="5" max="5" width="12.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" style="19"/>
+    <col min="15" max="15" width="13.42578125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="19"/>
+    <col min="17" max="17" width="54.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>148</v>
       </c>
@@ -29979,7 +30589,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -29992,7 +30602,7 @@
       <c r="D2" s="19">
         <v>148.82</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="62" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="19">
@@ -30026,9 +30636,9 @@
       <c r="O2" s="19">
         <v>70317</v>
       </c>
-      <c r="P2" s="32"/>
+      <c r="P2" s="31"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -30041,7 +30651,7 @@
       <c r="D3" s="19">
         <v>150.03</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="62" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="19">
@@ -30075,9 +30685,9 @@
       <c r="O3" s="19">
         <v>69049</v>
       </c>
-      <c r="P3" s="32"/>
+      <c r="P3" s="31"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -30090,7 +30700,7 @@
       <c r="D4" s="19">
         <v>151.77000000000001</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="62" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="19">
@@ -30124,9 +30734,9 @@
       <c r="O4" s="19">
         <v>57037</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="31"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -30173,12 +30783,12 @@
       <c r="O5" s="19">
         <v>61317</v>
       </c>
-      <c r="P5" s="34"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -30225,12 +30835,12 @@
       <c r="O6" s="19">
         <v>14901</v>
       </c>
-      <c r="P6" s="34"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -30277,12 +30887,12 @@
       <c r="O7" s="19">
         <v>14092</v>
       </c>
-      <c r="P7" s="34"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -30329,12 +30939,12 @@
       <c r="O8" s="19">
         <v>29022</v>
       </c>
-      <c r="P8" s="34"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -30347,7 +30957,7 @@
       <c r="D9" s="19">
         <v>152.69</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F9" s="19">
@@ -30381,9 +30991,9 @@
       <c r="O9" s="19">
         <v>40004</v>
       </c>
-      <c r="P9" s="32"/>
+      <c r="P9" s="31"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -30396,7 +31006,7 @@
       <c r="D10" s="19">
         <v>152.04</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F10" s="19">
@@ -30430,9 +31040,9 @@
       <c r="O10" s="19">
         <v>40010</v>
       </c>
-      <c r="P10" s="32"/>
+      <c r="P10" s="31"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -30445,7 +31055,7 @@
       <c r="D11" s="19">
         <v>145.28</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F11" s="19">
@@ -30479,9 +31089,9 @@
       <c r="O11" s="19">
         <v>31102</v>
       </c>
-      <c r="P11" s="32"/>
+      <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -30528,12 +31138,12 @@
       <c r="O12" s="19">
         <v>31020</v>
       </c>
-      <c r="P12" s="34"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -30546,7 +31156,7 @@
       <c r="D13" s="19">
         <v>147.84</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="62" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="19">
@@ -30580,9 +31190,9 @@
       <c r="O13" s="19">
         <v>33150</v>
       </c>
-      <c r="P13" s="32"/>
+      <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -30595,7 +31205,7 @@
       <c r="D14" s="19">
         <v>146.13</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="19">
@@ -30629,9 +31239,9 @@
       <c r="O14" s="19">
         <v>83017</v>
       </c>
-      <c r="P14" s="32"/>
+      <c r="P14" s="31"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -30644,7 +31254,7 @@
       <c r="D15" s="19">
         <v>142.34</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="19">
@@ -30678,9 +31288,9 @@
       <c r="O15" s="19">
         <v>89011</v>
       </c>
-      <c r="P15" s="32"/>
+      <c r="P15" s="31"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -30693,7 +31303,7 @@
       <c r="D16" s="19">
         <v>146.82</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="19">
@@ -30727,9 +31337,9 @@
       <c r="O16" s="19">
         <v>83057</v>
       </c>
-      <c r="P16" s="32"/>
+      <c r="P16" s="31"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -30776,12 +31386,12 @@
       <c r="O17" s="19">
         <v>85093</v>
       </c>
-      <c r="P17" s="33"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -30828,12 +31438,12 @@
       <c r="O18" s="19">
         <v>95027</v>
       </c>
-      <c r="P18" s="33"/>
+      <c r="P18" s="32"/>
       <c r="Q18" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -30846,7 +31456,7 @@
       <c r="D19" s="19">
         <v>146.09</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="62" t="s">
         <v>139</v>
       </c>
       <c r="F19" s="19">
@@ -30880,9 +31490,9 @@
       <c r="O19" s="19">
         <v>91017</v>
       </c>
-      <c r="P19" s="32"/>
+      <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -30895,7 +31505,7 @@
       <c r="D20" s="19">
         <v>138.66999999999999</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="62" t="s">
         <v>141</v>
       </c>
       <c r="F20" s="19">
@@ -30929,12 +31539,12 @@
       <c r="O20" s="19">
         <v>23734</v>
       </c>
-      <c r="P20" s="32"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -30981,12 +31591,12 @@
       <c r="O21" s="19">
         <v>23039</v>
       </c>
-      <c r="P21" s="47"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -31033,12 +31643,12 @@
       <c r="O22" s="19">
         <v>19015</v>
       </c>
-      <c r="P22" s="33"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -31085,12 +31695,12 @@
       <c r="O23" s="19">
         <v>9007</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -31103,7 +31713,7 @@
       <c r="D24" s="19">
         <v>116.04</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F24" s="19">
@@ -31137,9 +31747,9 @@
       <c r="O24" s="19">
         <v>9580</v>
       </c>
-      <c r="P24" s="32"/>
+      <c r="P24" s="31"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -31186,12 +31796,12 @@
       <c r="O25" s="19">
         <v>9926</v>
       </c>
-      <c r="P25" s="34"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -31238,74 +31848,75 @@
       <c r="O26" s="19">
         <v>4079</v>
       </c>
-      <c r="P26" s="33"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N28" s="32"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N28" s="31"/>
       <c r="O28" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N29" s="33"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N29" s="32"/>
       <c r="O29" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N30" s="34"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N30" s="33"/>
       <c r="O30" s="19" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831A70-99DE-4B29-A3BA-902780D4E7B1}">
-  <dimension ref="D9:Q31"/>
+  <dimension ref="D9:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="24"/>
       <c r="F10" s="25">
         <v>1</v>
@@ -31316,10 +31927,10 @@
       <c r="H10" s="25">
         <v>3</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>4</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
       <c r="K10" s="25">
@@ -31328,10 +31939,10 @@
       <c r="L10" s="25">
         <v>3</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>4</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="38">
         <v>1</v>
       </c>
       <c r="O10" s="25">
@@ -31340,11 +31951,11 @@
       <c r="P10" s="25">
         <v>3</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E11" s="26"/>
       <c r="F11" s="27" t="s">
         <v>104</v>
@@ -31355,10 +31966,10 @@
       <c r="H11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>108</v>
       </c>
       <c r="K11" s="27" t="s">
@@ -31367,10 +31978,10 @@
       <c r="L11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="39" t="s">
         <v>112</v>
       </c>
       <c r="O11" s="27" t="s">
@@ -31379,229 +31990,259 @@
       <c r="P11" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="41"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="44"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="36"/>
     </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="36"/>
     </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="41"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="36"/>
     </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="41"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="36"/>
     </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E16" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="36"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="41"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E18" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="43"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="29"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="36"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E19" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="29"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
-      <c r="Q19" s="37"/>
+      <c r="Q19" s="36"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="29"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="36"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="41"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="41"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="37"/>
+      <c r="Q21" s="36"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="24"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="36"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -31633,7 +32274,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31655,7 +32296,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31677,7 +32318,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31699,7 +32340,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31721,7 +32362,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31736,6 +32377,28 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3080" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -31743,7 +32406,117 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3081" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3082" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3083" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3084" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3085" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31757,35 +32530,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA305877-9FA6-41DC-87F4-6BA95E1ECA39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="Z67" sqref="Z67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805B967-ED47-4C82-898E-26B42A805891}">
   <dimension ref="I1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="Q3:R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K1" s="20"/>
       <c r="L1" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="9:14" x14ac:dyDescent="0.35">
-      <c r="K2" s="48">
+    <row r="2" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="47">
         <v>1</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.35">
-      <c r="K3" s="48">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="47">
         <v>2</v>
       </c>
       <c r="L3" s="20" t="s">
@@ -31798,8 +32586,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.35">
-      <c r="K4" s="49">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K4" s="48">
         <v>3</v>
       </c>
       <c r="L4" s="20" t="s">
@@ -31812,8 +32600,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.35">
-      <c r="K5" s="49">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K5" s="48">
         <v>4</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -31823,77 +32611,77 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.35">
-      <c r="I6" s="50">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.35">
-      <c r="I7" s="50">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I26" s="49">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="48">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I27" s="49">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="48">
         <v>4</v>
       </c>
     </row>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544620D0-56DD-4E91-8944-08CD17162E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DDD8F-876F-484E-B2B3-1A4D3B4005B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22785" windowHeight="14655" tabRatio="544" firstSheet="3" activeTab="8" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22785" windowHeight="14655" tabRatio="544" firstSheet="5" activeTab="6" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
@@ -1516,6 +1516,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1543,19 +1547,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9948,19 +9948,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10025,19 +10025,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10102,19 +10102,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34940,8 +34940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21336000" y="682625"/>
-          <a:ext cx="7209524" cy="5085714"/>
+          <a:off x="21545550" y="685800"/>
+          <a:ext cx="7279374" cy="5085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -35100,7 +35100,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEDCF87-CC4C-4BAE-9780-F2E387677B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35144,7 +35144,7 @@
         <xdr:cNvPr id="40" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF85F2F5-7BCB-4F35-A50A-446220DEBA4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35188,7 +35188,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B80037-34DC-4381-AF14-E2FAA4FD5921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35232,7 +35232,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F783561D-85C0-49EA-92CA-E52204BC0FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38178,7 +38178,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="83" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -38193,7 +38193,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="79" t="s">
+      <c r="S14" s="83" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -38222,7 +38222,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="79"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -38235,7 +38235,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="79"/>
+      <c r="S15" s="83"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -38262,7 +38262,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="79"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -38275,7 +38275,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="79"/>
+      <c r="S16" s="83"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -38302,7 +38302,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="79"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -38315,7 +38315,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="79"/>
+      <c r="S17" s="83"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -38342,7 +38342,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="79"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -38355,7 +38355,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="79"/>
+      <c r="S18" s="83"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -38382,7 +38382,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="79"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -38395,7 +38395,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="79"/>
+      <c r="S19" s="83"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -38422,7 +38422,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -38435,7 +38435,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="79"/>
+      <c r="S20" s="83"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -38462,7 +38462,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="79"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -38475,7 +38475,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="79"/>
+      <c r="S21" s="83"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -38502,7 +38502,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="79"/>
+      <c r="M22" s="83"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -38515,7 +38515,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="79"/>
+      <c r="S22" s="83"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -38542,7 +38542,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="79"/>
+      <c r="M23" s="83"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -38555,7 +38555,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="79"/>
+      <c r="S23" s="83"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -38582,7 +38582,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="79"/>
+      <c r="M24" s="83"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -38595,7 +38595,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="79"/>
+      <c r="S24" s="83"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -38622,7 +38622,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="79"/>
+      <c r="M25" s="83"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -38635,7 +38635,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="79"/>
+      <c r="S25" s="83"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -38662,7 +38662,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="79"/>
+      <c r="M26" s="83"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -38675,7 +38675,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="79"/>
+      <c r="S26" s="83"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -38716,7 +38716,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="79" t="s">
+      <c r="M28" s="83" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -38731,7 +38731,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="79" t="s">
+      <c r="S28" s="83" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -38760,7 +38760,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="79"/>
+      <c r="M29" s="83"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -38773,7 +38773,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="79"/>
+      <c r="S29" s="83"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -38800,7 +38800,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="79"/>
+      <c r="M30" s="83"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -38813,7 +38813,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="79"/>
+      <c r="S30" s="83"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -38840,7 +38840,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="79"/>
+      <c r="M31" s="83"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -38853,7 +38853,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="79"/>
+      <c r="S31" s="83"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -38880,7 +38880,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="79"/>
+      <c r="M32" s="83"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -38893,7 +38893,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="79"/>
+      <c r="S32" s="83"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -38920,7 +38920,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="79"/>
+      <c r="M33" s="83"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -38933,7 +38933,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="79"/>
+      <c r="S33" s="83"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -38955,7 +38955,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="79"/>
+      <c r="M34" s="83"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -38968,7 +38968,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="79"/>
+      <c r="S34" s="83"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -38995,7 +38995,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="79"/>
+      <c r="M35" s="83"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -39008,7 +39008,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="79"/>
+      <c r="S35" s="83"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -39035,7 +39035,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="79"/>
+      <c r="M36" s="83"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -39048,7 +39048,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="79"/>
+      <c r="S36" s="83"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -39075,7 +39075,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="79"/>
+      <c r="M37" s="83"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -39088,7 +39088,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="79"/>
+      <c r="S37" s="83"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -39115,7 +39115,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="79"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -39128,7 +39128,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="79"/>
+      <c r="S38" s="83"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -39155,7 +39155,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="79"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -39168,7 +39168,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="79"/>
+      <c r="S39" s="83"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -39195,7 +39195,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="79"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -39208,7 +39208,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="79"/>
+      <c r="S40" s="83"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -39880,7 +39880,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="79" t="s">
+      <c r="A87" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -39897,7 +39897,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
+      <c r="A88" s="83"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -39912,7 +39912,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="83"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -39927,7 +39927,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
+      <c r="A90" s="83"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -39942,7 +39942,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="79"/>
+      <c r="A91" s="83"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -39957,7 +39957,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
+      <c r="A92" s="83"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -39972,7 +39972,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
+      <c r="A93" s="83"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -39987,7 +39987,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
+      <c r="A94" s="83"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -40002,7 +40002,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
+      <c r="A95" s="83"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -40017,7 +40017,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
+      <c r="A96" s="83"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -40032,7 +40032,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
+      <c r="A97" s="83"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -40047,7 +40047,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="79"/>
+      <c r="A98" s="83"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -40062,7 +40062,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
+      <c r="A99" s="83"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -40473,7 +40473,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="79" t="s">
+      <c r="A145" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -40490,7 +40490,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="79"/>
+      <c r="A146" s="83"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -40505,7 +40505,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="79"/>
+      <c r="A147" s="83"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -40520,7 +40520,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="79"/>
+      <c r="A148" s="83"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -40535,7 +40535,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="79"/>
+      <c r="A149" s="83"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -40550,7 +40550,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="79"/>
+      <c r="A150" s="83"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -40565,7 +40565,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="79"/>
+      <c r="A151" s="83"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -40580,7 +40580,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="79"/>
+      <c r="A152" s="83"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -40595,7 +40595,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="79"/>
+      <c r="A153" s="83"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -40610,7 +40610,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="79"/>
+      <c r="A154" s="83"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -40625,7 +40625,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="79"/>
+      <c r="A155" s="83"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -40640,7 +40640,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="79"/>
+      <c r="A156" s="83"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -40655,7 +40655,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="79"/>
+      <c r="A157" s="83"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -40670,7 +40670,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="79" t="s">
+      <c r="A179" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -40687,7 +40687,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="79"/>
+      <c r="A180" s="83"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -40703,7 +40703,7 @@
       <c r="H180"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="79"/>
+      <c r="A181" s="83"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -40718,7 +40718,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="79"/>
+      <c r="A182" s="83"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -40733,7 +40733,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="79"/>
+      <c r="A183" s="83"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -40748,7 +40748,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="79"/>
+      <c r="A184" s="83"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -40763,7 +40763,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="79"/>
+      <c r="A185" s="83"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -40778,7 +40778,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="79"/>
+      <c r="A186" s="83"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -40793,7 +40793,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="79"/>
+      <c r="A187" s="83"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -40808,7 +40808,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="79"/>
+      <c r="A188" s="83"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -40823,7 +40823,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="79"/>
+      <c r="A189" s="83"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -40838,7 +40838,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="79"/>
+      <c r="A190" s="83"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -40853,7 +40853,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="79"/>
+      <c r="A191" s="83"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -41060,10 +41060,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="85">
         <v>1</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="84" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -41083,8 +41083,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="84"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -41102,8 +41102,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="84"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -41121,8 +41121,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="84"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -41140,8 +41140,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="84"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -41159,8 +41159,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="84"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -41178,8 +41178,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="84"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -41197,8 +41197,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -41216,10 +41216,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+      <c r="A27" s="85">
         <v>2</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="84" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -41233,8 +41233,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="84"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -41246,8 +41246,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="84"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -41259,8 +41259,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="84"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -41272,8 +41272,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="84"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -41285,8 +41285,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="84"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -41298,8 +41298,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="84"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -41311,8 +41311,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="84"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -41324,10 +41324,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="82">
+      <c r="A41" s="86">
         <v>3</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="84" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -41341,8 +41341,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="80"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="84"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -41354,8 +41354,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="80"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="84"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -41367,8 +41367,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="80"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="84"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -41380,8 +41380,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="80"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="84"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -41393,8 +41393,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="80"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="84"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -41406,8 +41406,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="80"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="84"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -41419,8 +41419,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="80"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="84"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -41432,10 +41432,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="81">
+      <c r="A56" s="85">
         <v>4</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="84" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -41458,8 +41458,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
-      <c r="B57" s="80"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="84"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -41480,8 +41480,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="80"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="84"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -41502,8 +41502,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="80"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="84"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -41524,8 +41524,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="80"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="84"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -41546,8 +41546,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="80"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="84"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -41568,8 +41568,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="80"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="84"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -41590,8 +41590,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="81"/>
-      <c r="B63" s="80"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="84"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -43936,24 +43936,24 @@
   <sheetData>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85" t="s">
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="84"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="88"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="24"/>
@@ -44179,7 +44179,7 @@
       <c r="I20" s="75"/>
       <c r="J20" s="76"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="92"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="32"/>
       <c r="N20" s="35"/>
       <c r="O20" s="24"/>
@@ -44196,7 +44196,7 @@
       <c r="I21" s="73"/>
       <c r="J21" s="74"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="91"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="32"/>
       <c r="N21" s="35"/>
       <c r="O21" s="24"/>
@@ -44572,8 +44572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B900EDBB-0BBB-4AD8-9B9E-87FBD3093600}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33:AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44585,36 +44585,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="69" t="s">
@@ -45590,36 +45590,36 @@
       <c r="AI14" s="62"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="Q15" s="87" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="Q15" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
       <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -46089,36 +46089,36 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="Q31" s="86" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="Q31" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="86"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
     </row>
     <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
@@ -46244,40 +46244,40 @@
         <v>263</v>
       </c>
       <c r="R33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V33" t="s">
         <v>169</v>
       </c>
       <c r="W33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X33" t="s">
         <v>168</v>
       </c>
       <c r="Y33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -46324,19 +46324,19 @@
         <v>217</v>
       </c>
       <c r="R34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T34" t="s">
         <v>168</v>
       </c>
       <c r="U34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W34" t="s">
         <v>168</v>
@@ -46348,16 +46348,16 @@
         <v>168</v>
       </c>
       <c r="Z34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -46404,25 +46404,25 @@
         <v>220</v>
       </c>
       <c r="R35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V35" t="s">
         <v>168</v>
       </c>
       <c r="W35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y35" t="s">
         <v>170</v>
@@ -46431,10 +46431,10 @@
         <v>170</v>
       </c>
       <c r="AA35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC35" t="s">
         <v>168</v>
@@ -46484,34 +46484,34 @@
         <v>261</v>
       </c>
       <c r="R36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T36" t="s">
         <v>168</v>
       </c>
       <c r="U36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X36" t="s">
         <v>168</v>
       </c>
       <c r="Y36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z36" t="s">
         <v>170</v>
       </c>
       <c r="AA36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB36" t="s">
         <v>168</v>
@@ -46564,22 +46564,22 @@
         <v>262</v>
       </c>
       <c r="R37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T37" t="s">
         <v>168</v>
       </c>
       <c r="U37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X37" t="s">
         <v>168</v>
@@ -46588,16 +46588,16 @@
         <v>168</v>
       </c>
       <c r="Z37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -46616,36 +46616,36 @@
       <c r="M38" s="64"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="Q39" s="87" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="Q39" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
-      <c r="AC39" s="87"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="91"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" s="66" t="s">
@@ -46698,19 +46698,19 @@
       </c>
       <c r="R41" s="67">
         <f>COUNTIF(R33:AC33,"good")/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="S41" s="68">
         <f>COUNTIF(R33:AC33,"fair")/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="T41" s="68">
         <f>COUNTIF(R33:AC33,"poor")/12</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="U41" t="str">
         <f>IF(R41&gt;0.5,"Overall Good",IF(S41&gt;0.5,"Overall Fair",IF(T41&gt;0.5,"Overall Poor",IF(R41+S41&gt;T41,"Overall Fair-Good",IF(S41+T41&gt;R41,"Overall Fair-Poor",IF(R41+T41&gt;S41,"Overall Variable"))))))</f>
-        <v>Overall Poor</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -46738,19 +46738,19 @@
       </c>
       <c r="R42" s="67">
         <f t="shared" ref="R42:R44" si="12">COUNTIF(R34:AC34,"good")/12</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S42" s="68">
         <f t="shared" ref="S42:S45" si="13">COUNTIF(R34:AC34,"fair")/12</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T42" s="68">
         <f t="shared" ref="T42:T45" si="14">COUNTIF(R34:AC34,"poor")/12</f>
-        <v>0.5</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" ref="U42:U45" si="15">IF(R42&gt;0.5,"Overall Good",IF(S42&gt;0.5,"Overall Fair",IF(T42&gt;0.5,"Overall Poor",IF(R42+S42&gt;T42,"Overall Fair-Good",IF(S42+T42&gt;R42,"Overall Fair-Poor",IF(R42+T42&gt;S42,"Overall Variable"))))))</f>
-        <v>Overall Variable</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -46778,7 +46778,7 @@
       </c>
       <c r="R43" s="67">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S43" s="68">
         <f t="shared" si="13"/>
@@ -46786,11 +46786,11 @@
       </c>
       <c r="T43" s="68">
         <f t="shared" si="14"/>
-        <v>0.58333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="15"/>
-        <v>Overall Poor</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -46818,19 +46818,19 @@
       </c>
       <c r="R44" s="67">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S44" s="68">
         <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T44" s="68">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="15"/>
-        <v>Overall Fair-Good</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -46858,19 +46858,19 @@
       </c>
       <c r="R45" s="67">
         <f>COUNTIF(R37:AC37,"good")/12</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S45" s="68">
         <f t="shared" si="13"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="T45" s="68">
         <f t="shared" si="14"/>
-        <v>0.5</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="15"/>
-        <v>Overall Fair-Poor</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -46897,8 +46897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5F9851-6AE1-4E06-BEF5-45DAC3CC84A1}">
   <dimension ref="A1:BR172"/>
   <sheetViews>
-    <sheetView topLeftCell="O100" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BR172" sqref="BR172"/>
+    <sheetView topLeftCell="AG1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46908,73 +46908,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="72"/>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -47547,73 +47547,73 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
       <c r="O35" s="72"/>
-      <c r="Q35" s="90" t="s">
+      <c r="Q35" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -48186,73 +48186,73 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="89"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="89"/>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="89"/>
-      <c r="S65" s="89"/>
-      <c r="T65" s="89"/>
-      <c r="U65" s="89"/>
-      <c r="V65" s="89"/>
-      <c r="W65" s="89"/>
-      <c r="X65" s="89"/>
-      <c r="Y65" s="89"/>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="89"/>
-      <c r="AB65" s="89"/>
-      <c r="AC65" s="89"/>
-      <c r="AD65" s="89"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="94"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="94"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="94"/>
+      <c r="Z65" s="94"/>
+      <c r="AA65" s="94"/>
+      <c r="AB65" s="94"/>
+      <c r="AC65" s="94"/>
+      <c r="AD65" s="94"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
       <c r="O67" s="72"/>
-      <c r="Q67" s="90" t="s">
+      <c r="Q67" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R67" s="90"/>
-      <c r="S67" s="90"/>
-      <c r="T67" s="90"/>
-      <c r="U67" s="90"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="90"/>
-      <c r="X67" s="90"/>
-      <c r="Y67" s="90"/>
-      <c r="Z67" s="90"/>
-      <c r="AA67" s="90"/>
-      <c r="AB67" s="90"/>
-      <c r="AC67" s="90"/>
-      <c r="AD67" s="90"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="92"/>
+      <c r="T67" s="92"/>
+      <c r="U67" s="92"/>
+      <c r="V67" s="92"/>
+      <c r="W67" s="92"/>
+      <c r="X67" s="92"/>
+      <c r="Y67" s="92"/>
+      <c r="Z67" s="92"/>
+      <c r="AA67" s="92"/>
+      <c r="AB67" s="92"/>
+      <c r="AC67" s="92"/>
+      <c r="AD67" s="92"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -48825,73 +48825,73 @@
       </c>
     </row>
     <row r="97" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A97" s="88" t="s">
+      <c r="A97" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="88"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="88"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="88"/>
-      <c r="O97" s="88"/>
-      <c r="P97" s="88"/>
-      <c r="Q97" s="88"/>
-      <c r="R97" s="88"/>
-      <c r="S97" s="88"/>
-      <c r="T97" s="88"/>
-      <c r="U97" s="88"/>
-      <c r="V97" s="88"/>
-      <c r="W97" s="88"/>
-      <c r="X97" s="88"/>
-      <c r="Y97" s="88"/>
-      <c r="Z97" s="88"/>
-      <c r="AA97" s="88"/>
-      <c r="AB97" s="88"/>
-      <c r="AC97" s="88"/>
-      <c r="AD97" s="88"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="93"/>
+      <c r="S97" s="93"/>
+      <c r="T97" s="93"/>
+      <c r="U97" s="93"/>
+      <c r="V97" s="93"/>
+      <c r="W97" s="93"/>
+      <c r="X97" s="93"/>
+      <c r="Y97" s="93"/>
+      <c r="Z97" s="93"/>
+      <c r="AA97" s="93"/>
+      <c r="AB97" s="93"/>
+      <c r="AC97" s="93"/>
+      <c r="AD97" s="93"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="90" t="s">
+      <c r="A99" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B99" s="90"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
-      <c r="K99" s="90"/>
-      <c r="L99" s="90"/>
-      <c r="M99" s="90"/>
-      <c r="N99" s="90"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="92"/>
+      <c r="L99" s="92"/>
+      <c r="M99" s="92"/>
+      <c r="N99" s="92"/>
       <c r="O99" s="72"/>
-      <c r="Q99" s="90" t="s">
+      <c r="Q99" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R99" s="90"/>
-      <c r="S99" s="90"/>
-      <c r="T99" s="90"/>
-      <c r="U99" s="90"/>
-      <c r="V99" s="90"/>
-      <c r="W99" s="90"/>
-      <c r="X99" s="90"/>
-      <c r="Y99" s="90"/>
-      <c r="Z99" s="90"/>
-      <c r="AA99" s="90"/>
-      <c r="AB99" s="90"/>
-      <c r="AC99" s="90"/>
-      <c r="AD99" s="90"/>
+      <c r="R99" s="92"/>
+      <c r="S99" s="92"/>
+      <c r="T99" s="92"/>
+      <c r="U99" s="92"/>
+      <c r="V99" s="92"/>
+      <c r="W99" s="92"/>
+      <c r="X99" s="92"/>
+      <c r="Y99" s="92"/>
+      <c r="Z99" s="92"/>
+      <c r="AA99" s="92"/>
+      <c r="AB99" s="92"/>
+      <c r="AC99" s="92"/>
+      <c r="AD99" s="92"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
@@ -49464,73 +49464,73 @@
       </c>
     </row>
     <row r="129" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="88" t="s">
+      <c r="A129" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B129" s="88"/>
-      <c r="C129" s="88"/>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="88"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="88"/>
-      <c r="J129" s="88"/>
-      <c r="K129" s="88"/>
-      <c r="L129" s="88"/>
-      <c r="M129" s="88"/>
-      <c r="N129" s="88"/>
-      <c r="O129" s="88"/>
-      <c r="P129" s="88"/>
-      <c r="Q129" s="88"/>
-      <c r="R129" s="88"/>
-      <c r="S129" s="88"/>
-      <c r="T129" s="88"/>
-      <c r="U129" s="88"/>
-      <c r="V129" s="88"/>
-      <c r="W129" s="88"/>
-      <c r="X129" s="88"/>
-      <c r="Y129" s="88"/>
-      <c r="Z129" s="88"/>
-      <c r="AA129" s="88"/>
-      <c r="AB129" s="88"/>
-      <c r="AC129" s="88"/>
-      <c r="AD129" s="88"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="93"/>
+      <c r="H129" s="93"/>
+      <c r="I129" s="93"/>
+      <c r="J129" s="93"/>
+      <c r="K129" s="93"/>
+      <c r="L129" s="93"/>
+      <c r="M129" s="93"/>
+      <c r="N129" s="93"/>
+      <c r="O129" s="93"/>
+      <c r="P129" s="93"/>
+      <c r="Q129" s="93"/>
+      <c r="R129" s="93"/>
+      <c r="S129" s="93"/>
+      <c r="T129" s="93"/>
+      <c r="U129" s="93"/>
+      <c r="V129" s="93"/>
+      <c r="W129" s="93"/>
+      <c r="X129" s="93"/>
+      <c r="Y129" s="93"/>
+      <c r="Z129" s="93"/>
+      <c r="AA129" s="93"/>
+      <c r="AB129" s="93"/>
+      <c r="AC129" s="93"/>
+      <c r="AD129" s="93"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A131" s="90" t="s">
+      <c r="A131" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="90"/>
-      <c r="C131" s="90"/>
-      <c r="D131" s="90"/>
-      <c r="E131" s="90"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
-      <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
-      <c r="J131" s="90"/>
-      <c r="K131" s="90"/>
-      <c r="L131" s="90"/>
-      <c r="M131" s="90"/>
-      <c r="N131" s="90"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="92"/>
+      <c r="G131" s="92"/>
+      <c r="H131" s="92"/>
+      <c r="I131" s="92"/>
+      <c r="J131" s="92"/>
+      <c r="K131" s="92"/>
+      <c r="L131" s="92"/>
+      <c r="M131" s="92"/>
+      <c r="N131" s="92"/>
       <c r="O131" s="72"/>
-      <c r="Q131" s="90" t="s">
+      <c r="Q131" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R131" s="90"/>
-      <c r="S131" s="90"/>
-      <c r="T131" s="90"/>
-      <c r="U131" s="90"/>
-      <c r="V131" s="90"/>
-      <c r="W131" s="90"/>
-      <c r="X131" s="90"/>
-      <c r="Y131" s="90"/>
-      <c r="Z131" s="90"/>
-      <c r="AA131" s="90"/>
-      <c r="AB131" s="90"/>
-      <c r="AC131" s="90"/>
-      <c r="AD131" s="90"/>
+      <c r="R131" s="92"/>
+      <c r="S131" s="92"/>
+      <c r="T131" s="92"/>
+      <c r="U131" s="92"/>
+      <c r="V131" s="92"/>
+      <c r="W131" s="92"/>
+      <c r="X131" s="92"/>
+      <c r="Y131" s="92"/>
+      <c r="Z131" s="92"/>
+      <c r="AA131" s="92"/>
+      <c r="AB131" s="92"/>
+      <c r="AC131" s="92"/>
+      <c r="AD131" s="92"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
@@ -50109,6 +50109,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="Q35:AD35"/>
+    <mergeCell ref="A65:AD65"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="Q3:AD3"/>
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="Q131:AD131"/>
     <mergeCell ref="A67:N67"/>
@@ -50117,13 +50124,6 @@
     <mergeCell ref="A99:N99"/>
     <mergeCell ref="Q99:AD99"/>
     <mergeCell ref="A129:AD129"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="Q35:AD35"/>
-    <mergeCell ref="A65:AD65"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="Q3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50134,7 +50134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072563F6-99A6-4401-950A-D346AD232483}">
   <dimension ref="A1:EC335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="AZ35" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="AI305" sqref="AI305"/>
     </sheetView>
   </sheetViews>
@@ -60498,7 +60498,7 @@
       <c r="I245" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="J245" s="93" t="s">
+      <c r="J245" s="81" t="s">
         <v>170</v>
       </c>
       <c r="K245" s="53" t="s">
@@ -60634,7 +60634,7 @@
       <c r="A247" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B247" s="93" t="s">
+      <c r="B247" s="81" t="s">
         <v>170</v>
       </c>
       <c r="C247" s="53" t="s">
@@ -63116,7 +63116,7 @@
       <c r="F288" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="G288" s="94" t="s">
+      <c r="G288" s="82" t="s">
         <v>170</v>
       </c>
       <c r="H288" s="48" t="s">
@@ -63853,7 +63853,7 @@
       <c r="Z300" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AA300" s="93" t="s">
+      <c r="AA300" s="81" t="s">
         <v>170</v>
       </c>
       <c r="AB300" s="48" t="s">
@@ -64001,28 +64001,28 @@
       <c r="V302" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="W302" s="93" t="s">
+      <c r="W302" s="81" t="s">
         <v>170</v>
       </c>
       <c r="X302" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="Y302" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z302" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA302" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB302" s="93" t="s">
+      <c r="Y302" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z302" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA302" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB302" s="81" t="s">
         <v>170</v>
       </c>
       <c r="AC302" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AD302" s="93" t="s">
+      <c r="AD302" s="81" t="s">
         <v>170</v>
       </c>
     </row>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4F13D-87D5-48BB-BFCA-C1B8B9DFD70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF039DDA-3231-4BC0-BF39-C518E01E179C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="544" firstSheet="3" activeTab="5" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="544" firstSheet="3" activeTab="6" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1572,13 +1572,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1586,20 +1586,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1669,6 +1655,20 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10885,6 +10885,436 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11815318539727988"/>
+          <c:y val="0.21765217391304348"/>
+          <c:w val="0.85821327889569354"/>
+          <c:h val="0.46619308456008218"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2BF52B"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CASEResult!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-44C1-4A16-89D4-214B9B8CB099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FCF33A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CASEResult!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-44C1-4A16-89D4-214B9B8CB099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>CASEResult!$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-44C1-4A16-89D4-214B9B8CB099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="29"/>
+        <c:overlap val="100"/>
+        <c:axId val="642901008"/>
+        <c:axId val="642903304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="642901008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="642903304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="642903304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642901008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -15462,6 +15892,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25502,6 +25972,511 @@
 </file>
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30761,7 +31736,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-AU" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -31538,7 +32513,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31599,7 +32574,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31670,7 +32645,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31737,7 +32712,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31804,7 +32779,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31871,7 +32846,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31938,7 +32913,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000060C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32005,7 +32980,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000070C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32067,7 +33042,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32220,7 +33195,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000080C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32287,7 +33262,7 @@
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000090C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32354,7 +33329,7 @@
                   <a14:compatExt spid="_x0000_s3082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32421,7 +33396,7 @@
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32488,7 +33463,7 @@
                   <a14:compatExt spid="_x0000_s3084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32555,7 +33530,7 @@
                   <a14:compatExt spid="_x0000_s3085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D0C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32622,7 +33597,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32658,7 +33633,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32694,7 +33669,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32730,7 +33705,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32771,7 +33746,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32815,7 +33790,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32859,7 +33834,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32903,7 +33878,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32947,7 +33922,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32991,7 +33966,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33035,7 +34010,7 @@
         <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33079,7 +34054,7 @@
         <xdr:cNvPr id="37" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33123,7 +34098,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33167,7 +34142,7 @@
         <xdr:cNvPr id="39" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33211,7 +34186,7 @@
         <xdr:cNvPr id="44" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33255,7 +34230,7 @@
         <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33299,7 +34274,7 @@
         <xdr:cNvPr id="46" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33343,7 +34318,7 @@
         <xdr:cNvPr id="47" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33387,7 +34362,7 @@
         <xdr:cNvPr id="48" name="Picture 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33431,7 +34406,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33475,7 +34450,7 @@
         <xdr:cNvPr id="52" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33519,7 +34494,7 @@
         <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33563,7 +34538,7 @@
         <xdr:cNvPr id="55" name="Picture 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33607,7 +34582,7 @@
         <xdr:cNvPr id="56" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33651,7 +34626,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33695,7 +34670,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33739,7 +34714,7 @@
         <xdr:cNvPr id="63" name="Chart 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33777,7 +34752,7 @@
         <xdr:cNvPr id="64" name="Picture 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33821,7 +34796,7 @@
         <xdr:cNvPr id="65" name="Picture 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33865,7 +34840,7 @@
         <xdr:cNvPr id="66" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33909,7 +34884,7 @@
         <xdr:cNvPr id="67" name="Picture 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33953,7 +34928,7 @@
         <xdr:cNvPr id="68" name="Picture 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33997,7 +34972,7 @@
         <xdr:cNvPr id="69" name="Picture 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34041,7 +35016,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34085,7 +35060,7 @@
         <xdr:cNvPr id="40" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34129,7 +35104,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34173,7 +35148,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34199,6 +35174,42 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5309D355-04C6-4EBB-A080-2FCAB1F58B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34222,7 +35233,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34266,7 +35277,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34310,7 +35321,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34354,7 +35365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34398,7 +35409,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34442,7 +35453,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34486,7 +35497,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34530,7 +35541,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34574,7 +35585,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34618,7 +35629,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34662,7 +35673,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34706,7 +35717,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34750,7 +35761,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34794,7 +35805,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34838,7 +35849,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34882,7 +35893,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34926,7 +35937,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34970,7 +35981,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35014,7 +36025,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35058,7 +36069,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35102,7 +36113,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35146,7 +36157,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35190,7 +36201,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35234,7 +36245,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35278,7 +36289,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35322,7 +36333,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35366,7 +36377,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35410,7 +36421,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35454,7 +36465,7 @@
         <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35498,7 +36509,7 @@
         <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35542,7 +36553,7 @@
         <xdr:cNvPr id="37" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35586,7 +36597,7 @@
         <xdr:cNvPr id="39" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35630,7 +36641,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35674,7 +36685,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35718,7 +36729,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35762,7 +36773,7 @@
         <xdr:cNvPr id="44" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35806,7 +36817,7 @@
         <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35850,7 +36861,7 @@
         <xdr:cNvPr id="46" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35894,7 +36905,7 @@
         <xdr:cNvPr id="47" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35938,7 +36949,7 @@
         <xdr:cNvPr id="48" name="Picture 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35982,7 +36993,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36026,7 +37037,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36070,7 +37081,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36114,7 +37125,7 @@
         <xdr:cNvPr id="52" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36158,7 +37169,7 @@
         <xdr:cNvPr id="53" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36202,7 +37213,7 @@
         <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36246,7 +37257,7 @@
         <xdr:cNvPr id="56" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36290,7 +37301,7 @@
         <xdr:cNvPr id="57" name="Picture 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36334,7 +37345,7 @@
         <xdr:cNvPr id="58" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36378,7 +37389,7 @@
         <xdr:cNvPr id="59" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36422,7 +37433,7 @@
         <xdr:cNvPr id="60" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36466,7 +37477,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36510,7 +37521,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36554,7 +37565,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36598,7 +37609,7 @@
         <xdr:cNvPr id="63" name="Picture 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36647,7 +37658,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36696,7 +37707,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36763,7 +37774,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36830,7 +37841,7 @@
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36897,7 +37908,7 @@
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -36964,7 +37975,7 @@
                   <a14:compatExt spid="_x0000_s6154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37031,7 +38042,7 @@
                   <a14:compatExt spid="_x0000_s6155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37098,7 +38109,7 @@
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37165,7 +38176,7 @@
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37232,7 +38243,7 @@
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37299,7 +38310,7 @@
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37366,7 +38377,7 @@
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37433,7 +38444,7 @@
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37500,7 +38511,7 @@
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37567,7 +38578,7 @@
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37634,7 +38645,7 @@
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37701,7 +38712,7 @@
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37768,7 +38779,7 @@
                   <a14:compatExt spid="_x0000_s6169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37814,14 +38825,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
@@ -37830,7 +38846,7 @@
                   <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDF1F78-86AE-4025-BB02-36C445880FC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37870,20 +38886,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
@@ -37892,7 +38913,7 @@
                   <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07621EEA-8CB8-4327-BF44-CD398B978FD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37932,20 +38953,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
@@ -37954,7 +38980,7 @@
                   <a14:compatExt spid="_x0000_s6172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB88A24-A8FB-41F4-BEBF-619A7317D728}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37994,20 +39020,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
@@ -38016,7 +39047,7 @@
                   <a14:compatExt spid="_x0000_s6173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB9095F-32A2-484D-AAA9-8088DCEC5678}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38056,20 +39087,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
@@ -38078,7 +39114,7 @@
                   <a14:compatExt spid="_x0000_s6174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473205C1-CFF2-469F-9243-89AAC3F3A77D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38118,20 +39154,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
@@ -38140,7 +39181,7 @@
                   <a14:compatExt spid="_x0000_s6175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEF6871-42CD-435A-BF4C-55D2573B7ED9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38180,20 +39221,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
@@ -38202,7 +39248,7 @@
                   <a14:compatExt spid="_x0000_s6176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832B0E59-FDBB-40E8-ADA5-0EE284A63BB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38242,20 +39288,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
@@ -38264,7 +39315,7 @@
                   <a14:compatExt spid="_x0000_s6177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413388A1-F470-4987-B5B5-E2C98FB3190C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38304,20 +39355,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6178" name="Check Box 34" hidden="1">
@@ -38326,7 +39382,7 @@
                   <a14:compatExt spid="_x0000_s6178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0BDAFC-8E5F-4FEC-AD3E-7C4A973E5F8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38366,20 +39422,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6179" name="Check Box 35" hidden="1">
@@ -38388,7 +39449,7 @@
                   <a14:compatExt spid="_x0000_s6179"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE70A37-9D43-4E6D-9787-4BE8053520C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000023180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38428,20 +39489,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6180" name="Check Box 36" hidden="1">
@@ -38450,7 +39516,7 @@
                   <a14:compatExt spid="_x0000_s6180"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455A1451-A149-4271-9190-BBBA49C229DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000024180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38490,20 +39556,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6181" name="Check Box 37" hidden="1">
@@ -38512,7 +39583,7 @@
                   <a14:compatExt spid="_x0000_s6181"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43738E6B-F10C-485E-A601-09C462E7FA2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000025180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38552,20 +39623,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6182" name="Check Box 38" hidden="1">
@@ -38574,7 +39650,7 @@
                   <a14:compatExt spid="_x0000_s6182"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B0A5FD-4651-4B0F-8DD7-B032746A7EE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000026180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38614,20 +39690,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6183" name="Check Box 39" hidden="1">
@@ -38636,7 +39717,7 @@
                   <a14:compatExt spid="_x0000_s6183"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A5B6B9-43B2-4ACF-A056-A1BBCE2F03A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000027180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38676,20 +39757,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6184" name="Check Box 40" hidden="1">
@@ -38698,7 +39784,7 @@
                   <a14:compatExt spid="_x0000_s6184"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CBD0C7-4F27-4F7B-98EC-37F76B3BAEFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000028180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38738,20 +39824,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6185" name="Check Box 41" hidden="1">
@@ -38760,7 +39851,7 @@
                   <a14:compatExt spid="_x0000_s6185"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BACCE6-2D7B-489A-AF97-54469F7F1A5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000029180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38800,20 +39891,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6186" name="Check Box 42" hidden="1">
@@ -38822,7 +39918,7 @@
                   <a14:compatExt spid="_x0000_s6186"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4661EBEA-C951-457A-B007-A3CDA1210572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00002A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38862,20 +39958,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6209" name="Check Box 65" hidden="1">
@@ -38884,7 +39985,7 @@
                   <a14:compatExt spid="_x0000_s6209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B76BF13-D6CB-48BA-9426-CD4002422673}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38924,20 +40025,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6210" name="Check Box 66" hidden="1">
@@ -38946,7 +40052,7 @@
                   <a14:compatExt spid="_x0000_s6210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673C079F-6B55-4FAC-A4B3-A1437A4EE7C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000042180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -38986,20 +40092,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6211" name="Check Box 67" hidden="1">
@@ -39008,7 +40119,7 @@
                   <a14:compatExt spid="_x0000_s6211"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE740B2-6875-42F6-81AD-2AA5B7F06540}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39048,20 +40159,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6212" name="Check Box 68" hidden="1">
@@ -39070,7 +40186,7 @@
                   <a14:compatExt spid="_x0000_s6212"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F998506D-B807-4679-9440-E394EC99B491}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000044180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39110,20 +40226,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6213" name="Check Box 69" hidden="1">
@@ -39132,7 +40253,7 @@
                   <a14:compatExt spid="_x0000_s6213"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBB2976-C6B1-478D-9CA3-BA53A416E626}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000045180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39172,20 +40293,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6214" name="Check Box 70" hidden="1">
@@ -39194,7 +40320,7 @@
                   <a14:compatExt spid="_x0000_s6214"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E7F2FF-CAB2-4F7B-8087-A01972B5A3B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000046180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39234,20 +40360,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6215" name="Check Box 71" hidden="1">
@@ -39256,7 +40387,7 @@
                   <a14:compatExt spid="_x0000_s6215"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B75AE84-0C97-4034-A8E7-314D2057B7B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000047180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39296,20 +40427,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6216" name="Check Box 72" hidden="1">
@@ -39318,7 +40454,7 @@
                   <a14:compatExt spid="_x0000_s6216"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217A8050-5C1F-4899-BC0E-1B2565EC1F6A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000048180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39358,20 +40494,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6217" name="Check Box 73" hidden="1">
@@ -39380,7 +40521,7 @@
                   <a14:compatExt spid="_x0000_s6217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD26ED12-F48B-4461-B6FC-EEB84B0DC86A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000049180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -39420,7 +40561,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -39428,24 +40569,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD55D7C9-6C17-40D1-8661-0ADBD3F051ED}" name="Table1" displayName="Table1" ref="A1:O26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD55D7C9-6C17-40D1-8661-0ADBD3F051ED}" name="Table1" displayName="Table1" ref="A1:O26" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O26" xr:uid="{AD55D7C9-6C17-40D1-8661-0ADBD3F051ED}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{79CA59A6-71EB-4BBA-A3F7-3625F865BBF6}" name="Column1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7837FED8-EC3A-475C-A4BF-F36FE78F4FE7}" name="ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{182CC810-8245-4C44-AE86-CB599780B552}" name="Lat" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{BDCC3540-C8F4-4334-B8F1-37B09D591BBC}" name="Long" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{2641605D-5B13-4962-B781-334D3BE075A2}" name="Juradiction" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{88C1A87A-DF62-464D-9FF9-54E80E11C5ED}" name="Area(Km^2)" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{12902900-21E7-4A40-AA3C-5B131C9819A9}" name="Start (YYYYMMDD)" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{1FE754F2-C8D9-4C22-AA46-AA334BB0C46F}" name="End (YYYYMMDD)" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{52E8F735-EE38-4FE5-ADE5-3D9FDA29DD7F}" name="Nyear" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{209CDD7D-E034-4ACF-B5CB-69070A65F3C4}" name="x1" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{33AD0F42-91C4-4FF5-9D5C-6761FC18D16D}" name="x2" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{E1B81207-90D5-416F-8F43-A91E7015C0E2}" name="x3" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{1573F427-A6AE-4810-8291-F8C770F9E1AD}" name="x4" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{3DDF602A-CD8F-442E-8C4D-EE8A309543F6}" name="NSE" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{CC33AF35-1230-4452-A348-25CF511CB2A2}" name="NearestSilo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{79CA59A6-71EB-4BBA-A3F7-3625F865BBF6}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7837FED8-EC3A-475C-A4BF-F36FE78F4FE7}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{182CC810-8245-4C44-AE86-CB599780B552}" name="Lat" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BDCC3540-C8F4-4334-B8F1-37B09D591BBC}" name="Long" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{2641605D-5B13-4962-B781-334D3BE075A2}" name="Juradiction" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{88C1A87A-DF62-464D-9FF9-54E80E11C5ED}" name="Area(Km^2)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{12902900-21E7-4A40-AA3C-5B131C9819A9}" name="Start (YYYYMMDD)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{1FE754F2-C8D9-4C22-AA46-AA334BB0C46F}" name="End (YYYYMMDD)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{52E8F735-EE38-4FE5-ADE5-3D9FDA29DD7F}" name="Nyear" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{209CDD7D-E034-4ACF-B5CB-69070A65F3C4}" name="x1" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{33AD0F42-91C4-4FF5-9D5C-6761FC18D16D}" name="x2" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{E1B81207-90D5-416F-8F43-A91E7015C0E2}" name="x3" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{1573F427-A6AE-4810-8291-F8C770F9E1AD}" name="x4" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{3DDF602A-CD8F-442E-8C4D-EE8A309543F6}" name="NSE" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{CC33AF35-1230-4452-A348-25CF511CB2A2}" name="NearestSilo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -44233,7 +45374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B900EDBB-0BBB-4AD8-9B9E-87FBD3093600}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:M37"/>
     </sheetView>
   </sheetViews>
@@ -46558,8 +47699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5F9851-6AE1-4E06-BEF5-45DAC3CC84A1}">
   <dimension ref="A1:BR172"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AO40" sqref="AO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46569,73 +47710,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="72"/>
-      <c r="Q3" s="94" t="s">
+      <c r="Q3" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -47208,73 +48349,73 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
       <c r="O35" s="72"/>
-      <c r="Q35" s="94" t="s">
+      <c r="Q35" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -47847,73 +48988,73 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="93"/>
-      <c r="K65" s="93"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
-      <c r="N65" s="93"/>
-      <c r="O65" s="93"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="93"/>
-      <c r="S65" s="93"/>
-      <c r="T65" s="93"/>
-      <c r="U65" s="93"/>
-      <c r="V65" s="93"/>
-      <c r="W65" s="93"/>
-      <c r="X65" s="93"/>
-      <c r="Y65" s="93"/>
-      <c r="Z65" s="93"/>
-      <c r="AA65" s="93"/>
-      <c r="AB65" s="93"/>
-      <c r="AC65" s="93"/>
-      <c r="AD65" s="93"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="94"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="94"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="94"/>
+      <c r="Z65" s="94"/>
+      <c r="AA65" s="94"/>
+      <c r="AB65" s="94"/>
+      <c r="AC65" s="94"/>
+      <c r="AD65" s="94"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
       <c r="O67" s="72"/>
-      <c r="Q67" s="94" t="s">
+      <c r="Q67" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R67" s="94"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="94"/>
-      <c r="U67" s="94"/>
-      <c r="V67" s="94"/>
-      <c r="W67" s="94"/>
-      <c r="X67" s="94"/>
-      <c r="Y67" s="94"/>
-      <c r="Z67" s="94"/>
-      <c r="AA67" s="94"/>
-      <c r="AB67" s="94"/>
-      <c r="AC67" s="94"/>
-      <c r="AD67" s="94"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="92"/>
+      <c r="T67" s="92"/>
+      <c r="U67" s="92"/>
+      <c r="V67" s="92"/>
+      <c r="W67" s="92"/>
+      <c r="X67" s="92"/>
+      <c r="Y67" s="92"/>
+      <c r="Z67" s="92"/>
+      <c r="AA67" s="92"/>
+      <c r="AB67" s="92"/>
+      <c r="AC67" s="92"/>
+      <c r="AD67" s="92"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -48486,73 +49627,73 @@
       </c>
     </row>
     <row r="97" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A97" s="92" t="s">
+      <c r="A97" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="92"/>
-      <c r="K97" s="92"/>
-      <c r="L97" s="92"/>
-      <c r="M97" s="92"/>
-      <c r="N97" s="92"/>
-      <c r="O97" s="92"/>
-      <c r="P97" s="92"/>
-      <c r="Q97" s="92"/>
-      <c r="R97" s="92"/>
-      <c r="S97" s="92"/>
-      <c r="T97" s="92"/>
-      <c r="U97" s="92"/>
-      <c r="V97" s="92"/>
-      <c r="W97" s="92"/>
-      <c r="X97" s="92"/>
-      <c r="Y97" s="92"/>
-      <c r="Z97" s="92"/>
-      <c r="AA97" s="92"/>
-      <c r="AB97" s="92"/>
-      <c r="AC97" s="92"/>
-      <c r="AD97" s="92"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="93"/>
+      <c r="S97" s="93"/>
+      <c r="T97" s="93"/>
+      <c r="U97" s="93"/>
+      <c r="V97" s="93"/>
+      <c r="W97" s="93"/>
+      <c r="X97" s="93"/>
+      <c r="Y97" s="93"/>
+      <c r="Z97" s="93"/>
+      <c r="AA97" s="93"/>
+      <c r="AB97" s="93"/>
+      <c r="AC97" s="93"/>
+      <c r="AD97" s="93"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="94" t="s">
+      <c r="A99" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B99" s="94"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="94"/>
-      <c r="J99" s="94"/>
-      <c r="K99" s="94"/>
-      <c r="L99" s="94"/>
-      <c r="M99" s="94"/>
-      <c r="N99" s="94"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="92"/>
+      <c r="L99" s="92"/>
+      <c r="M99" s="92"/>
+      <c r="N99" s="92"/>
       <c r="O99" s="72"/>
-      <c r="Q99" s="94" t="s">
+      <c r="Q99" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R99" s="94"/>
-      <c r="S99" s="94"/>
-      <c r="T99" s="94"/>
-      <c r="U99" s="94"/>
-      <c r="V99" s="94"/>
-      <c r="W99" s="94"/>
-      <c r="X99" s="94"/>
-      <c r="Y99" s="94"/>
-      <c r="Z99" s="94"/>
-      <c r="AA99" s="94"/>
-      <c r="AB99" s="94"/>
-      <c r="AC99" s="94"/>
-      <c r="AD99" s="94"/>
+      <c r="R99" s="92"/>
+      <c r="S99" s="92"/>
+      <c r="T99" s="92"/>
+      <c r="U99" s="92"/>
+      <c r="V99" s="92"/>
+      <c r="W99" s="92"/>
+      <c r="X99" s="92"/>
+      <c r="Y99" s="92"/>
+      <c r="Z99" s="92"/>
+      <c r="AA99" s="92"/>
+      <c r="AB99" s="92"/>
+      <c r="AC99" s="92"/>
+      <c r="AD99" s="92"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
@@ -49125,73 +50266,73 @@
       </c>
     </row>
     <row r="129" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="92" t="s">
+      <c r="A129" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="92"/>
-      <c r="F129" s="92"/>
-      <c r="G129" s="92"/>
-      <c r="H129" s="92"/>
-      <c r="I129" s="92"/>
-      <c r="J129" s="92"/>
-      <c r="K129" s="92"/>
-      <c r="L129" s="92"/>
-      <c r="M129" s="92"/>
-      <c r="N129" s="92"/>
-      <c r="O129" s="92"/>
-      <c r="P129" s="92"/>
-      <c r="Q129" s="92"/>
-      <c r="R129" s="92"/>
-      <c r="S129" s="92"/>
-      <c r="T129" s="92"/>
-      <c r="U129" s="92"/>
-      <c r="V129" s="92"/>
-      <c r="W129" s="92"/>
-      <c r="X129" s="92"/>
-      <c r="Y129" s="92"/>
-      <c r="Z129" s="92"/>
-      <c r="AA129" s="92"/>
-      <c r="AB129" s="92"/>
-      <c r="AC129" s="92"/>
-      <c r="AD129" s="92"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="93"/>
+      <c r="H129" s="93"/>
+      <c r="I129" s="93"/>
+      <c r="J129" s="93"/>
+      <c r="K129" s="93"/>
+      <c r="L129" s="93"/>
+      <c r="M129" s="93"/>
+      <c r="N129" s="93"/>
+      <c r="O129" s="93"/>
+      <c r="P129" s="93"/>
+      <c r="Q129" s="93"/>
+      <c r="R129" s="93"/>
+      <c r="S129" s="93"/>
+      <c r="T129" s="93"/>
+      <c r="U129" s="93"/>
+      <c r="V129" s="93"/>
+      <c r="W129" s="93"/>
+      <c r="X129" s="93"/>
+      <c r="Y129" s="93"/>
+      <c r="Z129" s="93"/>
+      <c r="AA129" s="93"/>
+      <c r="AB129" s="93"/>
+      <c r="AC129" s="93"/>
+      <c r="AD129" s="93"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A131" s="94" t="s">
+      <c r="A131" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="94"/>
-      <c r="C131" s="94"/>
-      <c r="D131" s="94"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="94"/>
-      <c r="G131" s="94"/>
-      <c r="H131" s="94"/>
-      <c r="I131" s="94"/>
-      <c r="J131" s="94"/>
-      <c r="K131" s="94"/>
-      <c r="L131" s="94"/>
-      <c r="M131" s="94"/>
-      <c r="N131" s="94"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="92"/>
+      <c r="G131" s="92"/>
+      <c r="H131" s="92"/>
+      <c r="I131" s="92"/>
+      <c r="J131" s="92"/>
+      <c r="K131" s="92"/>
+      <c r="L131" s="92"/>
+      <c r="M131" s="92"/>
+      <c r="N131" s="92"/>
       <c r="O131" s="72"/>
-      <c r="Q131" s="94" t="s">
+      <c r="Q131" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="R131" s="94"/>
-      <c r="S131" s="94"/>
-      <c r="T131" s="94"/>
-      <c r="U131" s="94"/>
-      <c r="V131" s="94"/>
-      <c r="W131" s="94"/>
-      <c r="X131" s="94"/>
-      <c r="Y131" s="94"/>
-      <c r="Z131" s="94"/>
-      <c r="AA131" s="94"/>
-      <c r="AB131" s="94"/>
-      <c r="AC131" s="94"/>
-      <c r="AD131" s="94"/>
+      <c r="R131" s="92"/>
+      <c r="S131" s="92"/>
+      <c r="T131" s="92"/>
+      <c r="U131" s="92"/>
+      <c r="V131" s="92"/>
+      <c r="W131" s="92"/>
+      <c r="X131" s="92"/>
+      <c r="Y131" s="92"/>
+      <c r="Z131" s="92"/>
+      <c r="AA131" s="92"/>
+      <c r="AB131" s="92"/>
+      <c r="AC131" s="92"/>
+      <c r="AD131" s="92"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
@@ -49770,6 +50911,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="Q35:AD35"/>
+    <mergeCell ref="A65:AD65"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="Q3:AD3"/>
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="Q131:AD131"/>
     <mergeCell ref="A67:N67"/>
@@ -49778,13 +50926,6 @@
     <mergeCell ref="A99:N99"/>
     <mergeCell ref="Q99:AD99"/>
     <mergeCell ref="A129:AD129"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="Q35:AD35"/>
-    <mergeCell ref="A65:AD65"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="Q3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -65857,12 +66998,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T194">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>COLUMNS(K4:$T$134)&lt;=$P134</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T195">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>COLUMNS($T$134:T134)&lt;=$P134</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PilotStudy01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF039DDA-3231-4BC0-BF39-C518E01E179C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCF607E-7C14-4468-A69B-04A0AEF83CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="544" firstSheet="3" activeTab="6" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="544" firstSheet="3" activeTab="6" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Site 1_410730" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1572,13 +1572,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1674,9 +1674,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFCF33A"/>
       <color rgb="FF2BF52B"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFCCFF33"/>
@@ -8949,37 +8949,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9065,10 +9065,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -9086,7 +9086,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -9175,37 +9175,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10448,37 +10448,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10564,10 +10564,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -10585,7 +10585,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -10674,37 +10674,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11024,19 +11024,19 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>CASEResult!$B$11</c:f>
+              <c:f>CASEResult!$B$154</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-44C1-4A16-89D4-214B9B8CB099}"/>
+              <c16:uniqueId val="{00000019-D0CD-4F07-97C0-CBFC071B867B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11113,19 +11113,19 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>CASEResult!$C$11</c:f>
+              <c:f>CASEResult!$C$154</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-44C1-4A16-89D4-214B9B8CB099}"/>
+              <c16:uniqueId val="{0000001A-D0CD-4F07-97C0-CBFC071B867B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11134,7 +11134,7 @@
           <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF3300"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11202,19 +11202,19 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>CASEResult!$D$11</c:f>
+              <c:f>CASEResult!$D$154</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-44C1-4A16-89D4-214B9B8CB099}"/>
+              <c16:uniqueId val="{0000001B-D0CD-4F07-97C0-CBFC071B867B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -31736,7 +31736,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-AU" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -34825,15 +34825,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>573774</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>132714</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>188832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -34856,8 +34856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21545550" y="685800"/>
-          <a:ext cx="7279374" cy="5085714"/>
+          <a:off x="21526500" y="682625"/>
+          <a:ext cx="7019024" cy="4951332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -35176,23 +35176,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5309D355-04C6-4EBB-A080-2FCAB1F58B02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37583,50 +37583,6 @@
         <a:xfrm>
           <a:off x="40694950" y="36377671"/>
           <a:ext cx="3271405" cy="4575319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>1409179</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>26096</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>72019</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>169003</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29505754" y="36195000"/>
-          <a:ext cx="7404964" cy="5805715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45374,8 +45330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B900EDBB-0BBB-4AD8-9B9E-87FBD3093600}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:M37"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45542,13 +45498,13 @@
         <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U3" t="s">
         <v>168</v>
@@ -45563,16 +45519,16 @@
         <v>168</v>
       </c>
       <c r="Y3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z3" t="s">
         <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
         <v>168</v>
@@ -45622,37 +45578,37 @@
         <v>172</v>
       </c>
       <c r="R4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y4" t="s">
         <v>168</v>
       </c>
       <c r="Z4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC4" t="s">
         <v>168</v>
@@ -45702,19 +45658,19 @@
         <v>173</v>
       </c>
       <c r="R5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U5" t="s">
         <v>168</v>
       </c>
       <c r="V5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W5" t="s">
         <v>168</v>
@@ -45729,13 +45685,13 @@
         <v>168</v>
       </c>
       <c r="AA5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI5" s="62"/>
     </row>
@@ -45789,7 +45745,7 @@
         <v>168</v>
       </c>
       <c r="T6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U6" t="s">
         <v>168</v>
@@ -45813,7 +45769,7 @@
         <v>168</v>
       </c>
       <c r="AB6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC6" t="s">
         <v>168</v>
@@ -45864,40 +45820,40 @@
         <v>177</v>
       </c>
       <c r="R7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V7" t="s">
         <v>168</v>
       </c>
       <c r="W7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y7" t="s">
         <v>168</v>
       </c>
       <c r="Z7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI7" s="62"/>
     </row>
@@ -45954,28 +45910,28 @@
         <v>170</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="V8" t="s">
         <v>168</v>
       </c>
       <c r="W8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X8" t="s">
         <v>168</v>
       </c>
       <c r="Y8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA8" t="s">
         <v>169</v>
       </c>
       <c r="AB8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC8" t="s">
         <v>168</v>
@@ -46041,10 +45997,10 @@
         <v>168</v>
       </c>
       <c r="W9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y9" t="s">
         <v>168</v>
@@ -46053,10 +46009,10 @@
         <v>168</v>
       </c>
       <c r="AA9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC9" t="s">
         <v>168</v>
@@ -46107,13 +46063,13 @@
         <v>174</v>
       </c>
       <c r="R10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U10" t="s">
         <v>168</v>
@@ -46128,16 +46084,16 @@
         <v>168</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC10" t="s">
         <v>168</v>
@@ -46188,37 +46144,37 @@
         <v>175</v>
       </c>
       <c r="R11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U11" t="s">
         <v>168</v>
       </c>
       <c r="V11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W11" t="s">
         <v>168</v>
       </c>
       <c r="X11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA11" t="s">
         <v>169</v>
       </c>
       <c r="AB11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC11" t="s">
         <v>168</v>
@@ -46275,7 +46231,7 @@
         <v>168</v>
       </c>
       <c r="T12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U12" t="s">
         <v>168</v>
@@ -46299,7 +46255,7 @@
         <v>168</v>
       </c>
       <c r="AB12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC12" t="s">
         <v>168</v>
@@ -46356,7 +46312,7 @@
         <v>168</v>
       </c>
       <c r="T13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U13" t="s">
         <v>168</v>
@@ -46380,7 +46336,7 @@
         <v>168</v>
       </c>
       <c r="AB13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC13" t="s">
         <v>168</v>
@@ -46475,7 +46431,7 @@
       </c>
       <c r="R17" s="67">
         <f t="shared" ref="R17:R27" si="4">COUNTIF(R3:AC3,"good")/12</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S17" s="68">
         <f t="shared" ref="S17:S27" si="5">COUNTIF(R3:AC3,"fair")/12</f>
@@ -46483,7 +46439,7 @@
       </c>
       <c r="T17" s="68">
         <f t="shared" ref="T17:T27" si="6">COUNTIF(R3:AC3,"poor")/12</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" ref="U17:U27" si="7">IF(R17&gt;0.5,"Overall Good",IF(S17&gt;0.5,"Overall Fair",IF(T17&gt;0.5,"Overall Poor",IF(R17+S17&gt;T17,"Overall Fair-Good",IF(S17+T17&gt;R17,"Overall Fair-Poor",IF(R17+T17&gt;S17,"Overall Variable"))))))</f>
@@ -46519,11 +46475,11 @@
       </c>
       <c r="S18" s="68">
         <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
       <c r="T18" s="68">
         <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="7"/>
@@ -46555,19 +46511,19 @@
       </c>
       <c r="R19" s="67">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S19" s="68">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="T19" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="7"/>
-        <v>Overall Fair-Good</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -46595,7 +46551,7 @@
       </c>
       <c r="R20" s="67">
         <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S20" s="68">
         <f t="shared" si="5"/>
@@ -46603,7 +46559,7 @@
       </c>
       <c r="T20" s="68">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
@@ -46635,7 +46591,7 @@
       </c>
       <c r="R21" s="67">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S21" s="68">
         <f t="shared" si="5"/>
@@ -46643,11 +46599,11 @@
       </c>
       <c r="T21" s="68">
         <f t="shared" si="6"/>
-        <v>0.58333333333333337</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="7"/>
-        <v>Overall Poor</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -46675,7 +46631,7 @@
       </c>
       <c r="R22" s="67">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="S22" s="68">
         <f t="shared" si="5"/>
@@ -46683,7 +46639,7 @@
       </c>
       <c r="T22" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="7"/>
@@ -46755,7 +46711,7 @@
       </c>
       <c r="R24" s="67">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="S24" s="68">
         <f t="shared" si="5"/>
@@ -46763,7 +46719,7 @@
       </c>
       <c r="T24" s="68">
         <f t="shared" si="6"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="7"/>
@@ -46795,19 +46751,19 @@
       </c>
       <c r="R25" s="67">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S25" s="68">
         <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="T25" s="68">
         <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="7"/>
-        <v>Overall Fair-Good</v>
+        <v>Overall Good</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -46835,7 +46791,7 @@
       </c>
       <c r="R26" s="67">
         <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S26" s="68">
         <f t="shared" si="5"/>
@@ -46843,7 +46799,7 @@
       </c>
       <c r="T26" s="68">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="7"/>
@@ -46875,7 +46831,7 @@
       </c>
       <c r="R27" s="67">
         <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="S27" s="68">
         <f t="shared" si="5"/>
@@ -46883,7 +46839,7 @@
       </c>
       <c r="T27" s="68">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="7"/>
@@ -47699,8 +47655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5F9851-6AE1-4E06-BEF5-45DAC3CC84A1}">
   <dimension ref="A1:BR172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AO40" sqref="AO40"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="CC175" sqref="CC175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47710,73 +47666,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
       <c r="O3" s="72"/>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -48349,73 +48305,73 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
       <c r="O35" s="72"/>
-      <c r="Q35" s="92" t="s">
+      <c r="Q35" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -48988,73 +48944,73 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="94" t="s">
+      <c r="A65" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="94"/>
-      <c r="P65" s="94"/>
-      <c r="Q65" s="94"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="94"/>
-      <c r="T65" s="94"/>
-      <c r="U65" s="94"/>
-      <c r="V65" s="94"/>
-      <c r="W65" s="94"/>
-      <c r="X65" s="94"/>
-      <c r="Y65" s="94"/>
-      <c r="Z65" s="94"/>
-      <c r="AA65" s="94"/>
-      <c r="AB65" s="94"/>
-      <c r="AC65" s="94"/>
-      <c r="AD65" s="94"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="93"/>
+      <c r="T65" s="93"/>
+      <c r="U65" s="93"/>
+      <c r="V65" s="93"/>
+      <c r="W65" s="93"/>
+      <c r="X65" s="93"/>
+      <c r="Y65" s="93"/>
+      <c r="Z65" s="93"/>
+      <c r="AA65" s="93"/>
+      <c r="AB65" s="93"/>
+      <c r="AC65" s="93"/>
+      <c r="AD65" s="93"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
       <c r="O67" s="72"/>
-      <c r="Q67" s="92" t="s">
+      <c r="Q67" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="R67" s="92"/>
-      <c r="S67" s="92"/>
-      <c r="T67" s="92"/>
-      <c r="U67" s="92"/>
-      <c r="V67" s="92"/>
-      <c r="W67" s="92"/>
-      <c r="X67" s="92"/>
-      <c r="Y67" s="92"/>
-      <c r="Z67" s="92"/>
-      <c r="AA67" s="92"/>
-      <c r="AB67" s="92"/>
-      <c r="AC67" s="92"/>
-      <c r="AD67" s="92"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="94"/>
+      <c r="U67" s="94"/>
+      <c r="V67" s="94"/>
+      <c r="W67" s="94"/>
+      <c r="X67" s="94"/>
+      <c r="Y67" s="94"/>
+      <c r="Z67" s="94"/>
+      <c r="AA67" s="94"/>
+      <c r="AB67" s="94"/>
+      <c r="AC67" s="94"/>
+      <c r="AD67" s="94"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -49627,73 +49583,73 @@
       </c>
     </row>
     <row r="97" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A97" s="93" t="s">
+      <c r="A97" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="93"/>
-      <c r="I97" s="93"/>
-      <c r="J97" s="93"/>
-      <c r="K97" s="93"/>
-      <c r="L97" s="93"/>
-      <c r="M97" s="93"/>
-      <c r="N97" s="93"/>
-      <c r="O97" s="93"/>
-      <c r="P97" s="93"/>
-      <c r="Q97" s="93"/>
-      <c r="R97" s="93"/>
-      <c r="S97" s="93"/>
-      <c r="T97" s="93"/>
-      <c r="U97" s="93"/>
-      <c r="V97" s="93"/>
-      <c r="W97" s="93"/>
-      <c r="X97" s="93"/>
-      <c r="Y97" s="93"/>
-      <c r="Z97" s="93"/>
-      <c r="AA97" s="93"/>
-      <c r="AB97" s="93"/>
-      <c r="AC97" s="93"/>
-      <c r="AD97" s="93"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="92"/>
+      <c r="O97" s="92"/>
+      <c r="P97" s="92"/>
+      <c r="Q97" s="92"/>
+      <c r="R97" s="92"/>
+      <c r="S97" s="92"/>
+      <c r="T97" s="92"/>
+      <c r="U97" s="92"/>
+      <c r="V97" s="92"/>
+      <c r="W97" s="92"/>
+      <c r="X97" s="92"/>
+      <c r="Y97" s="92"/>
+      <c r="Z97" s="92"/>
+      <c r="AA97" s="92"/>
+      <c r="AB97" s="92"/>
+      <c r="AC97" s="92"/>
+      <c r="AD97" s="92"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="92" t="s">
+      <c r="A99" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="92"/>
-      <c r="K99" s="92"/>
-      <c r="L99" s="92"/>
-      <c r="M99" s="92"/>
-      <c r="N99" s="92"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="94"/>
+      <c r="M99" s="94"/>
+      <c r="N99" s="94"/>
       <c r="O99" s="72"/>
-      <c r="Q99" s="92" t="s">
+      <c r="Q99" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="R99" s="92"/>
-      <c r="S99" s="92"/>
-      <c r="T99" s="92"/>
-      <c r="U99" s="92"/>
-      <c r="V99" s="92"/>
-      <c r="W99" s="92"/>
-      <c r="X99" s="92"/>
-      <c r="Y99" s="92"/>
-      <c r="Z99" s="92"/>
-      <c r="AA99" s="92"/>
-      <c r="AB99" s="92"/>
-      <c r="AC99" s="92"/>
-      <c r="AD99" s="92"/>
+      <c r="R99" s="94"/>
+      <c r="S99" s="94"/>
+      <c r="T99" s="94"/>
+      <c r="U99" s="94"/>
+      <c r="V99" s="94"/>
+      <c r="W99" s="94"/>
+      <c r="X99" s="94"/>
+      <c r="Y99" s="94"/>
+      <c r="Z99" s="94"/>
+      <c r="AA99" s="94"/>
+      <c r="AB99" s="94"/>
+      <c r="AC99" s="94"/>
+      <c r="AD99" s="94"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
@@ -50266,73 +50222,73 @@
       </c>
     </row>
     <row r="129" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="93" t="s">
+      <c r="A129" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B129" s="93"/>
-      <c r="C129" s="93"/>
-      <c r="D129" s="93"/>
-      <c r="E129" s="93"/>
-      <c r="F129" s="93"/>
-      <c r="G129" s="93"/>
-      <c r="H129" s="93"/>
-      <c r="I129" s="93"/>
-      <c r="J129" s="93"/>
-      <c r="K129" s="93"/>
-      <c r="L129" s="93"/>
-      <c r="M129" s="93"/>
-      <c r="N129" s="93"/>
-      <c r="O129" s="93"/>
-      <c r="P129" s="93"/>
-      <c r="Q129" s="93"/>
-      <c r="R129" s="93"/>
-      <c r="S129" s="93"/>
-      <c r="T129" s="93"/>
-      <c r="U129" s="93"/>
-      <c r="V129" s="93"/>
-      <c r="W129" s="93"/>
-      <c r="X129" s="93"/>
-      <c r="Y129" s="93"/>
-      <c r="Z129" s="93"/>
-      <c r="AA129" s="93"/>
-      <c r="AB129" s="93"/>
-      <c r="AC129" s="93"/>
-      <c r="AD129" s="93"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="92"/>
+      <c r="F129" s="92"/>
+      <c r="G129" s="92"/>
+      <c r="H129" s="92"/>
+      <c r="I129" s="92"/>
+      <c r="J129" s="92"/>
+      <c r="K129" s="92"/>
+      <c r="L129" s="92"/>
+      <c r="M129" s="92"/>
+      <c r="N129" s="92"/>
+      <c r="O129" s="92"/>
+      <c r="P129" s="92"/>
+      <c r="Q129" s="92"/>
+      <c r="R129" s="92"/>
+      <c r="S129" s="92"/>
+      <c r="T129" s="92"/>
+      <c r="U129" s="92"/>
+      <c r="V129" s="92"/>
+      <c r="W129" s="92"/>
+      <c r="X129" s="92"/>
+      <c r="Y129" s="92"/>
+      <c r="Z129" s="92"/>
+      <c r="AA129" s="92"/>
+      <c r="AB129" s="92"/>
+      <c r="AC129" s="92"/>
+      <c r="AD129" s="92"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A131" s="92" t="s">
+      <c r="A131" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="92"/>
-      <c r="F131" s="92"/>
-      <c r="G131" s="92"/>
-      <c r="H131" s="92"/>
-      <c r="I131" s="92"/>
-      <c r="J131" s="92"/>
-      <c r="K131" s="92"/>
-      <c r="L131" s="92"/>
-      <c r="M131" s="92"/>
-      <c r="N131" s="92"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="94"/>
+      <c r="D131" s="94"/>
+      <c r="E131" s="94"/>
+      <c r="F131" s="94"/>
+      <c r="G131" s="94"/>
+      <c r="H131" s="94"/>
+      <c r="I131" s="94"/>
+      <c r="J131" s="94"/>
+      <c r="K131" s="94"/>
+      <c r="L131" s="94"/>
+      <c r="M131" s="94"/>
+      <c r="N131" s="94"/>
       <c r="O131" s="72"/>
-      <c r="Q131" s="92" t="s">
+      <c r="Q131" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="R131" s="92"/>
-      <c r="S131" s="92"/>
-      <c r="T131" s="92"/>
-      <c r="U131" s="92"/>
-      <c r="V131" s="92"/>
-      <c r="W131" s="92"/>
-      <c r="X131" s="92"/>
-      <c r="Y131" s="92"/>
-      <c r="Z131" s="92"/>
-      <c r="AA131" s="92"/>
-      <c r="AB131" s="92"/>
-      <c r="AC131" s="92"/>
-      <c r="AD131" s="92"/>
+      <c r="R131" s="94"/>
+      <c r="S131" s="94"/>
+      <c r="T131" s="94"/>
+      <c r="U131" s="94"/>
+      <c r="V131" s="94"/>
+      <c r="W131" s="94"/>
+      <c r="X131" s="94"/>
+      <c r="Y131" s="94"/>
+      <c r="Z131" s="94"/>
+      <c r="AA131" s="94"/>
+      <c r="AB131" s="94"/>
+      <c r="AC131" s="94"/>
+      <c r="AD131" s="94"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
@@ -50911,13 +50867,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="Q35:AD35"/>
-    <mergeCell ref="A65:AD65"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="Q3:AD3"/>
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="Q131:AD131"/>
     <mergeCell ref="A67:N67"/>
@@ -50926,6 +50875,13 @@
     <mergeCell ref="A99:N99"/>
     <mergeCell ref="Q99:AD99"/>
     <mergeCell ref="A129:AD129"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="Q35:AD35"/>
+    <mergeCell ref="A65:AD65"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="Q3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50936,7 +50892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072563F6-99A6-4401-950A-D346AD232483}">
   <dimension ref="A1:EC335"/>
   <sheetViews>
-    <sheetView topLeftCell="AI191" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="BF41" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="AU92" sqref="AU92"/>
     </sheetView>
   </sheetViews>

--- a/Optimization_Result.xlsx
+++ b/Optimization_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCF607E-7C14-4468-A69B-04A0AEF83CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF247C6-9960-400E-ADE5-9B059E396142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="544" firstSheet="3" activeTab="6" xr2:uid="{D3F1141B-13E0-4FAD-BB89-3B485E477EF2}"/>
   </bookViews>
@@ -1539,7 +1539,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1572,15 +1571,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33034,8 +33034,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>648757</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33050,8 +33050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5397499" y="4773083"/>
-          <a:ext cx="5241925" cy="2603500"/>
+          <a:off x="5399011" y="4773083"/>
+          <a:ext cx="5264603" cy="2928560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -33109,7 +33109,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-            <a:t>3. get figures for sites (0.5 day)</a:t>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" strike="sngStrike" baseline="0"/>
+            <a:t>get figures for sites (0.5 day)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -33146,7 +33150,7 @@
             <a:t>6. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" baseline="0">
+            <a:rPr lang="en-GB" sz="1600" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -33160,12 +33164,22 @@
             <a:t>7. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" baseline="0">
+            <a:rPr lang="en-GB" sz="1600" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Testing the procedure on one single month at a time (12 FDC plot)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8. Email Nigel</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -34913,13 +34927,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>573774</xdr:colOff>
+      <xdr:colOff>589649</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>37464</xdr:rowOff>
     </xdr:to>
@@ -34944,7 +34958,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29178250" y="6032500"/>
+          <a:off x="29194125" y="6032500"/>
           <a:ext cx="7209524" cy="5085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34956,15 +34970,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>288024</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>557899</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>37464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -34988,7 +35002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36734750" y="587375"/>
+          <a:off x="29162375" y="11287125"/>
           <a:ext cx="7209524" cy="5085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35208,6 +35222,138 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>538940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26026F6-96EF-43F8-99EF-FB9E5CADCA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36512500" y="603250"/>
+          <a:ext cx="6476190" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>538940</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A2C39C-2936-4531-A5FB-6C3F76EBAD0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36512500" y="6048375"/>
+          <a:ext cx="6476190" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>586565</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A6EF07-B526-4F71-BCAC-442217DC0164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36560125" y="11303000"/>
+          <a:ext cx="6476190" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -41016,7 +41162,7 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="83" t="s">
+      <c r="M14" s="82" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -41031,7 +41177,7 @@
       <c r="Q14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="83" t="s">
+      <c r="S14" s="82" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -41060,7 +41206,7 @@
       <c r="D15" s="3">
         <v>1815.162</v>
       </c>
-      <c r="M15" s="83"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="3">
         <v>0.24168126094570899</v>
       </c>
@@ -41073,7 +41219,7 @@
       <c r="Q15" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S15" s="83"/>
+      <c r="S15" s="82"/>
       <c r="T15">
         <v>0.24281535469403701</v>
       </c>
@@ -41100,7 +41246,7 @@
       <c r="D16" s="3">
         <v>1543.2850000000001</v>
       </c>
-      <c r="M16" s="83"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="3">
         <v>0.22709163346613501</v>
       </c>
@@ -41113,7 +41259,7 @@
       <c r="Q16" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S16" s="83"/>
+      <c r="S16" s="82"/>
       <c r="T16">
         <v>0.22770702116837299</v>
       </c>
@@ -41140,7 +41286,7 @@
       <c r="D17" s="3">
         <v>1329.6849999999999</v>
       </c>
-      <c r="M17" s="83"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="3">
         <v>0.20782608695652199</v>
       </c>
@@ -41153,7 +41299,7 @@
       <c r="Q17" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S17" s="83"/>
+      <c r="S17" s="82"/>
       <c r="T17">
         <v>0.207856237739656</v>
       </c>
@@ -41180,7 +41326,7 @@
       <c r="D18" s="3">
         <v>1825.4069999999999</v>
       </c>
-      <c r="M18" s="83"/>
+      <c r="M18" s="82"/>
       <c r="N18" s="3">
         <v>0.20768526989936001</v>
       </c>
@@ -41193,7 +41339,7 @@
       <c r="Q18" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S18" s="83"/>
+      <c r="S18" s="82"/>
       <c r="T18">
         <v>0.20657197431836</v>
       </c>
@@ -41220,7 +41366,7 @@
       <c r="D19" s="3">
         <v>1507.5050000000001</v>
       </c>
-      <c r="M19" s="83"/>
+      <c r="M19" s="82"/>
       <c r="N19" s="3">
         <v>0.26035502958579898</v>
       </c>
@@ -41233,7 +41379,7 @@
       <c r="Q19" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S19" s="83"/>
+      <c r="S19" s="82"/>
       <c r="T19">
         <v>0.26147096995062202</v>
       </c>
@@ -41260,7 +41406,7 @@
       <c r="D20" s="3">
         <v>1288.2919999999999</v>
       </c>
-      <c r="M20" s="83"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="3">
         <v>0.31353919239904998</v>
       </c>
@@ -41273,7 +41419,7 @@
       <c r="Q20" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S20" s="83"/>
+      <c r="S20" s="82"/>
       <c r="T20">
         <v>0.313856550161348</v>
       </c>
@@ -41300,7 +41446,7 @@
       <c r="D21" s="3">
         <v>2177.873</v>
       </c>
-      <c r="M21" s="83"/>
+      <c r="M21" s="82"/>
       <c r="N21" s="3">
         <v>0.346964064436183</v>
       </c>
@@ -41313,7 +41459,7 @@
       <c r="Q21" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S21" s="83"/>
+      <c r="S21" s="82"/>
       <c r="T21">
         <v>0.34663647213886001</v>
       </c>
@@ -41340,7 +41486,7 @@
       <c r="D22" s="3">
         <v>2067.9340000000002</v>
       </c>
-      <c r="M22" s="83"/>
+      <c r="M22" s="82"/>
       <c r="N22" s="3">
         <v>0.35272277227722798</v>
       </c>
@@ -41353,7 +41499,7 @@
       <c r="Q22" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S22" s="83"/>
+      <c r="S22" s="82"/>
       <c r="T22">
         <v>0.35022641404092802</v>
       </c>
@@ -41380,7 +41526,7 @@
       <c r="D23" s="3">
         <v>1173.951</v>
       </c>
-      <c r="M23" s="83"/>
+      <c r="M23" s="82"/>
       <c r="N23" s="3">
         <v>0.341890315052509</v>
       </c>
@@ -41393,7 +41539,7 @@
       <c r="Q23" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S23" s="83"/>
+      <c r="S23" s="82"/>
       <c r="T23">
         <v>0.341276432193581</v>
       </c>
@@ -41420,7 +41566,7 @@
       <c r="D24" s="3">
         <v>994.18669999999997</v>
       </c>
-      <c r="M24" s="83"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="3">
         <v>0.290091930541369</v>
       </c>
@@ -41433,7 +41579,7 @@
       <c r="Q24" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S24" s="83"/>
+      <c r="S24" s="82"/>
       <c r="T24">
         <v>0.29131824789453997</v>
       </c>
@@ -41460,7 +41606,7 @@
       <c r="D25" s="3">
         <v>1263.0229999999999</v>
       </c>
-      <c r="M25" s="83"/>
+      <c r="M25" s="82"/>
       <c r="N25" s="3">
         <v>0.29184549356223199</v>
       </c>
@@ -41473,7 +41619,7 @@
       <c r="Q25" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S25" s="83"/>
+      <c r="S25" s="82"/>
       <c r="T25">
         <v>0.29296704912500299</v>
       </c>
@@ -41500,7 +41646,7 @@
       <c r="D26" s="3">
         <v>1473.625</v>
       </c>
-      <c r="M26" s="83"/>
+      <c r="M26" s="82"/>
       <c r="N26" s="3">
         <v>0.26524953789279099</v>
       </c>
@@ -41513,7 +41659,7 @@
       <c r="Q26" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S26" s="83"/>
+      <c r="S26" s="82"/>
       <c r="T26">
         <v>0.26784852857098901</v>
       </c>
@@ -41554,7 +41700,7 @@
       <c r="D28" s="3">
         <v>1619.3030000000001</v>
       </c>
-      <c r="M28" s="83" t="s">
+      <c r="M28" s="82" t="s">
         <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -41569,7 +41715,7 @@
       <c r="Q28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="82" t="s">
         <v>50</v>
       </c>
       <c r="T28" s="2" t="s">
@@ -41598,7 +41744,7 @@
       <c r="D29" s="3">
         <v>1146.146</v>
       </c>
-      <c r="M29" s="83"/>
+      <c r="M29" s="82"/>
       <c r="N29" s="3">
         <v>0.132010832002628</v>
       </c>
@@ -41611,7 +41757,7 @@
       <c r="Q29" s="3">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="S29" s="83"/>
+      <c r="S29" s="82"/>
       <c r="T29">
         <v>0.132010832002628</v>
       </c>
@@ -41638,7 +41784,7 @@
       <c r="D30" s="3">
         <v>986.28129999999999</v>
       </c>
-      <c r="M30" s="83"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="3">
         <v>0.62926703107693105</v>
       </c>
@@ -41651,7 +41797,7 @@
       <c r="Q30" s="3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="S30" s="83"/>
+      <c r="S30" s="82"/>
       <c r="T30">
         <v>0.62926703107693105</v>
       </c>
@@ -41678,7 +41824,7 @@
       <c r="D31" s="3">
         <v>987.81460000000004</v>
       </c>
-      <c r="M31" s="83"/>
+      <c r="M31" s="82"/>
       <c r="N31" s="3">
         <v>0.18298639086221399</v>
       </c>
@@ -41691,7 +41837,7 @@
       <c r="Q31" s="3">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="S31" s="83"/>
+      <c r="S31" s="82"/>
       <c r="T31">
         <v>0.18298639086221399</v>
       </c>
@@ -41718,7 +41864,7 @@
       <c r="D32" s="3">
         <v>987.72159999999997</v>
       </c>
-      <c r="M32" s="83"/>
+      <c r="M32" s="82"/>
       <c r="N32" s="3">
         <v>0.249386856866157</v>
       </c>
@@ -41731,7 +41877,7 @@
       <c r="Q32" s="3">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="S32" s="83"/>
+      <c r="S32" s="82"/>
       <c r="T32">
         <v>0.249386856866157</v>
       </c>
@@ -41758,7 +41904,7 @@
       <c r="D33" s="3">
         <v>993.11519999999996</v>
       </c>
-      <c r="M33" s="83"/>
+      <c r="M33" s="82"/>
       <c r="N33" s="3">
         <v>0.79922256284015902</v>
       </c>
@@ -41771,7 +41917,7 @@
       <c r="Q33" s="3">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="S33" s="83"/>
+      <c r="S33" s="82"/>
       <c r="T33">
         <v>0.79922256284015902</v>
       </c>
@@ -41793,7 +41939,7 @@
         <f>SUM(D15:D33)</f>
         <v>27206.199400000001</v>
       </c>
-      <c r="M34" s="83"/>
+      <c r="M34" s="82"/>
       <c r="N34" s="3">
         <v>0.53752346644159699</v>
       </c>
@@ -41806,7 +41952,7 @@
       <c r="Q34" s="3">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="S34" s="83"/>
+      <c r="S34" s="82"/>
       <c r="T34">
         <v>0.53752346644159699</v>
       </c>
@@ -41833,7 +41979,7 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="83"/>
+      <c r="M35" s="82"/>
       <c r="N35" s="3">
         <v>0.34931168230964799</v>
       </c>
@@ -41846,7 +41992,7 @@
       <c r="Q35" s="3">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="S35" s="83"/>
+      <c r="S35" s="82"/>
       <c r="T35">
         <v>0.34931168230964799</v>
       </c>
@@ -41873,7 +42019,7 @@
       <c r="D36" s="3">
         <v>2788.3130000000001</v>
       </c>
-      <c r="M36" s="83"/>
+      <c r="M36" s="82"/>
       <c r="N36" s="3">
         <v>0.10756037511975799</v>
       </c>
@@ -41886,7 +42032,7 @@
       <c r="Q36" s="3">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="S36" s="83"/>
+      <c r="S36" s="82"/>
       <c r="T36">
         <v>0.10756037511975799</v>
       </c>
@@ -41913,7 +42059,7 @@
       <c r="D37" s="3">
         <v>5354.3760000000002</v>
       </c>
-      <c r="M37" s="83"/>
+      <c r="M37" s="82"/>
       <c r="N37" s="3">
         <v>0.36498075977389499</v>
       </c>
@@ -41926,7 +42072,7 @@
       <c r="Q37" s="3">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="S37" s="83"/>
+      <c r="S37" s="82"/>
       <c r="T37">
         <v>0.36498075977389499</v>
       </c>
@@ -41953,7 +42099,7 @@
       <c r="D38" s="3">
         <v>2056.951</v>
       </c>
-      <c r="M38" s="83"/>
+      <c r="M38" s="82"/>
       <c r="N38" s="3">
         <v>0.58906938258170305</v>
       </c>
@@ -41966,7 +42112,7 @@
       <c r="Q38" s="3">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="S38" s="83"/>
+      <c r="S38" s="82"/>
       <c r="T38">
         <v>0.58906938258170305</v>
       </c>
@@ -41993,7 +42139,7 @@
       <c r="D39" s="3">
         <v>2598.2939999999999</v>
       </c>
-      <c r="M39" s="83"/>
+      <c r="M39" s="82"/>
       <c r="N39" s="3">
         <v>0.55962485802261996</v>
       </c>
@@ -42006,7 +42152,7 @@
       <c r="Q39" s="3">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="S39" s="83"/>
+      <c r="S39" s="82"/>
       <c r="T39">
         <v>0.55962485802261996</v>
       </c>
@@ -42033,7 +42179,7 @@
       <c r="D40" s="3">
         <v>1862.5630000000001</v>
       </c>
-      <c r="M40" s="83"/>
+      <c r="M40" s="82"/>
       <c r="N40" s="3">
         <v>0.64629375664722799</v>
       </c>
@@ -42046,7 +42192,7 @@
       <c r="Q40" s="3">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="S40" s="83"/>
+      <c r="S40" s="82"/>
       <c r="T40">
         <v>0.64629375664722799</v>
       </c>
@@ -42718,7 +42864,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -42735,7 +42881,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
+      <c r="A88" s="82"/>
       <c r="B88">
         <v>0.24876353457231101</v>
       </c>
@@ -42750,7 +42896,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
+      <c r="A89" s="82"/>
       <c r="B89">
         <v>0.219987429047449</v>
       </c>
@@ -42765,7 +42911,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
+      <c r="A90" s="82"/>
       <c r="B90">
         <v>0.207088697175904</v>
       </c>
@@ -42780,7 +42926,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
+      <c r="A91" s="82"/>
       <c r="B91">
         <v>0.20282760809472999</v>
       </c>
@@ -42795,7 +42941,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
+      <c r="A92" s="82"/>
       <c r="B92">
         <v>0.25821864807263301</v>
       </c>
@@ -42810,7 +42956,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
+      <c r="A93" s="82"/>
       <c r="B93">
         <v>0.31357578247072398</v>
       </c>
@@ -42825,7 +42971,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
+      <c r="A94" s="82"/>
       <c r="B94">
         <v>0.333053483335428</v>
       </c>
@@ -42840,7 +42986,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
+      <c r="A95" s="82"/>
       <c r="B95">
         <v>0.338303892182162</v>
       </c>
@@ -42855,7 +43001,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
+      <c r="A96" s="82"/>
       <c r="B96">
         <v>0.32122943103168999</v>
       </c>
@@ -42870,7 +43016,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
+      <c r="A97" s="82"/>
       <c r="B97">
         <v>0.29765907929784002</v>
       </c>
@@ -42885,7 +43031,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
+      <c r="A98" s="82"/>
       <c r="B98">
         <v>0.29113640522276701</v>
       </c>
@@ -42900,7 +43046,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="82"/>
       <c r="B99">
         <v>0.25230062336532699</v>
       </c>
@@ -43311,7 +43457,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -43328,7 +43474,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="83"/>
+      <c r="A146" s="82"/>
       <c r="B146">
         <v>0.38368211461238</v>
       </c>
@@ -43343,7 +43489,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="83"/>
+      <c r="A147" s="82"/>
       <c r="B147">
         <v>0.20605651219003199</v>
       </c>
@@ -43358,7 +43504,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="83"/>
+      <c r="A148" s="82"/>
       <c r="B148">
         <v>0.22396731801869299</v>
       </c>
@@ -43373,7 +43519,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="83"/>
+      <c r="A149" s="82"/>
       <c r="B149">
         <v>0.164370937833303</v>
       </c>
@@ -43388,7 +43534,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="83"/>
+      <c r="A150" s="82"/>
       <c r="B150">
         <v>0.350240953604671</v>
       </c>
@@ -43403,7 +43549,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="83"/>
+      <c r="A151" s="82"/>
       <c r="B151">
         <v>0.32638254766569802</v>
       </c>
@@ -43418,7 +43564,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="83"/>
+      <c r="A152" s="82"/>
       <c r="B152">
         <v>0.464945259283363</v>
       </c>
@@ -43433,7 +43579,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="83"/>
+      <c r="A153" s="82"/>
       <c r="B153">
         <v>0.34137738582760402</v>
       </c>
@@ -43448,7 +43594,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="83"/>
+      <c r="A154" s="82"/>
       <c r="B154">
         <v>0.39366082978484002</v>
       </c>
@@ -43463,7 +43609,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="83"/>
+      <c r="A155" s="82"/>
       <c r="B155">
         <v>0.290769269022711</v>
       </c>
@@ -43478,7 +43624,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="83"/>
+      <c r="A156" s="82"/>
       <c r="B156">
         <v>0.30596583123314502</v>
       </c>
@@ -43493,7 +43639,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="83"/>
+      <c r="A157" s="82"/>
       <c r="B157">
         <v>0.383663141371682</v>
       </c>
@@ -43508,7 +43654,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="83" t="s">
+      <c r="A179" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -43525,7 +43671,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="83"/>
+      <c r="A180" s="82"/>
       <c r="B180">
         <v>0.24168126094570899</v>
       </c>
@@ -43541,7 +43687,7 @@
       <c r="H180"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="83"/>
+      <c r="A181" s="82"/>
       <c r="B181">
         <v>0.22709163346613501</v>
       </c>
@@ -43556,7 +43702,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="83"/>
+      <c r="A182" s="82"/>
       <c r="B182">
         <v>0.20782608695652199</v>
       </c>
@@ -43571,7 +43717,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="83"/>
+      <c r="A183" s="82"/>
       <c r="B183">
         <v>0.20768526989936001</v>
       </c>
@@ -43586,7 +43732,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="83"/>
+      <c r="A184" s="82"/>
       <c r="B184">
         <v>0.26035502958579898</v>
       </c>
@@ -43601,7 +43747,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="83"/>
+      <c r="A185" s="82"/>
       <c r="B185">
         <v>0.47977156059663401</v>
       </c>
@@ -43616,7 +43762,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="83"/>
+      <c r="A186" s="82"/>
       <c r="B186">
         <v>0.64926486611971401</v>
       </c>
@@ -43631,7 +43777,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="83"/>
+      <c r="A187" s="82"/>
       <c r="B187">
         <v>9.9913538194629101E-2</v>
       </c>
@@ -43646,7 +43792,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="83"/>
+      <c r="A188" s="82"/>
       <c r="B188">
         <v>0.341890315052509</v>
       </c>
@@ -43661,7 +43807,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="83"/>
+      <c r="A189" s="82"/>
       <c r="B189">
         <v>0.290091930541369</v>
       </c>
@@ -43676,7 +43822,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="83"/>
+      <c r="A190" s="82"/>
       <c r="B190">
         <v>0.29184549356223199</v>
       </c>
@@ -43691,7 +43837,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="83"/>
+      <c r="A191" s="82"/>
       <c r="B191">
         <v>0.26524953789279099</v>
       </c>
@@ -43898,10 +44044,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="84">
         <v>1</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="83" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -43921,8 +44067,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="83"/>
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -43940,8 +44086,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="83"/>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -43959,8 +44105,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="83"/>
       <c r="D17" t="s">
         <v>71</v>
       </c>
@@ -43978,8 +44124,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="83"/>
       <c r="D18" t="s">
         <v>72</v>
       </c>
@@ -43997,8 +44143,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="83"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
@@ -44016,8 +44162,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="84"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="83"/>
       <c r="D20" t="s">
         <v>74</v>
       </c>
@@ -44035,8 +44181,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="83"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -44054,10 +44200,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="85">
+      <c r="A27" s="84">
         <v>2</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="83" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -44071,8 +44217,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="84"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="83"/>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -44084,8 +44230,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="84"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="83"/>
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -44097,8 +44243,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="84"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="83"/>
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -44110,8 +44256,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="83"/>
       <c r="D31" t="s">
         <v>72</v>
       </c>
@@ -44123,8 +44269,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="84"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="83"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
@@ -44136,8 +44282,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="84"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="83"/>
       <c r="D33" t="s">
         <v>74</v>
       </c>
@@ -44149,8 +44295,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="84"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="83"/>
       <c r="D34" t="s">
         <v>75</v>
       </c>
@@ -44162,10 +44308,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="86">
+      <c r="A41" s="85">
         <v>3</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="83" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -44179,8 +44325,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="84"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="83"/>
       <c r="D42" t="s">
         <v>69</v>
       </c>
@@ -44192,8 +44338,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="84"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="83"/>
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -44205,8 +44351,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="83"/>
       <c r="D44" t="s">
         <v>71</v>
       </c>
@@ -44218,8 +44364,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="84"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="83"/>
       <c r="D45" t="s">
         <v>72</v>
       </c>
@@ -44231,8 +44377,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="84"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="83"/>
       <c r="D46" t="s">
         <v>73</v>
       </c>
@@ -44244,8 +44390,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="84"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="83"/>
       <c r="D47" t="s">
         <v>74</v>
       </c>
@@ -44257,8 +44403,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="84"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="D48" t="s">
         <v>75</v>
       </c>
@@ -44270,10 +44416,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="85">
+      <c r="A56" s="84">
         <v>4</v>
       </c>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="83" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -44296,8 +44442,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="84"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="83"/>
       <c r="D57" t="s">
         <v>69</v>
       </c>
@@ -44318,8 +44464,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
-      <c r="B58" s="84"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="83"/>
       <c r="D58" t="s">
         <v>70</v>
       </c>
@@ -44340,8 +44486,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
-      <c r="B59" s="84"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="83"/>
       <c r="D59" t="s">
         <v>71</v>
       </c>
@@ -44362,8 +44508,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
-      <c r="B60" s="84"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="83"/>
       <c r="D60" t="s">
         <v>72</v>
       </c>
@@ -44384,8 +44530,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
-      <c r="B61" s="84"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="83"/>
       <c r="D61" t="s">
         <v>73</v>
       </c>
@@ -44406,8 +44552,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="B62" s="84"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="83"/>
       <c r="D62" t="s">
         <v>74</v>
       </c>
@@ -44428,8 +44574,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
-      <c r="B63" s="84"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="83"/>
       <c r="D63" t="s">
         <v>75</v>
       </c>
@@ -44682,7 +44828,7 @@
   <dimension ref="D9:Q37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:Q39"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44694,24 +44840,24 @@
   <sheetData>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89" t="s">
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="89" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="87"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="24"/>
@@ -44800,7 +44946,7 @@
       <c r="H12" s="38"/>
       <c r="I12" s="73"/>
       <c r="J12" s="74"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="24"/>
       <c r="M12" s="32"/>
       <c r="N12" s="37"/>
@@ -44817,9 +44963,9 @@
       <c r="H13" s="38"/>
       <c r="I13" s="73"/>
       <c r="J13" s="74"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="78"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="37"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -44834,7 +44980,7 @@
       <c r="H14" s="43"/>
       <c r="I14" s="73"/>
       <c r="J14" s="74"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="24"/>
       <c r="M14" s="32"/>
       <c r="N14" s="35"/>
@@ -44851,7 +44997,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="73"/>
       <c r="J15" s="74"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="24"/>
       <c r="M15" s="32"/>
       <c r="N15" s="35"/>
@@ -44885,7 +45031,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="73"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="29"/>
       <c r="M17" s="32"/>
       <c r="N17" s="35"/>
@@ -44937,7 +45083,7 @@
       <c r="I20" s="75"/>
       <c r="J20" s="76"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="80"/>
+      <c r="L20" s="79"/>
       <c r="M20" s="32"/>
       <c r="N20" s="35"/>
       <c r="O20" s="24"/>
@@ -44953,8 +45099,8 @@
       <c r="H21" s="44"/>
       <c r="I21" s="73"/>
       <c r="J21" s="74"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="79"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="32"/>
       <c r="N21" s="35"/>
       <c r="O21" s="24"/>
@@ -44969,8 +45115,8 @@
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="73"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="45"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="45"/>
       <c r="M22" s="36"/>
       <c r="N22" s="35"/>
@@ -45343,36 +45489,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="Q1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="69" t="s">
@@ -46348,36 +46494,36 @@
       <c r="AI14" s="62"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="Q15" s="91" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="Q15" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
       <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -46847,36 +46993,36 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="Q31" s="90" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="Q31" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
     </row>
     <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
@@ -47374,36 +47520,36 @@
       <c r="M38" s="64"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="Q39" s="91" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="Q39" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="91"/>
-      <c r="AC39" s="91"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" s="66" t="s">
@@ -47655,8 +47801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5F9851-6AE1-4E06-BEF5-45DAC3CC84A1}">
   <dimension ref="A1:BR172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="CC175" sqref="CC175"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BR31" sqref="BR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47700,39 +47846,39 @@
       <c r="AD1" s="92"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
       <c r="O3" s="72"/>
-      <c r="Q3" s="94" t="s">
+      <c r="Q3" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -48339,39 +48485,39 @@
       <c r="AD33" s="93"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
       <c r="O35" s="72"/>
-      <c r="Q35" s="94" t="s">
+      <c r="Q35" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -48978,39 +49124,39 @@
       <c r="AD65" s="93"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
       <c r="O67" s="72"/>
-      <c r="Q67" s="94" t="s">
+      <c r="Q67" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="R67" s="94"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="94"/>
-      <c r="U67" s="94"/>
-      <c r="V67" s="94"/>
-      <c r="W67" s="94"/>
-      <c r="X67" s="94"/>
-      <c r="Y67" s="94"/>
-      <c r="Z67" s="94"/>
-      <c r="AA67" s="94"/>
-      <c r="AB67" s="94"/>
-      <c r="AC67" s="94"/>
-      <c r="AD67" s="94"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
+      <c r="V67" s="91"/>
+      <c r="W67" s="91"/>
+      <c r="X67" s="91"/>
+      <c r="Y67" s="91"/>
+      <c r="Z67" s="91"/>
+      <c r="AA67" s="91"/>
+      <c r="AB67" s="91"/>
+      <c r="AC67" s="91"/>
+      <c r="AD67" s="91"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -49617,39 +49763,39 @@
       <c r="AD97" s="92"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="94" t="s">
+      <c r="A99" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="B99" s="94"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="94"/>
-      <c r="J99" s="94"/>
-      <c r="K99" s="94"/>
-      <c r="L99" s="94"/>
-      <c r="M99" s="94"/>
-      <c r="N99" s="94"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
+      <c r="J99" s="91"/>
+      <c r="K99" s="91"/>
+      <c r="L99" s="91"/>
+      <c r="M99" s="91"/>
+      <c r="N99" s="91"/>
       <c r="O99" s="72"/>
-      <c r="Q99" s="94" t="s">
+      <c r="Q99" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="R99" s="94"/>
-      <c r="S99" s="94"/>
-      <c r="T99" s="94"/>
-      <c r="U99" s="94"/>
-      <c r="V99" s="94"/>
-      <c r="W99" s="94"/>
-      <c r="X99" s="94"/>
-      <c r="Y99" s="94"/>
-      <c r="Z99" s="94"/>
-      <c r="AA99" s="94"/>
-      <c r="AB99" s="94"/>
-      <c r="AC99" s="94"/>
-      <c r="AD99" s="94"/>
+      <c r="R99" s="91"/>
+      <c r="S99" s="91"/>
+      <c r="T99" s="91"/>
+      <c r="U99" s="91"/>
+      <c r="V99" s="91"/>
+      <c r="W99" s="91"/>
+      <c r="X99" s="91"/>
+      <c r="Y99" s="91"/>
+      <c r="Z99" s="91"/>
+      <c r="AA99" s="91"/>
+      <c r="AB99" s="91"/>
+      <c r="AC99" s="91"/>
+      <c r="AD99" s="91"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
@@ -50256,39 +50402,39 @@
       <c r="AD129" s="92"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A131" s="94" t="s">
+      <c r="A131" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="94"/>
-      <c r="C131" s="94"/>
-      <c r="D131" s="94"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="94"/>
-      <c r="G131" s="94"/>
-      <c r="H131" s="94"/>
-      <c r="I131" s="94"/>
-      <c r="J131" s="94"/>
-      <c r="K131" s="94"/>
-      <c r="L131" s="94"/>
-      <c r="M131" s="94"/>
-      <c r="N131" s="94"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="91"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="91"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="91"/>
+      <c r="N131" s="91"/>
       <c r="O131" s="72"/>
-      <c r="Q131" s="94" t="s">
+      <c r="Q131" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="R131" s="94"/>
-      <c r="S131" s="94"/>
-      <c r="T131" s="94"/>
-      <c r="U131" s="94"/>
-      <c r="V131" s="94"/>
-      <c r="W131" s="94"/>
-      <c r="X131" s="94"/>
-      <c r="Y131" s="94"/>
-      <c r="Z131" s="94"/>
-      <c r="AA131" s="94"/>
-      <c r="AB131" s="94"/>
-      <c r="AC131" s="94"/>
-      <c r="AD131" s="94"/>
+      <c r="R131" s="91"/>
+      <c r="S131" s="91"/>
+      <c r="T131" s="91"/>
+      <c r="U131" s="91"/>
+      <c r="V131" s="91"/>
+      <c r="W131" s="91"/>
+      <c r="X131" s="91"/>
+      <c r="Y131" s="91"/>
+      <c r="Z131" s="91"/>
+      <c r="AA131" s="91"/>
+      <c r="AB131" s="91"/>
+      <c r="AC131" s="91"/>
+      <c r="AD131" s="91"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
@@ -50860,6 +51006,11 @@
         <v>276</v>
       </c>
     </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="94">
+        <v>0.33403935185185185</v>
+      </c>
+    </row>
     <row r="172" spans="70:70" x14ac:dyDescent="0.25">
       <c r="BR172" t="s">
         <v>295</v>
@@ -50867,6 +51018,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="Q35:AD35"/>
+    <mergeCell ref="A65:AD65"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="Q3:AD3"/>
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="Q131:AD131"/>
     <mergeCell ref="A67:N67"/>
@@ -50875,13 +51033,6 @@
     <mergeCell ref="A99:N99"/>
     <mergeCell ref="Q99:AD99"/>
     <mergeCell ref="A129:AD129"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="Q35:AD35"/>
-    <mergeCell ref="A65:AD65"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="Q3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50892,8 +51043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072563F6-99A6-4401-950A-D346AD232483}">
   <dimension ref="A1:EC335"/>
   <sheetViews>
-    <sheetView topLeftCell="BF41" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AU92" sqref="AU92"/>
+    <sheetView topLeftCell="A251" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="O261" sqref="O261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61256,7 +61407,7 @@
       <c r="I245" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="J245" s="81" t="s">
+      <c r="J245" s="80" t="s">
         <v>170</v>
       </c>
       <c r="K245" s="53" t="s">
@@ -61392,7 +61543,7 @@
       <c r="A247" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B247" s="81" t="s">
+      <c r="B247" s="80" t="s">
         <v>170</v>
       </c>
       <c r="C247" s="53" t="s">
@@ -63874,7 +64025,7 @@
       <c r="F288" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="G288" s="82" t="s">
+      <c r="G288" s="81" t="s">
         <v>170</v>
       </c>
       <c r="H288" s="48" t="s">
@@ -64611,7 +64762,7 @@
       <c r="Z300" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AA300" s="81" t="s">
+      <c r="AA300" s="80" t="s">
         <v>170</v>
       </c>
       <c r="AB300" s="48" t="s">
@@ -64759,28 +64910,28 @@
       <c r="V302" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="W302" s="81" t="s">
+      <c r="W302" s="80" t="s">
         <v>170</v>
       </c>
       <c r="X302" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="Y302" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z302" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA302" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB302" s="81" t="s">
+      <c r="Y302" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z302" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA302" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB302" s="80" t="s">
         <v>170</v>
       </c>
       <c r="AC302" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AD302" s="81" t="s">
+      <c r="AD302" s="80" t="s">
         <v>170</v>
       </c>
     </row>
@@ -65270,7 +65421,7 @@
       <c r="L312" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="M312" s="46" t="s">
+      <c r="M312" s="53" t="s">
         <v>169</v>
       </c>
       <c r="R312" t="s">
@@ -65501,7 +65652,7 @@
       <c r="I315" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="J315" s="46" t="s">
+      <c r="J315" s="53" t="s">
         <v>169</v>
       </c>
       <c r="K315" s="48" t="s">
@@ -65557,7 +65708,7 @@
       <c r="A316" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B316" s="46" t="s">
+      <c r="B316" s="53" t="s">
         <v>169</v>
       </c>
       <c r="C316" s="48" t="s">
@@ -65806,7 +65957,7 @@
       <c r="D319" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E319" s="46" t="s">
+      <c r="E319" s="53" t="s">
         <v>169</v>
       </c>
       <c r="F319" s="48" t="s">
